--- a/financial_models/opportunities/1288.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06C50CB3-0E28-4D25-A292-DAAEBC0C47C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91894324-C5D1-4F7A-867B-4FDEBF6159FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1103" yWindow="1103" windowWidth="12690" windowHeight="7642" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2235,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="142">
-        <v>4.0199999809265137</v>
+        <v>3.9200000762939453</v>
       </c>
       <c r="H3" s="144" t="s">
         <v>2</v>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="G5" s="209">
         <f>G3*G4/1000000</f>
-        <v>1406931.7894940635</v>
+        <v>1371933.5194837463</v>
       </c>
       <c r="H5" s="209"/>
       <c r="I5" s="38"/>
@@ -2318,7 +2318,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="143">
-        <v>1.0845636924107869</v>
+        <v>1.0842636823654175</v>
       </c>
       <c r="H7" s="74" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2478,7 +2478,7 @@
       </c>
       <c r="G23" s="207">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.10084291548974487</v>
+        <v>9.8361596240803026E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="G24" s="208">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>0.12966758688549365</v>
+        <v>0.13293864684791165</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="G26" s="208">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>6.229496461836638E-2</v>
+        <v>6.3866448822844785E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2554,16 +2554,16 @@
       </c>
       <c r="C29" s="140">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>2.7620487857829117</v>
+        <v>2.7612847528475166</v>
       </c>
       <c r="D29" s="139">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>4.6034146429715195</v>
+        <v>4.6021412547458613</v>
       </c>
       <c r="E29" s="90"/>
       <c r="F29" s="141">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>3.6827317143772156</v>
+        <v>3.681713003796689</v>
       </c>
       <c r="H29" s="90"/>
     </row>
@@ -6975,11 +6975,11 @@
       <c r="C6" s="90"/>
       <c r="D6" s="72">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>4048308.8135904786</v>
+        <v>4047188.9777345182</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.68529688173907477</v>
+        <v>0.68538393434598766</v>
       </c>
       <c r="F6" s="90"/>
       <c r="G6" s="90"/>
@@ -7000,7 +7000,7 @@
       <c r="C7" s="90"/>
       <c r="D7" s="67">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>12.545318858170928</v>
+        <v>12.538379291321682</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -8567,7 +8567,7 @@
       <c r="E91" s="221"/>
       <c r="F91" s="29">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.12966758688549365</v>
+        <v>0.13293864684791165</v>
       </c>
       <c r="H91" s="161"/>
     </row>
@@ -8588,7 +8588,7 @@
       </c>
       <c r="F92" s="159">
         <f>FV(F91,D92,0,-(E86/C92))</f>
-        <v>10.04784866672261</v>
+        <v>10.194166076950697</v>
       </c>
       <c r="H92" s="161"/>
     </row>
@@ -8619,15 +8619,15 @@
       </c>
       <c r="C95" s="95">
         <f>D95*Common_Shares/Data!C4</f>
-        <v>2501673.6938002128</v>
+        <v>2537401.1394421929</v>
       </c>
       <c r="D95" s="132">
         <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
-        <v>7.1479856212344481</v>
+        <v>7.2500689858096141</v>
       </c>
       <c r="E95" s="132">
         <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
-        <v>5.4179993083727105</v>
+        <v>5.4953760167171639</v>
       </c>
       <c r="H95" s="24"/>
     </row>
@@ -8653,11 +8653,11 @@
       </c>
       <c r="C97" s="113">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>1316928.4267314593</v>
+        <v>1316564.1403738977</v>
       </c>
       <c r="D97" s="162">
         <f>C97*Data!$C$4/Common_Shares</f>
-        <v>3.7628350499108461</v>
+        <v>3.7617941812906439</v>
       </c>
       <c r="E97" s="163"/>
       <c r="F97" s="134" t="s">
@@ -8671,19 +8671,19 @@
       </c>
       <c r="C98" s="95">
         <f>C95-C96+$C$97</f>
-        <v>3818602.1205316721</v>
+        <v>3853965.2798160906</v>
       </c>
       <c r="D98" s="114">
         <f>MAX(C98*Data!$C$4/Common_Shares,0)</f>
-        <v>10.910820671145295</v>
+        <v>11.011863167100259</v>
       </c>
       <c r="E98" s="114">
         <f>E95*Exchange_Rate-D96+D97</f>
-        <v>9.6390003852786421</v>
+        <v>9.7202308171589955</v>
       </c>
       <c r="F98" s="114">
         <f>D98*1.25</f>
-        <v>13.638525838931619</v>
+        <v>13.764828958875324</v>
       </c>
       <c r="H98" s="24"/>
     </row>
@@ -8715,19 +8715,19 @@
       </c>
       <c r="C101" s="95">
         <f>D101*Common_Shares/Data!C4</f>
-        <v>1288893.6183380524</v>
+        <v>1288537.0869184411</v>
       </c>
       <c r="D101" s="132">
         <f>E87/(C92-D100)*Exchange_Rate</f>
-        <v>3.6827317143772156</v>
+        <v>3.681713003796689</v>
       </c>
       <c r="E101" s="114">
         <f>D101*(1-25%)</f>
-        <v>2.7620487857829117</v>
+        <v>2.7612847528475166</v>
       </c>
       <c r="F101" s="114">
         <f>D101*1.25</f>
-        <v>4.6034146429715195</v>
+        <v>4.6021412547458613</v>
       </c>
       <c r="H101" s="24"/>
     </row>
@@ -8759,19 +8759,19 @@
       </c>
       <c r="C104" s="95">
         <f>D104*Common_Shares/Data!C4</f>
-        <v>2553747.8694348624</v>
+        <v>2571251.1833672663</v>
       </c>
       <c r="D104" s="132">
         <f>(D98+D101)/2</f>
-        <v>7.2967761927612553</v>
+        <v>7.3467880854484742</v>
       </c>
       <c r="E104" s="114">
         <f>D104*(1-25%)</f>
-        <v>5.4725821445709411</v>
+        <v>5.5100910640863558</v>
       </c>
       <c r="F104" s="114">
         <f>D104*1.25</f>
-        <v>9.1209702409515696</v>
+        <v>9.1834851068105934</v>
       </c>
     </row>
     <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">

--- a/financial_models/opportunities/1288.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Stock_Valuation.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91894324-C5D1-4F7A-867B-4FDEBF6159FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C303E05-68B7-423C-96FA-DE3315C1BF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="12690" windowHeight="7642" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Fin_Analysis" sheetId="3" r:id="rId3"/>
+    <sheet name="Inputs" sheetId="4" r:id="rId2"/>
+    <sheet name="Data" sheetId="2" r:id="rId3"/>
+    <sheet name="Fin_Analysis" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="250">
   <si>
     <t>Company Info:</t>
   </si>
@@ -512,14 +513,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>@ 25% Discount</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>@ 25% Increase</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Note:</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -633,9 +626,6 @@
     <t>EPS</t>
   </si>
   <si>
-    <t>Dividend per share</t>
-  </si>
-  <si>
     <t>Operating Equity Valuation</t>
   </si>
   <si>
@@ -651,9 +641,6 @@
     <t>Selecting the Valuation method</t>
   </si>
   <si>
-    <t>Vaulation</t>
-  </si>
-  <si>
     <t>Lower</t>
   </si>
   <si>
@@ -682,9 +669,6 @@
   </si>
   <si>
     <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
-    <t>Choice of Required Return</t>
   </si>
   <si>
     <t>Normalized Payout Ratio</t>
@@ -766,22 +750,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Initial Rate of Return (E/P)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Future Value is</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>@Initial rate</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>@15% Target</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Avg of E and D method</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -826,7 +794,89 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>Base Case</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pessimistic Case</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dividend per share</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>E/P Initial Rate of Retrun</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>E/P Future Value is</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>D/P Future Value is</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target Return</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upper</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lower</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inputs</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Watchlist</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comp_Group:</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Shares:</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reporting Currency:</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choice of Required Return</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Most Recent Quarter</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common Equity =</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>D/P Dividend Yield</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1288.HK</t>
@@ -839,19 +889,13 @@
   <si>
     <t>C0014</t>
     <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNY</t>
-  </si>
-  <si>
-    <t>CN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="13">
+  <numFmts count="12">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -864,7 +908,6 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
-    <numFmt numFmtId="187" formatCode="&quot;@ &quot;0.00%&quot; Growth&quot;"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -1033,13 +1076,7 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Microsoft YaHei"/>
-      <family val="1"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -1047,14 +1084,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Microsoft YaHei"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1111,13 +1156,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="gray125">
+        <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,7 +1377,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1427,9 +1477,6 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1452,10 +1499,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1496,9 +1539,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1566,17 +1606,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1593,16 +1624,10 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1652,196 +1677,309 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="27" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="10" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="23" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1850,6 +1988,9 @@
     </xf>
     <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1857,7 +1998,55 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2182,8 +2371,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2199,13 +2388,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -2216,77 +2405,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>1288.HK : 农业银行</v>
       </c>
-      <c r="D2" s="90"/>
+      <c r="D2" s="87"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" s="211" t="s">
-        <v>235</v>
-      </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="90"/>
+        <v>211</v>
+      </c>
+      <c r="C3" s="245" t="str">
+        <f>Inputs!C4</f>
+        <v>1288.HK</v>
+      </c>
+      <c r="D3" s="246"/>
+      <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="142">
-        <v>3.9200000762939453</v>
-      </c>
-      <c r="H3" s="144" t="s">
+      <c r="G3" s="133">
+        <v>3.9200000762939502</v>
+      </c>
+      <c r="H3" s="135" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="C4" s="213" t="s">
-        <v>236</v>
-      </c>
-      <c r="D4" s="214"/>
-      <c r="E4" s="90"/>
+        <v>212</v>
+      </c>
+      <c r="C4" s="247" t="str">
+        <f>Inputs!C5</f>
+        <v>农业银行</v>
+      </c>
+      <c r="D4" s="248"/>
+      <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="217">
+      <c r="G4" s="251">
+        <f>Inputs!C10</f>
         <v>349983033873</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="251"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="215">
+        <v>175</v>
+      </c>
+      <c r="C5" s="249">
+        <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="216"/>
+      <c r="D5" s="250"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="209">
+      <c r="G5" s="243">
         <f>G3*G4/1000000</f>
-        <v>1371933.5194837463</v>
-      </c>
-      <c r="H5" s="209"/>
+        <v>1371933.5194837481</v>
+      </c>
+      <c r="H5" s="243"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="155">
+      <c r="C6" s="192">
+        <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="156">
+      <c r="D6" s="193">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -2297,275 +2491,292 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="210" t="s">
-        <v>238</v>
-      </c>
-      <c r="H6" s="210"/>
+      <c r="G6" s="244" t="str">
+        <f>Inputs!C11</f>
+        <v>CNY</v>
+      </c>
+      <c r="H6" s="244"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="89" t="s">
-        <v>214</v>
-      </c>
-      <c r="C7" s="154" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="158" t="s">
-        <v>237</v>
-      </c>
-      <c r="E7" s="90"/>
+      <c r="B7" s="86" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="194" t="str">
+        <f>Inputs!C8</f>
+        <v>Y</v>
+      </c>
+      <c r="D7" s="194" t="str">
+        <f>Inputs!C9</f>
+        <v>C0014</v>
+      </c>
+      <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="143">
-        <v>1.0842636823654175</v>
-      </c>
-      <c r="H7" s="74" t="str">
+      <c r="G7" s="134">
+        <v>1.08</v>
+      </c>
+      <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="149" t="s">
-        <v>212</v>
-      </c>
-      <c r="F9" s="153" t="s">
-        <v>206</v>
+      <c r="B9" s="140" t="s">
+        <v>207</v>
+      </c>
+      <c r="F9" s="144" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="202">
+        <v>190</v>
+      </c>
+      <c r="C10" s="178">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="F10" s="115" t="s">
-        <v>203</v>
+      <c r="F10" s="111" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="130" t="s">
-        <v>199</v>
-      </c>
-      <c r="C11" s="203">
+      <c r="B11" s="123" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="179">
         <v>5.3099999999999994E-2</v>
       </c>
-      <c r="D11" s="147" t="s">
-        <v>210</v>
-      </c>
-      <c r="F11" s="115" t="s">
-        <v>197</v>
+      <c r="D11" s="138" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="111" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="204">
-        <v>0.08</v>
-      </c>
-      <c r="D12" s="202">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="F12" s="115"/>
+      <c r="C12" s="180">
+        <v>0.06</v>
+      </c>
+      <c r="D12" s="178">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F12" s="111"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C14" s="202">
+        <v>191</v>
+      </c>
+      <c r="C14" s="178">
         <v>2.1309999999999999E-2</v>
       </c>
-      <c r="F14" s="115" t="s">
-        <v>202</v>
+      <c r="F14" s="111" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" s="202">
+        <v>202</v>
+      </c>
+      <c r="C15" s="178">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F15" s="115" t="s">
-        <v>200</v>
+      <c r="F15" s="111" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="130" t="s">
-        <v>208</v>
-      </c>
-      <c r="C16" s="203">
+      <c r="B16" s="123" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="179">
         <v>0.16</v>
       </c>
-      <c r="D16" s="157" t="s">
-        <v>211</v>
-      </c>
-      <c r="F16" s="115" t="s">
-        <v>198</v>
+      <c r="D16" s="145" t="s">
+        <v>206</v>
+      </c>
+      <c r="F16" s="111" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="90" t="s">
-        <v>201</v>
-      </c>
-      <c r="C17" s="205">
-        <v>8.8000000000000009E-2</v>
-      </c>
-      <c r="D17" s="206"/>
+      <c r="B17" s="87" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="181">
+        <v>0.08</v>
+      </c>
+      <c r="D17" s="182"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="152" t="s">
+      <c r="B19" s="143" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="136" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="143" t="s">
+        <v>232</v>
+      </c>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="138" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="177">
+        <f>Fin_Analysis!I75</f>
+        <v>0.11401933240696355</v>
+      </c>
+      <c r="F20" s="87" t="s">
+        <v>231</v>
+      </c>
+      <c r="G20" s="178">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="177">
+        <f>Fin_Analysis!I77</f>
+        <v>0.19137095648691452</v>
+      </c>
+      <c r="F21" s="87"/>
+      <c r="G21" s="29"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="138" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="177">
+        <f>Fin_Analysis!I79</f>
+        <v>0.49449639261897682</v>
+      </c>
+      <c r="F22" s="143" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="138" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="177">
+        <f>Fin_Analysis!I80</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="141" t="s">
         <v>204</v>
       </c>
-      <c r="C19" s="145" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="147" t="s">
+      <c r="G23" s="183" t="e">
+        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="138" t="s">
         <v>185</v>
       </c>
-      <c r="C20" s="201">
-        <f>Fin_Analysis!F75</f>
-        <v>0.11401933240696355</v>
-      </c>
-      <c r="F20" s="90"/>
-      <c r="G20" s="29"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="147" t="s">
-        <v>186</v>
-      </c>
-      <c r="C21" s="201">
-        <f>Fin_Analysis!F77</f>
-        <v>0.19137095648691452</v>
-      </c>
-      <c r="F21" s="90"/>
-      <c r="G21" s="29"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="147" t="s">
+      <c r="C24" s="177">
+        <f>Fin_Analysis!I81</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" s="184">
+        <f>(Fin_Analysis!H86*G7)/G3</f>
+        <v>0.15549388288163848</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="138" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="177">
+        <f>Fin_Analysis!I82</f>
+        <v>3.5193961201691735E-4</v>
+      </c>
+      <c r="F25" s="141" t="s">
+        <v>188</v>
+      </c>
+      <c r="G25" s="177">
+        <f>Fin_Analysis!I88</f>
+        <v>0.40911773315703032</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="139" t="s">
         <v>187</v>
       </c>
-      <c r="C22" s="201">
-        <f>Fin_Analysis!F79</f>
-        <v>0.49449639261897682</v>
-      </c>
-      <c r="F22" s="152" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="147" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" s="201">
-        <f>Fin_Analysis!F80</f>
-        <v>0.03</v>
-      </c>
-      <c r="F23" s="150" t="s">
-        <v>209</v>
-      </c>
-      <c r="G23" s="207">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>9.8361596240803026E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="147" t="s">
-        <v>189</v>
-      </c>
-      <c r="C24" s="201">
-        <f>Fin_Analysis!F81</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="150" t="s">
-        <v>194</v>
-      </c>
-      <c r="G24" s="208">
-        <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>0.13293864684791165</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="147" t="s">
-        <v>213</v>
-      </c>
-      <c r="C25" s="201">
-        <f>Fin_Analysis!F82</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="150" t="s">
-        <v>193</v>
-      </c>
-      <c r="G25" s="201">
-        <f>Fin_Analysis!F87</f>
-        <v>0.48042048220869238</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="148" t="s">
-        <v>191</v>
-      </c>
-      <c r="C26" s="201">
-        <f>Fin_Analysis!F83</f>
-        <v>0.17011331848714512</v>
-      </c>
-      <c r="F26" s="151" t="s">
-        <v>215</v>
-      </c>
-      <c r="G26" s="208">
-        <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>6.3866448822844785E-2</v>
+      <c r="C26" s="177">
+        <f>Fin_Analysis!I83</f>
+        <v>0.19976137887512818</v>
+      </c>
+      <c r="F26" s="142" t="s">
+        <v>210</v>
+      </c>
+      <c r="G26" s="184">
+        <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
+        <v>6.3615304884320698E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="94" t="s">
+      <c r="B28" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="93" t="s">
-        <v>182</v>
+      <c r="C28" s="89" t="s">
+        <v>178</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
+        <v>179</v>
+      </c>
+      <c r="E28" s="58"/>
+      <c r="F28" s="53" t="str">
+        <f>Fin_Analysis!F96</f>
+        <v>Pessimistic Case</v>
+      </c>
+      <c r="G28" s="241" t="str">
+        <f>Fin_Analysis!H96</f>
+        <v>Base Case</v>
+      </c>
+      <c r="H28" s="241"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="90" t="s">
-        <v>184</v>
-      </c>
-      <c r="C29" s="140">
-        <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>2.7612847528475166</v>
-      </c>
-      <c r="D29" s="139">
-        <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>4.6021412547458613</v>
-      </c>
-      <c r="E29" s="90"/>
-      <c r="F29" s="141">
-        <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>3.681713003796689</v>
-      </c>
-      <c r="H29" s="90"/>
+      <c r="B29" s="87" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="131">
+        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
+        <v>2.109557607598628</v>
+      </c>
+      <c r="D29" s="130">
+        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
+        <v>3.6097059631243571</v>
+      </c>
+      <c r="E29" s="87"/>
+      <c r="F29" s="132">
+        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
+        <v>2.8877647704994858</v>
+      </c>
+      <c r="G29" s="242">
+        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
+        <v>2.8877647704994858</v>
+      </c>
+      <c r="H29" s="242"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3462,7 +3673,9 @@
     <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
@@ -3472,23 +3685,28 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="11" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="10" priority="2">
+    <cfRule type="containsBlanks" dxfId="16" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="9" priority="1">
+    <cfRule type="containsBlanks" dxfId="15" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="8" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="containsBlanks" dxfId="13" priority="1">
+      <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -3512,6 +3730,947 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
+  <dimension ref="A2:M87"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.06640625" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="13" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="142" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="195" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" s="240" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="12" t="str">
+        <f>C11</f>
+        <v>CNY</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+      <c r="B5" s="142" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="257" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" s="231">
+        <f>C18</f>
+        <v>45291</v>
+      </c>
+      <c r="F5" s="232">
+        <f>0.2309+0.1164</f>
+        <v>0.3473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="142" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="196">
+        <v>45593</v>
+      </c>
+      <c r="E6" s="233" t="s">
+        <v>225</v>
+      </c>
+      <c r="F6" s="232">
+        <v>0.23089999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="141" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="197">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="141" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="198" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="141" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" s="199" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="141" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="200">
+        <v>349983033873</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="141" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="199" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="227" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="228">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="227" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="229">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="227" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" s="228">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="227" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="182" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="234" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="235">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="116" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="48">
+        <f>C12</f>
+        <v>45291</v>
+      </c>
+      <c r="D18" s="49">
+        <f>EOMONTH(EDATE(C18,-12),0)</f>
+        <v>44926</v>
+      </c>
+      <c r="E18" s="49">
+        <f t="shared" ref="E18:M18" si="0">EOMONTH(EDATE(D18,-12),0)</f>
+        <v>44561</v>
+      </c>
+      <c r="F18" s="49">
+        <f t="shared" si="0"/>
+        <v>44196</v>
+      </c>
+      <c r="G18" s="49">
+        <f t="shared" si="0"/>
+        <v>43830</v>
+      </c>
+      <c r="H18" s="49">
+        <f t="shared" si="0"/>
+        <v>43465</v>
+      </c>
+      <c r="I18" s="49">
+        <f t="shared" si="0"/>
+        <v>43100</v>
+      </c>
+      <c r="J18" s="49">
+        <f t="shared" si="0"/>
+        <v>42735</v>
+      </c>
+      <c r="K18" s="49">
+        <f t="shared" si="0"/>
+        <v>42369</v>
+      </c>
+      <c r="L18" s="49">
+        <f t="shared" si="0"/>
+        <v>42004</v>
+      </c>
+      <c r="M18" s="49">
+        <f t="shared" si="0"/>
+        <v>41639</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="152">
+        <v>1318408</v>
+      </c>
+      <c r="D19" s="152">
+        <v>1203982</v>
+      </c>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="152"/>
+    </row>
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B20" s="97" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="153">
+        <v>150324</v>
+      </c>
+      <c r="D20" s="153">
+        <v>159502</v>
+      </c>
+      <c r="E20" s="153"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="153"/>
+    </row>
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B21" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="153">
+        <v>252305</v>
+      </c>
+      <c r="D21" s="153">
+        <v>243571</v>
+      </c>
+      <c r="E21" s="153"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="153"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="153"/>
+      <c r="L21" s="153"/>
+      <c r="M21" s="153"/>
+    </row>
+    <row r="22" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B22" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="153"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="153"/>
+    </row>
+    <row r="23" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B23" s="97" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="153"/>
+      <c r="D23" s="153"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="153"/>
+      <c r="H23" s="153"/>
+      <c r="I23" s="153"/>
+      <c r="J23" s="153"/>
+      <c r="K23" s="153"/>
+      <c r="L23" s="153"/>
+      <c r="M23" s="153"/>
+    </row>
+    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B24" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="153"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="153"/>
+      <c r="J24" s="153"/>
+      <c r="K24" s="153"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="153"/>
+    </row>
+    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B25" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="153"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="153"/>
+      <c r="H25" s="153"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="153"/>
+      <c r="L25" s="153"/>
+      <c r="M25" s="153"/>
+    </row>
+    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B26" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="153">
+        <v>651948</v>
+      </c>
+      <c r="D26" s="153">
+        <v>518581</v>
+      </c>
+      <c r="E26" s="153"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="153"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="153"/>
+      <c r="K26" s="153"/>
+      <c r="L26" s="153"/>
+      <c r="M26" s="153"/>
+    </row>
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B27" s="99" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="153">
+        <v>464</v>
+      </c>
+      <c r="D27" s="153">
+        <v>-366</v>
+      </c>
+      <c r="E27" s="153"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="153"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="153"/>
+      <c r="L27" s="153"/>
+      <c r="M27" s="153"/>
+    </row>
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B28" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="226"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="153"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="153"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="94" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="226"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="153"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="153"/>
+      <c r="K29" s="153"/>
+      <c r="L29" s="153"/>
+      <c r="M29" s="153"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="226"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="153"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="153"/>
+      <c r="K30" s="153"/>
+      <c r="L30" s="153"/>
+      <c r="M30" s="153"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="226"/>
+      <c r="D31" s="153"/>
+      <c r="E31" s="153"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="153"/>
+      <c r="I31" s="153"/>
+      <c r="J31" s="153"/>
+      <c r="K31" s="153"/>
+      <c r="L31" s="153"/>
+      <c r="M31" s="153"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="226"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="153"/>
+      <c r="I32" s="153"/>
+      <c r="J32" s="153"/>
+      <c r="K32" s="153"/>
+      <c r="L32" s="153"/>
+      <c r="M32" s="153"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="226"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="153"/>
+      <c r="I33" s="153"/>
+      <c r="J33" s="153"/>
+      <c r="K33" s="153"/>
+      <c r="L33" s="153"/>
+      <c r="M33" s="153"/>
+    </row>
+    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B34" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="226"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="153"/>
+      <c r="H34" s="153"/>
+      <c r="I34" s="153"/>
+      <c r="J34" s="153"/>
+      <c r="K34" s="153"/>
+      <c r="L34" s="153"/>
+      <c r="M34" s="153"/>
+    </row>
+    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B35" s="94" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="226"/>
+      <c r="D35" s="153"/>
+      <c r="E35" s="153"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="153"/>
+      <c r="H35" s="153"/>
+      <c r="I35" s="153"/>
+      <c r="J35" s="153"/>
+      <c r="K35" s="153"/>
+      <c r="L35" s="153"/>
+      <c r="M35" s="153"/>
+    </row>
+    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B36" s="94" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="226"/>
+      <c r="D36" s="153"/>
+      <c r="E36" s="153"/>
+      <c r="F36" s="153"/>
+      <c r="G36" s="153"/>
+      <c r="H36" s="153"/>
+      <c r="I36" s="153"/>
+      <c r="J36" s="153"/>
+      <c r="K36" s="153"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="153"/>
+    </row>
+    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B37" s="94" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="226"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="153"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="153"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="153"/>
+      <c r="J37" s="153"/>
+      <c r="K37" s="153"/>
+      <c r="L37" s="153"/>
+      <c r="M37" s="153"/>
+    </row>
+    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B39" s="203" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="201" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="201" t="s">
+        <v>213</v>
+      </c>
+      <c r="E39" s="112" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="59"/>
+      <c r="D40" s="60">
+        <v>0.9</v>
+      </c>
+      <c r="E40" s="113"/>
+    </row>
+    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B41" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="59"/>
+      <c r="D41" s="60">
+        <v>0.8</v>
+      </c>
+      <c r="E41" s="113"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="59"/>
+      <c r="D42" s="60">
+        <f>D43</f>
+        <v>0.6</v>
+      </c>
+      <c r="E42" s="113"/>
+    </row>
+    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="59"/>
+      <c r="D43" s="60">
+        <v>0.6</v>
+      </c>
+      <c r="E43" s="113"/>
+    </row>
+    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="59"/>
+      <c r="D44" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="113"/>
+    </row>
+    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B45" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" s="59"/>
+      <c r="D45" s="60">
+        <f>D42</f>
+        <v>0.6</v>
+      </c>
+      <c r="E45" s="113"/>
+    </row>
+    <row r="46" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B46" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="59"/>
+      <c r="D46" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="E46" s="113"/>
+    </row>
+    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="59"/>
+      <c r="D47" s="60">
+        <f>D44</f>
+        <v>0.5</v>
+      </c>
+      <c r="E47" s="113"/>
+    </row>
+    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="59"/>
+      <c r="D48" s="60">
+        <f>D42</f>
+        <v>0.6</v>
+      </c>
+      <c r="E48" s="230" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B49" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="59"/>
+      <c r="D49" s="60">
+        <v>0.6</v>
+      </c>
+      <c r="E49" s="230" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="59"/>
+      <c r="D50" s="60">
+        <f>D40</f>
+        <v>0.9</v>
+      </c>
+      <c r="E50" s="113"/>
+    </row>
+    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B51" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="121"/>
+      <c r="D51" s="202">
+        <f>D62</f>
+        <v>0.05</v>
+      </c>
+      <c r="E51" s="113"/>
+    </row>
+    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B52" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="59"/>
+      <c r="D52" s="60">
+        <f>D41</f>
+        <v>0.8</v>
+      </c>
+      <c r="E52" s="113"/>
+    </row>
+    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B53" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="59"/>
+      <c r="D53" s="60">
+        <f>D43</f>
+        <v>0.6</v>
+      </c>
+      <c r="E53" s="113"/>
+    </row>
+    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B54" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="59"/>
+      <c r="D54" s="60">
+        <f>D44</f>
+        <v>0.5</v>
+      </c>
+      <c r="E54" s="113"/>
+    </row>
+    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B55" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" s="59"/>
+      <c r="D55" s="60">
+        <f>D54</f>
+        <v>0.5</v>
+      </c>
+      <c r="E55" s="113"/>
+    </row>
+    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B56" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="59"/>
+      <c r="D56" s="60">
+        <v>0.4</v>
+      </c>
+      <c r="E56" s="113"/>
+    </row>
+    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B57" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="59"/>
+      <c r="D57" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="E57" s="230" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B58" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="59"/>
+      <c r="D58" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="E58" s="230" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="59"/>
+      <c r="D59" s="60">
+        <f>D57</f>
+        <v>0.1</v>
+      </c>
+      <c r="E59" s="230" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B60" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="59"/>
+      <c r="D60" s="60">
+        <f>D57</f>
+        <v>0.1</v>
+      </c>
+      <c r="E60" s="113"/>
+    </row>
+    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B61" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="59"/>
+      <c r="D61" s="60">
+        <f>D62</f>
+        <v>0.05</v>
+      </c>
+      <c r="E61" s="113"/>
+    </row>
+    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B62" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="59"/>
+      <c r="D62" s="60">
+        <v>0.05</v>
+      </c>
+      <c r="E62" s="113"/>
+    </row>
+    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B63" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="59"/>
+      <c r="D63" s="60">
+        <f>D50</f>
+        <v>0.9</v>
+      </c>
+      <c r="E63" s="113"/>
+    </row>
+    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B64" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="59"/>
+      <c r="D64" s="60">
+        <v>0</v>
+      </c>
+      <c r="E64" s="113"/>
+    </row>
+    <row r="65" spans="2:3" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B65" s="203" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" s="201"/>
+    </row>
+    <row r="66" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B66" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="59"/>
+    </row>
+    <row r="67" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B67" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="59"/>
+    </row>
+    <row r="68" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B68" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="59"/>
+    </row>
+    <row r="69" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B69" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="121"/>
+    </row>
+    <row r="70" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="83"/>
+    </row>
+    <row r="71" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" s="59"/>
+    </row>
+    <row r="72" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B72" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="59"/>
+    </row>
+    <row r="73" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B73" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="59"/>
+    </row>
+    <row r="74" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B74" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" s="121"/>
+    </row>
+    <row r="75" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" s="83"/>
+    </row>
+    <row r="76" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B76" s="73" t="s">
+        <v>242</v>
+      </c>
+      <c r="C76" s="59"/>
+    </row>
+    <row r="77" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B77" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="59"/>
+    </row>
+    <row r="78" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B78" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C78" s="59"/>
+    </row>
+    <row r="81" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="20"/>
+    </row>
+    <row r="85" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B85" s="20"/>
+    </row>
+    <row r="86" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B86" s="20"/>
+    </row>
+    <row r="87" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B87" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
+      <formula>LEN(TRIM(C16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:M27 D28:M37">
+    <cfRule type="containsBlanks" dxfId="11" priority="7">
+      <formula>LEN(TRIM(C19))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F6">
+    <cfRule type="containsBlanks" dxfId="10" priority="2">
+      <formula>LEN(TRIM(F5))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
+      <formula1>"Y, N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
+      <formula1>"HKD,USD,CNY,EUR"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{87139493-416E-4F03-A3A9-B1C3E5C019E4}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{C4480F83-D8C1-4589-BCF3-1A7870946539}">
+      <formula1>"US, CN, HK, Others"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E48:E49 E57:E59" xr:uid="{2EA09CDC-767E-4F51-A87B-920BE059D711}">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3521,7 +4680,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <selection pane="topRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3547,77 +4706,79 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="166" t="s">
-        <v>227</v>
-      </c>
-      <c r="F2" s="127" t="s">
-        <v>230</v>
-      </c>
-      <c r="G2" s="166" t="s">
-        <v>231</v>
-      </c>
-      <c r="H2" s="165" t="s">
-        <v>232</v>
+      <c r="E2" s="151" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2" s="120" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="151" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="150" t="s">
+        <v>223</v>
       </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="90"/>
+      <c r="J2" s="87"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="92">
+      <c r="C3" s="210">
+        <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="164" t="s">
-        <v>228</v>
-      </c>
-      <c r="F3" s="88" t="str">
+      <c r="E3" s="149" t="s">
+        <v>219</v>
+      </c>
+      <c r="F3" s="85" t="str">
         <f>H19</f>
         <v/>
       </c>
-      <c r="G3" s="88">
+      <c r="G3" s="85">
         <f>C19</f>
         <v>263212.33333333331</v>
       </c>
-      <c r="H3" s="88">
+      <c r="H3" s="85">
         <v>6</v>
       </c>
-      <c r="I3" s="90"/>
+      <c r="I3" s="87"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="88">
+      <c r="C4" s="129">
+        <f>Inputs!C13</f>
         <v>1000000</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="164" t="s">
-        <v>229</v>
-      </c>
-      <c r="F4" s="97" t="e">
+      <c r="E4" s="149" t="s">
+        <v>220</v>
+      </c>
+      <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="90"/>
+      <c r="J4" s="87"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="123" t="s">
-        <v>146</v>
+      <c r="B5" s="116" t="s">
+        <v>144</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -3666,755 +4827,1028 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="169">
-        <f>1223698+94710</f>
+      <c r="C6" s="209">
+        <f>IF(Inputs!C19=""," ",Inputs!C19)</f>
         <v>1318408</v>
       </c>
-      <c r="D6" s="169">
-        <f>1108464+95518</f>
+      <c r="D6" s="209">
+        <f>IF(Inputs!D19="","",Inputs!D19)</f>
         <v>1203982</v>
       </c>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="169"/>
-      <c r="K6" s="169"/>
-      <c r="L6" s="169"/>
-      <c r="M6" s="169"/>
-      <c r="N6" s="90"/>
+      <c r="E6" s="209" t="str">
+        <f>IF(Inputs!E19="","",Inputs!E19)</f>
+        <v/>
+      </c>
+      <c r="F6" s="209" t="str">
+        <f>IF(Inputs!F19="","",Inputs!F19)</f>
+        <v/>
+      </c>
+      <c r="G6" s="209" t="str">
+        <f>IF(Inputs!G19="","",Inputs!G19)</f>
+        <v/>
+      </c>
+      <c r="H6" s="209" t="str">
+        <f>IF(Inputs!H19="","",Inputs!H19)</f>
+        <v/>
+      </c>
+      <c r="I6" s="209" t="str">
+        <f>IF(Inputs!I19="","",Inputs!I19)</f>
+        <v/>
+      </c>
+      <c r="J6" s="209" t="str">
+        <f>IF(Inputs!J19="","",Inputs!J19)</f>
+        <v/>
+      </c>
+      <c r="K6" s="209" t="str">
+        <f>IF(Inputs!K19="","",Inputs!K19)</f>
+        <v/>
+      </c>
+      <c r="L6" s="209" t="str">
+        <f>IF(Inputs!L19="","",Inputs!L19)</f>
+        <v/>
+      </c>
+      <c r="M6" s="209" t="str">
+        <f>IF(Inputs!M19="","",Inputs!M19)</f>
+        <v/>
+      </c>
+      <c r="N6" s="87"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="96">
+      <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>9.5039626838274938E-2</v>
       </c>
-      <c r="D7" s="96" t="str">
+      <c r="D7" s="92" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E7" s="96" t="str">
+      <c r="E7" s="92" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="96" t="str">
+      <c r="F7" s="92" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="96" t="str">
+      <c r="G7" s="92" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="96" t="str">
+      <c r="H7" s="92" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="96" t="str">
+      <c r="I7" s="92" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="96" t="str">
+      <c r="J7" s="92" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="96" t="str">
+      <c r="K7" s="92" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="96" t="str">
+      <c r="L7" s="92" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="96" t="str">
+      <c r="M7" s="92" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="90"/>
+      <c r="N7" s="87"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="170">
-        <f>14617+135707</f>
+      <c r="C8" s="208">
+        <f>IF(Inputs!C20="","",Inputs!C20)</f>
         <v>150324</v>
       </c>
-      <c r="D8" s="170">
-        <f>14236+145266</f>
+      <c r="D8" s="208">
+        <f>IF(Inputs!D20="","",Inputs!D20)</f>
         <v>159502</v>
       </c>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="170"/>
-      <c r="K8" s="170"/>
-      <c r="L8" s="170"/>
-      <c r="M8" s="170"/>
-      <c r="N8" s="90"/>
+      <c r="E8" s="208" t="str">
+        <f>IF(Inputs!E20="","",Inputs!E20)</f>
+        <v/>
+      </c>
+      <c r="F8" s="208" t="str">
+        <f>IF(Inputs!F20="","",Inputs!F20)</f>
+        <v/>
+      </c>
+      <c r="G8" s="208" t="str">
+        <f>IF(Inputs!G20="","",Inputs!G20)</f>
+        <v/>
+      </c>
+      <c r="H8" s="208" t="str">
+        <f>IF(Inputs!H20="","",Inputs!H20)</f>
+        <v/>
+      </c>
+      <c r="I8" s="208" t="str">
+        <f>IF(Inputs!I20="","",Inputs!I20)</f>
+        <v/>
+      </c>
+      <c r="J8" s="208" t="str">
+        <f>IF(Inputs!J20="","",Inputs!J20)</f>
+        <v/>
+      </c>
+      <c r="K8" s="208" t="str">
+        <f>IF(Inputs!K20="","",Inputs!K20)</f>
+        <v/>
+      </c>
+      <c r="L8" s="208" t="str">
+        <f>IF(Inputs!L20="","",Inputs!L20)</f>
+        <v/>
+      </c>
+      <c r="M8" s="208" t="str">
+        <f>IF(Inputs!M20="","",Inputs!M20)</f>
+        <v/>
+      </c>
+      <c r="N8" s="87"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="171">
+      <c r="C9" s="154">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>1168084</v>
       </c>
-      <c r="D9" s="171">
+      <c r="D9" s="154">
         <f t="shared" si="2"/>
         <v>1044480</v>
       </c>
-      <c r="E9" s="171" t="str">
+      <c r="E9" s="154" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="171" t="str">
+      <c r="F9" s="154" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="171" t="str">
+      <c r="G9" s="154" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="171" t="str">
+      <c r="H9" s="154" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="171" t="str">
+      <c r="I9" s="154" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="171" t="str">
+      <c r="J9" s="154" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="171" t="str">
+      <c r="K9" s="154" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="171" t="str">
+      <c r="L9" s="154" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="171" t="str">
+      <c r="M9" s="154" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="90"/>
+      <c r="N9" s="87"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="170">
+      <c r="C10" s="208">
+        <f>IF(Inputs!C21="","",Inputs!C21)</f>
         <v>252305</v>
       </c>
-      <c r="D10" s="170">
+      <c r="D10" s="208">
+        <f>IF(Inputs!D21="","",Inputs!D21)</f>
         <v>243571</v>
       </c>
-      <c r="E10" s="170"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="170"/>
-      <c r="L10" s="170"/>
-      <c r="M10" s="170"/>
-      <c r="N10" s="90"/>
+      <c r="E10" s="208" t="str">
+        <f>IF(Inputs!E21="","",Inputs!E21)</f>
+        <v/>
+      </c>
+      <c r="F10" s="208" t="str">
+        <f>IF(Inputs!F21="","",Inputs!F21)</f>
+        <v/>
+      </c>
+      <c r="G10" s="208" t="str">
+        <f>IF(Inputs!G21="","",Inputs!G21)</f>
+        <v/>
+      </c>
+      <c r="H10" s="208" t="str">
+        <f>IF(Inputs!H21="","",Inputs!H21)</f>
+        <v/>
+      </c>
+      <c r="I10" s="208" t="str">
+        <f>IF(Inputs!I21="","",Inputs!I21)</f>
+        <v/>
+      </c>
+      <c r="J10" s="208" t="str">
+        <f>IF(Inputs!J21="","",Inputs!J21)</f>
+        <v/>
+      </c>
+      <c r="K10" s="208" t="str">
+        <f>IF(Inputs!K21="","",Inputs!K21)</f>
+        <v/>
+      </c>
+      <c r="L10" s="208" t="str">
+        <f>IF(Inputs!L21="","",Inputs!L21)</f>
+        <v/>
+      </c>
+      <c r="M10" s="208" t="str">
+        <f>IF(Inputs!M21="","",Inputs!M21)</f>
+        <v/>
+      </c>
+      <c r="N10" s="87"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="172">
-        <f t="shared" ref="C11:M11" si="3">IF(C6="","",(C12/C6))</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="172">
+      <c r="C11" s="155" t="str">
+        <f>IF(OR(C6="",C12=""),"",C12/C6)</f>
+        <v/>
+      </c>
+      <c r="D11" s="155" t="str">
+        <f t="shared" ref="D11:M11" si="3">IF(OR(D6="",D12=""),"",D12/D6)</f>
+        <v/>
+      </c>
+      <c r="E11" s="155" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="172" t="str">
+        <v/>
+      </c>
+      <c r="F11" s="155" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F11" s="172" t="str">
+      <c r="G11" s="155" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G11" s="172" t="str">
+      <c r="H11" s="155" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H11" s="172" t="str">
+      <c r="I11" s="155" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I11" s="172" t="str">
+      <c r="J11" s="155" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J11" s="172" t="str">
+      <c r="K11" s="155" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K11" s="172" t="str">
+      <c r="L11" s="155" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L11" s="172" t="str">
+      <c r="M11" s="155" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M11" s="172" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N11" s="90"/>
+      <c r="N11" s="87"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="170"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="170"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="170"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="170"/>
-      <c r="K12" s="170"/>
-      <c r="L12" s="170"/>
-      <c r="M12" s="170"/>
-      <c r="N12" s="90"/>
+      <c r="C12" s="208" t="str">
+        <f>IF(Inputs!C22="","",Inputs!C22)</f>
+        <v/>
+      </c>
+      <c r="D12" s="208" t="str">
+        <f>IF(Inputs!D22="","",Inputs!D22)</f>
+        <v/>
+      </c>
+      <c r="E12" s="208" t="str">
+        <f>IF(Inputs!E22="","",Inputs!E22)</f>
+        <v/>
+      </c>
+      <c r="F12" s="208" t="str">
+        <f>IF(Inputs!F22="","",Inputs!F22)</f>
+        <v/>
+      </c>
+      <c r="G12" s="208" t="str">
+        <f>IF(Inputs!G22="","",Inputs!G22)</f>
+        <v/>
+      </c>
+      <c r="H12" s="208" t="str">
+        <f>IF(Inputs!H22="","",Inputs!H22)</f>
+        <v/>
+      </c>
+      <c r="I12" s="208" t="str">
+        <f>IF(Inputs!I22="","",Inputs!I22)</f>
+        <v/>
+      </c>
+      <c r="J12" s="208" t="str">
+        <f>IF(Inputs!J22="","",Inputs!J22)</f>
+        <v/>
+      </c>
+      <c r="K12" s="208" t="str">
+        <f>IF(Inputs!K22="","",Inputs!K22)</f>
+        <v/>
+      </c>
+      <c r="L12" s="208" t="str">
+        <f>IF(Inputs!L22="","",Inputs!L22)</f>
+        <v/>
+      </c>
+      <c r="M12" s="208" t="str">
+        <f>IF(Inputs!M22="","",Inputs!M22)</f>
+        <v/>
+      </c>
+      <c r="N12" s="87"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="171">
-        <f>IF(C6="","",(C9-C10+C12))</f>
+      <c r="C13" s="154">
+        <f>IF(C6="","",(C9-C10+MAX(C12,0)))</f>
         <v>915779</v>
       </c>
-      <c r="D13" s="171">
-        <f t="shared" ref="D13:M13" si="4">IF(D6="","",(D9-D10+D12))</f>
+      <c r="D13" s="154">
+        <f t="shared" ref="D13:M13" si="4">IF(D6="","",(D9-D10+MAX(D12,0)))</f>
         <v>800909</v>
       </c>
-      <c r="E13" s="171" t="str">
+      <c r="E13" s="154" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F13" s="171" t="str">
+      <c r="F13" s="154" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G13" s="171" t="str">
+      <c r="G13" s="154" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H13" s="171" t="str">
+      <c r="H13" s="154" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I13" s="171" t="str">
+      <c r="I13" s="154" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J13" s="171" t="str">
+      <c r="J13" s="154" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K13" s="171" t="str">
+      <c r="K13" s="154" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L13" s="171" t="str">
+      <c r="L13" s="154" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M13" s="171" t="str">
+      <c r="M13" s="154" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N13" s="90"/>
+      <c r="N13" s="87"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="170"/>
-      <c r="K14" s="170"/>
-      <c r="L14" s="170"/>
-      <c r="M14" s="170"/>
-      <c r="N14" s="90"/>
+      <c r="C14" s="208" t="str">
+        <f>IF(Inputs!C23="","",Inputs!C23)</f>
+        <v/>
+      </c>
+      <c r="D14" s="208" t="str">
+        <f>IF(Inputs!D23="","",Inputs!D23)</f>
+        <v/>
+      </c>
+      <c r="E14" s="208" t="str">
+        <f>IF(Inputs!E23="","",Inputs!E23)</f>
+        <v/>
+      </c>
+      <c r="F14" s="208" t="str">
+        <f>IF(Inputs!F23="","",Inputs!F23)</f>
+        <v/>
+      </c>
+      <c r="G14" s="208" t="str">
+        <f>IF(Inputs!G23="","",Inputs!G23)</f>
+        <v/>
+      </c>
+      <c r="H14" s="208" t="str">
+        <f>IF(Inputs!H23="","",Inputs!H23)</f>
+        <v/>
+      </c>
+      <c r="I14" s="208" t="str">
+        <f>IF(Inputs!I23="","",Inputs!I23)</f>
+        <v/>
+      </c>
+      <c r="J14" s="208" t="str">
+        <f>IF(Inputs!J23="","",Inputs!J23)</f>
+        <v/>
+      </c>
+      <c r="K14" s="208" t="str">
+        <f>IF(Inputs!K23="","",Inputs!K23)</f>
+        <v/>
+      </c>
+      <c r="L14" s="208" t="str">
+        <f>IF(Inputs!L23="","",Inputs!L23)</f>
+        <v/>
+      </c>
+      <c r="M14" s="208" t="str">
+        <f>IF(Inputs!M23="","",Inputs!M23)</f>
+        <v/>
+      </c>
+      <c r="N14" s="87"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="170"/>
-      <c r="K15" s="170"/>
-      <c r="L15" s="170"/>
-      <c r="M15" s="170"/>
-      <c r="N15" s="90"/>
+      <c r="C15" s="208" t="str">
+        <f>IF(Inputs!C24="","",Inputs!C24)</f>
+        <v/>
+      </c>
+      <c r="D15" s="208" t="str">
+        <f>IF(Inputs!D24="","",Inputs!D24)</f>
+        <v/>
+      </c>
+      <c r="E15" s="208" t="str">
+        <f>IF(Inputs!E24="","",Inputs!E24)</f>
+        <v/>
+      </c>
+      <c r="F15" s="208" t="str">
+        <f>IF(Inputs!F24="","",Inputs!F24)</f>
+        <v/>
+      </c>
+      <c r="G15" s="208" t="str">
+        <f>IF(Inputs!G24="","",Inputs!G24)</f>
+        <v/>
+      </c>
+      <c r="H15" s="208" t="str">
+        <f>IF(Inputs!H24="","",Inputs!H24)</f>
+        <v/>
+      </c>
+      <c r="I15" s="208" t="str">
+        <f>IF(Inputs!I24="","",Inputs!I24)</f>
+        <v/>
+      </c>
+      <c r="J15" s="208" t="str">
+        <f>IF(Inputs!J24="","",Inputs!J24)</f>
+        <v/>
+      </c>
+      <c r="K15" s="208" t="str">
+        <f>IF(Inputs!K24="","",Inputs!K24)</f>
+        <v/>
+      </c>
+      <c r="L15" s="208" t="str">
+        <f>IF(Inputs!L24="","",Inputs!L24)</f>
+        <v/>
+      </c>
+      <c r="M15" s="208" t="str">
+        <f>IF(Inputs!M24="","",Inputs!M24)</f>
+        <v/>
+      </c>
+      <c r="N15" s="87"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="170"/>
-      <c r="K16" s="170"/>
-      <c r="L16" s="170"/>
-      <c r="M16" s="170"/>
-      <c r="N16" s="90"/>
+      <c r="C16" s="208" t="str">
+        <f>IF(Inputs!C25="","",Inputs!C25)</f>
+        <v/>
+      </c>
+      <c r="D16" s="208" t="str">
+        <f>IF(Inputs!D25="","",Inputs!D25)</f>
+        <v/>
+      </c>
+      <c r="E16" s="208" t="str">
+        <f>IF(Inputs!E25="","",Inputs!E25)</f>
+        <v/>
+      </c>
+      <c r="F16" s="208" t="str">
+        <f>IF(Inputs!F25="","",Inputs!F25)</f>
+        <v/>
+      </c>
+      <c r="G16" s="208" t="str">
+        <f>IF(Inputs!G25="","",Inputs!G25)</f>
+        <v/>
+      </c>
+      <c r="H16" s="208" t="str">
+        <f>IF(Inputs!H25="","",Inputs!H25)</f>
+        <v/>
+      </c>
+      <c r="I16" s="208" t="str">
+        <f>IF(Inputs!I25="","",Inputs!I25)</f>
+        <v/>
+      </c>
+      <c r="J16" s="208" t="str">
+        <f>IF(Inputs!J25="","",Inputs!J25)</f>
+        <v/>
+      </c>
+      <c r="K16" s="208" t="str">
+        <f>IF(Inputs!K25="","",Inputs!K25)</f>
+        <v/>
+      </c>
+      <c r="L16" s="208" t="str">
+        <f>IF(Inputs!L25="","",Inputs!L25)</f>
+        <v/>
+      </c>
+      <c r="M16" s="208" t="str">
+        <f>IF(Inputs!M25="","",Inputs!M25)</f>
+        <v/>
+      </c>
+      <c r="N16" s="87"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="170">
+      <c r="C17" s="208">
+        <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>651948</v>
       </c>
-      <c r="D17" s="170">
+      <c r="D17" s="208">
+        <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>518581</v>
       </c>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="170"/>
-      <c r="K17" s="170"/>
-      <c r="L17" s="170"/>
-      <c r="M17" s="170"/>
-      <c r="N17" s="90"/>
+      <c r="E17" s="208" t="str">
+        <f>IF(Inputs!E26="","",Inputs!E26)</f>
+        <v/>
+      </c>
+      <c r="F17" s="208" t="str">
+        <f>IF(Inputs!F26="","",Inputs!F26)</f>
+        <v/>
+      </c>
+      <c r="G17" s="208" t="str">
+        <f>IF(Inputs!G26="","",Inputs!G26)</f>
+        <v/>
+      </c>
+      <c r="H17" s="208" t="str">
+        <f>IF(Inputs!H26="","",Inputs!H26)</f>
+        <v/>
+      </c>
+      <c r="I17" s="208" t="str">
+        <f>IF(Inputs!I26="","",Inputs!I26)</f>
+        <v/>
+      </c>
+      <c r="J17" s="208" t="str">
+        <f>IF(Inputs!J26="","",Inputs!J26)</f>
+        <v/>
+      </c>
+      <c r="K17" s="208" t="str">
+        <f>IF(Inputs!K26="","",Inputs!K26)</f>
+        <v/>
+      </c>
+      <c r="L17" s="208" t="str">
+        <f>IF(Inputs!L26="","",Inputs!L26)</f>
+        <v/>
+      </c>
+      <c r="M17" s="208" t="str">
+        <f>IF(Inputs!M26="","",Inputs!M26)</f>
+        <v/>
+      </c>
+      <c r="N17" s="87"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="170">
+      <c r="C18" s="208">
+        <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>464</v>
       </c>
-      <c r="D18" s="170">
+      <c r="D18" s="208">
+        <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>-366</v>
       </c>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="170"/>
-      <c r="L18" s="170"/>
-      <c r="M18" s="170"/>
-      <c r="N18" s="90"/>
+      <c r="E18" s="208" t="str">
+        <f>IF(Inputs!E27="","",Inputs!E27)</f>
+        <v/>
+      </c>
+      <c r="F18" s="208" t="str">
+        <f>IF(Inputs!F27="","",Inputs!F27)</f>
+        <v/>
+      </c>
+      <c r="G18" s="208" t="str">
+        <f>IF(Inputs!G27="","",Inputs!G27)</f>
+        <v/>
+      </c>
+      <c r="H18" s="208" t="str">
+        <f>IF(Inputs!H27="","",Inputs!H27)</f>
+        <v/>
+      </c>
+      <c r="I18" s="208" t="str">
+        <f>IF(Inputs!I27="","",Inputs!I27)</f>
+        <v/>
+      </c>
+      <c r="J18" s="208" t="str">
+        <f>IF(Inputs!J27="","",Inputs!J27)</f>
+        <v/>
+      </c>
+      <c r="K18" s="208" t="str">
+        <f>IF(Inputs!K27="","",Inputs!K27)</f>
+        <v/>
+      </c>
+      <c r="L18" s="208" t="str">
+        <f>IF(Inputs!L27="","",Inputs!L27)</f>
+        <v/>
+      </c>
+      <c r="M18" s="208" t="str">
+        <f>IF(Inputs!M27="","",Inputs!M27)</f>
+        <v/>
+      </c>
+      <c r="N18" s="87"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="103" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="80">
-        <f>IF(C6="","",C9-C10-C17-MAX(C18/(1-Fin_Analysis!$F$84),0))</f>
+      <c r="B19" s="236" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="237">
+        <f>IF(C6="","",C9-C10-MAX(C17,0)-MAX(C18,0)/(1-Fin_Analysis!$I$84))</f>
         <v>263212.33333333331</v>
       </c>
-      <c r="D19" s="80">
-        <f>IF(D6="","",D9-D10-D17-MAX(D18/(1-Fin_Analysis!$F$84),0))</f>
+      <c r="D19" s="237">
+        <f>IF(D6="","",D9-D10-MAX(D17,0)-MAX(D18,0)/(1-Fin_Analysis!$I$84))</f>
         <v>282328</v>
       </c>
-      <c r="E19" s="80" t="str">
-        <f>IF(E6="","",E9-E10-E17-MAX(E18/(1-Fin_Analysis!$F$84),0))</f>
-        <v/>
-      </c>
-      <c r="F19" s="80" t="str">
-        <f>IF(F6="","",F9-F10-F17-MAX(F18/(1-Fin_Analysis!$F$84),0))</f>
-        <v/>
-      </c>
-      <c r="G19" s="80" t="str">
-        <f>IF(G6="","",G9-G10-G17-MAX(G18/(1-Fin_Analysis!$F$84),0))</f>
-        <v/>
-      </c>
-      <c r="H19" s="80" t="str">
-        <f>IF(H6="","",H9-H10-H17-MAX(H18/(1-Fin_Analysis!$F$84),0))</f>
-        <v/>
-      </c>
-      <c r="I19" s="80" t="str">
-        <f>IF(I6="","",I9-I10-I17-MAX(I18/(1-Fin_Analysis!$F$84),0))</f>
-        <v/>
-      </c>
-      <c r="J19" s="80" t="str">
-        <f>IF(J6="","",J9-J10-J17-MAX(J18/(1-Fin_Analysis!$F$84),0))</f>
-        <v/>
-      </c>
-      <c r="K19" s="80" t="str">
-        <f>IF(K6="","",K9-K10-K17-MAX(K18/(1-Fin_Analysis!$F$84),0))</f>
-        <v/>
-      </c>
-      <c r="L19" s="80" t="str">
-        <f>IF(L6="","",L9-L10-L17-MAX(L18/(1-Fin_Analysis!$F$84),0))</f>
-        <v/>
-      </c>
-      <c r="M19" s="80" t="str">
-        <f>IF(M6="","",M9-M10-M17-MAX(M18/(1-Fin_Analysis!$F$84),0))</f>
-        <v/>
-      </c>
-      <c r="N19" s="90"/>
+      <c r="E19" s="237" t="str">
+        <f>IF(E6="","",E9-E10-MAX(E17,0)-MAX(E18,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="F19" s="237" t="str">
+        <f>IF(F6="","",F9-F10-MAX(F17,0)-MAX(F18,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="G19" s="237" t="str">
+        <f>IF(G6="","",G9-G10-MAX(G17,0)-MAX(G18,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="H19" s="237" t="str">
+        <f>IF(H6="","",H9-H10-MAX(H17,0)-MAX(H18,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="I19" s="237" t="str">
+        <f>IF(I6="","",I9-I10-MAX(I17,0)-MAX(I18,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="J19" s="237" t="str">
+        <f>IF(J6="","",J9-J10-MAX(J17,0)-MAX(J18,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="K19" s="237" t="str">
+        <f>IF(K6="","",K9-K10-MAX(K17,0)-MAX(K18,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="L19" s="237" t="str">
+        <f>IF(L6="","",L9-L10-MAX(L17,0)-MAX(L18,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="M19" s="237" t="str">
+        <f>IF(M6="","",M9-M10-MAX(M17,0)-MAX(M18,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="N19" s="87"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="103" t="s">
-        <v>226</v>
-      </c>
-      <c r="C20" s="173">
+      <c r="B20" s="236" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" s="238">
         <f>IF(D19="","",IF(ABS(C19+D19)=ABS(C19)+ABS(D19),IF(C19&lt;0,-1,1)*(C19-D19)/D19,"Turn"))</f>
         <v>-6.7707300255967121E-2</v>
       </c>
-      <c r="D20" s="173" t="str">
+      <c r="D20" s="238" t="str">
         <f t="shared" ref="D20:M20" si="5">IF(E19="","",IF(ABS(D19+E19)=ABS(D19)+ABS(E19),IF(D19&lt;0,-1,1)*(D19-E19)/E19,"Turn"))</f>
         <v/>
       </c>
-      <c r="E20" s="173" t="str">
+      <c r="E20" s="238" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F20" s="173" t="str">
+      <c r="F20" s="238" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G20" s="173" t="str">
+      <c r="G20" s="238" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H20" s="173" t="str">
+      <c r="H20" s="238" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I20" s="173" t="str">
+      <c r="I20" s="238" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J20" s="173" t="str">
+      <c r="J20" s="238" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K20" s="173" t="str">
+      <c r="K20" s="238" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L20" s="173" t="str">
+      <c r="L20" s="238" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M20" s="173" t="str">
+      <c r="M20" s="238" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N20" s="90"/>
+      <c r="N20" s="87"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="98" t="s">
+      <c r="B21" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="80">
-        <f>IF(C6="","",C13-C14-MAX(C15,0)-MAX(C16,0)-C17-MAX(C18/(1-Fin_Analysis!$F$84),0))</f>
+      <c r="C21" s="77">
+        <f>IF(C6="","",C13-MAX(C14,0)-MAX(C15,0)-MAX(C16,0)-MAX(C17,0)-MAX(C18,0)/(1-Fin_Analysis!$I$84))</f>
         <v>263212.33333333331</v>
       </c>
-      <c r="D21" s="80">
-        <f>IF(D6="","",D13-D14-MAX(D15,0)-MAX(D16,0)-D17-MAX(D18/(1-Fin_Analysis!$F$84),0))</f>
+      <c r="D21" s="77">
+        <f>IF(D6="","",D13-MAX(D14,0)-MAX(D15,0)-MAX(D16,0)-MAX(D17,0)-MAX(D18,0)/(1-Fin_Analysis!$I$84))</f>
         <v>282328</v>
       </c>
-      <c r="E21" s="80" t="str">
-        <f>IF(E6="","",E13-E14-MAX(E15,0)-MAX(E16,0)-E17-MAX(E18/(1-Fin_Analysis!$F$84),0))</f>
-        <v/>
-      </c>
-      <c r="F21" s="80" t="str">
-        <f>IF(F6="","",F13-F14-MAX(F15,0)-MAX(F16,0)-F17-MAX(F18/(1-Fin_Analysis!$F$84),0))</f>
-        <v/>
-      </c>
-      <c r="G21" s="80" t="str">
-        <f>IF(G6="","",G13-G14-MAX(G15,0)-MAX(G16,0)-G17-MAX(G18/(1-Fin_Analysis!$F$84),0))</f>
-        <v/>
-      </c>
-      <c r="H21" s="80" t="str">
-        <f>IF(H6="","",H13-H14-MAX(H15,0)-MAX(H16,0)-H17-MAX(H18/(1-Fin_Analysis!$F$84),0))</f>
-        <v/>
-      </c>
-      <c r="I21" s="80" t="str">
-        <f>IF(I6="","",I13-I14-MAX(I15,0)-MAX(I16,0)-I17-MAX(I18/(1-Fin_Analysis!$F$84),0))</f>
-        <v/>
-      </c>
-      <c r="J21" s="80" t="str">
-        <f>IF(J6="","",J13-J14-MAX(J15,0)-MAX(J16,0)-J17-MAX(J18/(1-Fin_Analysis!$F$84),0))</f>
-        <v/>
-      </c>
-      <c r="K21" s="80" t="str">
-        <f>IF(K6="","",K13-K14-MAX(K15,0)-MAX(K16,0)-K17-MAX(K18/(1-Fin_Analysis!$F$84),0))</f>
-        <v/>
-      </c>
-      <c r="L21" s="80" t="str">
-        <f>IF(L6="","",L13-L14-MAX(L15,0)-MAX(L16,0)-L17-MAX(L18/(1-Fin_Analysis!$F$84),0))</f>
-        <v/>
-      </c>
-      <c r="M21" s="80" t="str">
-        <f>IF(M6="","",M13-M14-MAX(M15,0)-MAX(M16,0)-M17-MAX(M18/(1-Fin_Analysis!$F$84),0))</f>
-        <v/>
-      </c>
-      <c r="N21" s="90"/>
+      <c r="E21" s="77" t="str">
+        <f>IF(E6="","",E13-MAX(E14,0)-MAX(E15,0)-MAX(E16,0)-MAX(E17,0)-MAX(E18,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="F21" s="77" t="str">
+        <f>IF(F6="","",F13-MAX(F14,0)-MAX(F15,0)-MAX(F16,0)-MAX(F17,0)-MAX(F18,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="G21" s="77" t="str">
+        <f>IF(G6="","",G13-MAX(G14,0)-MAX(G15,0)-MAX(G16,0)-MAX(G17,0)-MAX(G18,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="H21" s="77" t="str">
+        <f>IF(H6="","",H13-MAX(H14,0)-MAX(H15,0)-MAX(H16,0)-MAX(H17,0)-MAX(H18,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="I21" s="77" t="str">
+        <f>IF(I6="","",I13-MAX(I14,0)-MAX(I15,0)-MAX(I16,0)-MAX(I17,0)-MAX(I18,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="J21" s="77" t="str">
+        <f>IF(J6="","",J13-MAX(J14,0)-MAX(J15,0)-MAX(J16,0)-MAX(J17,0)-MAX(J18,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="K21" s="77" t="str">
+        <f>IF(K6="","",K13-MAX(K14,0)-MAX(K15,0)-MAX(K16,0)-MAX(K17,0)-MAX(K18,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="L21" s="77" t="str">
+        <f>IF(L6="","",L13-MAX(L14,0)-MAX(L15,0)-MAX(L16,0)-MAX(L17,0)-MAX(L18,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="M21" s="77" t="str">
+        <f>IF(M6="","",M13-MAX(M14,0)-MAX(M15,0)-MAX(M16,0)-MAX(M17,0)-MAX(M18,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="N21" s="87"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="C22" s="173">
+      <c r="C22" s="156">
         <f>IF(D21="","",IF(ABS(C21+D21)=ABS(C21)+ABS(D21),IF(C21&lt;0,-1,1)*(C21-D21)/D21,"Turn"))</f>
         <v>-6.7707300255967121E-2</v>
       </c>
-      <c r="D22" s="173" t="str">
+      <c r="D22" s="156" t="str">
         <f t="shared" ref="D22:M22" si="6">IF(E21="","",IF(ABS(D21+E21)=ABS(D21)+ABS(E21),IF(D21&lt;0,-1,1)*(D21-E21)/E21,"Turn"))</f>
         <v/>
       </c>
-      <c r="E22" s="173" t="str">
+      <c r="E22" s="156" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F22" s="173" t="str">
+      <c r="F22" s="156" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G22" s="173" t="str">
+      <c r="G22" s="156" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H22" s="173" t="str">
+      <c r="H22" s="156" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I22" s="173" t="str">
+      <c r="I22" s="156" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J22" s="173" t="str">
+      <c r="J22" s="156" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K22" s="173" t="str">
+      <c r="K22" s="156" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L22" s="173" t="str">
+      <c r="L22" s="156" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M22" s="173" t="str">
+      <c r="M22" s="156" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N22" s="90"/>
+      <c r="N22" s="87"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="104" t="s">
+      <c r="B23" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="174">
+      <c r="C23" s="157">
         <f t="shared" ref="C23:M23" si="7">IF(C6="","",C24/C6)</f>
         <v>0.14973304925334191</v>
       </c>
-      <c r="D23" s="174">
+      <c r="D23" s="157">
         <f t="shared" si="7"/>
         <v>0.17587140007076518</v>
       </c>
-      <c r="E23" s="174" t="str">
+      <c r="E23" s="157" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F23" s="174" t="str">
+      <c r="F23" s="157" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G23" s="174" t="str">
+      <c r="G23" s="157" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H23" s="174" t="str">
+      <c r="H23" s="157" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I23" s="174" t="str">
+      <c r="I23" s="157" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J23" s="174" t="str">
+      <c r="J23" s="157" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K23" s="174" t="str">
+      <c r="K23" s="157" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L23" s="174" t="str">
+      <c r="L23" s="157" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M23" s="174" t="str">
+      <c r="M23" s="157" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N23" s="90"/>
+      <c r="N23" s="87"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="106" t="s">
+      <c r="B24" s="102" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="175">
-        <f>IF(C6="","",C21*(1-Fin_Analysis!$F$84))</f>
+      <c r="C24" s="158">
+        <f>IF(C6="","",C21*(1-Fin_Analysis!$I$84))</f>
         <v>197409.25</v>
       </c>
-      <c r="D24" s="80">
-        <f>IF(D6="","",D21*(1-Fin_Analysis!$F$84))</f>
+      <c r="D24" s="77">
+        <f>IF(D6="","",D21*(1-Fin_Analysis!$I$84))</f>
         <v>211746</v>
       </c>
-      <c r="E24" s="80" t="str">
-        <f>IF(E6="","",E21*(1-Fin_Analysis!$F$84))</f>
-        <v/>
-      </c>
-      <c r="F24" s="80" t="str">
-        <f>IF(F6="","",F21*(1-Fin_Analysis!$F$84))</f>
-        <v/>
-      </c>
-      <c r="G24" s="80" t="str">
-        <f>IF(G6="","",G21*(1-Fin_Analysis!$F$84))</f>
-        <v/>
-      </c>
-      <c r="H24" s="80" t="str">
-        <f>IF(H6="","",H21*(1-Fin_Analysis!$F$84))</f>
-        <v/>
-      </c>
-      <c r="I24" s="80" t="str">
-        <f>IF(I6="","",I21*(1-Fin_Analysis!$F$84))</f>
-        <v/>
-      </c>
-      <c r="J24" s="80" t="str">
-        <f>IF(J6="","",J21*(1-Fin_Analysis!$F$84))</f>
-        <v/>
-      </c>
-      <c r="K24" s="80" t="str">
-        <f>IF(K6="","",K21*(1-Fin_Analysis!$F$84))</f>
-        <v/>
-      </c>
-      <c r="L24" s="80" t="str">
-        <f>IF(L6="","",L21*(1-Fin_Analysis!$F$84))</f>
-        <v/>
-      </c>
-      <c r="M24" s="80" t="str">
-        <f>IF(M6="","",M21*(1-Fin_Analysis!$F$84))</f>
-        <v/>
-      </c>
-      <c r="N24" s="90"/>
+      <c r="E24" s="77" t="str">
+        <f>IF(E6="","",E21*(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="F24" s="77" t="str">
+        <f>IF(F6="","",F21*(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="G24" s="77" t="str">
+        <f>IF(G6="","",G21*(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="H24" s="77" t="str">
+        <f>IF(H6="","",H21*(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="I24" s="77" t="str">
+        <f>IF(I6="","",I21*(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="J24" s="77" t="str">
+        <f>IF(J6="","",J21*(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="K24" s="77" t="str">
+        <f>IF(K6="","",K21*(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="L24" s="77" t="str">
+        <f>IF(L6="","",L21*(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="M24" s="77" t="str">
+        <f>IF(M6="","",M21*(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="N24" s="87"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="105" t="s">
+      <c r="B25" s="101" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="176">
+      <c r="C25" s="159">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-6.7707300255967051E-2</v>
       </c>
-      <c r="D25" s="176" t="str">
+      <c r="D25" s="159" t="str">
         <f t="shared" ref="D25:M25" si="8">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="176" t="str">
+      <c r="E25" s="159" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F25" s="176" t="str">
+      <c r="F25" s="159" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G25" s="176" t="str">
+      <c r="G25" s="159" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H25" s="176" t="str">
+      <c r="H25" s="159" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I25" s="176" t="str">
+      <c r="I25" s="159" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J25" s="176" t="str">
+      <c r="J25" s="159" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K25" s="176" t="str">
+      <c r="K25" s="159" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L25" s="176" t="str">
+      <c r="L25" s="159" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M25" s="176" t="str">
+      <c r="M25" s="159" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N25" s="90"/>
+      <c r="N25" s="87"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="122" t="s">
-        <v>147</v>
+      <c r="B26" s="115" t="s">
+        <v>145</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -4460,421 +5894,721 @@
         <f t="shared" ref="M26" si="17">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="90"/>
+      <c r="N26" s="87"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="98" t="s">
+      <c r="B27" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="66">
-        <f t="shared" ref="C27:M27" si="18">IF(C6="","",C36+C31+C32)</f>
-        <v>16854064</v>
-      </c>
-      <c r="D27" s="66">
+      <c r="C27" s="65">
+        <f>IF(C36="","",C36+C31+C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="65" t="str">
+        <f t="shared" ref="D27:M27" si="18">IF(D36="","",D36+D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E27" s="65" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="66" t="str">
+        <v/>
+      </c>
+      <c r="F27" s="65" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="F27" s="66" t="str">
+      <c r="G27" s="65" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="G27" s="66" t="str">
+      <c r="H27" s="65" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H27" s="66" t="str">
+      <c r="I27" s="65" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I27" s="66" t="str">
+      <c r="J27" s="65" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="J27" s="66" t="str">
+      <c r="K27" s="65" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="K27" s="66" t="str">
+      <c r="L27" s="65" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="L27" s="66" t="str">
+      <c r="M27" s="65" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="M27" s="66" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="N27" s="90"/>
+      <c r="N27" s="87"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="98" t="s">
+      <c r="B28" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="66">
+      <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
-        <v>12332308</v>
-      </c>
-      <c r="D28" s="170"/>
-      <c r="E28" s="170"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="170"/>
-      <c r="H28" s="170"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="170"/>
-      <c r="K28" s="170"/>
-      <c r="L28" s="170"/>
-      <c r="M28" s="170"/>
-      <c r="N28" s="90"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="208" t="str">
+        <f>IF(Inputs!D28="","",Inputs!D28)</f>
+        <v/>
+      </c>
+      <c r="E28" s="208" t="str">
+        <f>IF(Inputs!E28="","",Inputs!E28)</f>
+        <v/>
+      </c>
+      <c r="F28" s="208" t="str">
+        <f>IF(Inputs!F28="","",Inputs!F28)</f>
+        <v/>
+      </c>
+      <c r="G28" s="208" t="str">
+        <f>IF(Inputs!G28="","",Inputs!G28)</f>
+        <v/>
+      </c>
+      <c r="H28" s="208" t="str">
+        <f>IF(Inputs!H28="","",Inputs!H28)</f>
+        <v/>
+      </c>
+      <c r="I28" s="208" t="str">
+        <f>IF(Inputs!I28="","",Inputs!I28)</f>
+        <v/>
+      </c>
+      <c r="J28" s="208" t="str">
+        <f>IF(Inputs!J28="","",Inputs!J28)</f>
+        <v/>
+      </c>
+      <c r="K28" s="208" t="str">
+        <f>IF(Inputs!K28="","",Inputs!K28)</f>
+        <v/>
+      </c>
+      <c r="L28" s="208" t="str">
+        <f>IF(Inputs!L28="","",Inputs!L28)</f>
+        <v/>
+      </c>
+      <c r="M28" s="208" t="str">
+        <f>IF(Inputs!M28="","",Inputs!M28)</f>
+        <v/>
+      </c>
+      <c r="N28" s="87"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="98" t="s">
+      <c r="B29" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="66">
+      <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
-        <v>265773</v>
-      </c>
-      <c r="D29" s="170"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="170"/>
-      <c r="H29" s="170"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="170"/>
-      <c r="K29" s="170"/>
-      <c r="L29" s="170"/>
-      <c r="M29" s="170"/>
-      <c r="N29" s="90"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="208" t="str">
+        <f>IF(Inputs!D29="","",Inputs!D29)</f>
+        <v/>
+      </c>
+      <c r="E29" s="208" t="str">
+        <f>IF(Inputs!E29="","",Inputs!E29)</f>
+        <v/>
+      </c>
+      <c r="F29" s="208" t="str">
+        <f>IF(Inputs!F29="","",Inputs!F29)</f>
+        <v/>
+      </c>
+      <c r="G29" s="208" t="str">
+        <f>IF(Inputs!G29="","",Inputs!G29)</f>
+        <v/>
+      </c>
+      <c r="H29" s="208" t="str">
+        <f>IF(Inputs!H29="","",Inputs!H29)</f>
+        <v/>
+      </c>
+      <c r="I29" s="208" t="str">
+        <f>IF(Inputs!I29="","",Inputs!I29)</f>
+        <v/>
+      </c>
+      <c r="J29" s="208" t="str">
+        <f>IF(Inputs!J29="","",Inputs!J29)</f>
+        <v/>
+      </c>
+      <c r="K29" s="208" t="str">
+        <f>IF(Inputs!K29="","",Inputs!K29)</f>
+        <v/>
+      </c>
+      <c r="L29" s="208" t="str">
+        <f>IF(Inputs!L29="","",Inputs!L29)</f>
+        <v/>
+      </c>
+      <c r="M29" s="208" t="str">
+        <f>IF(Inputs!M29="","",Inputs!M29)</f>
+        <v/>
+      </c>
+      <c r="N29" s="87"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="98" t="s">
-        <v>161</v>
-      </c>
-      <c r="C30" s="66">
+      <c r="B30" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
-        <v>9672256</v>
-      </c>
-      <c r="D30" s="170"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="170"/>
-      <c r="H30" s="170"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="170"/>
-      <c r="K30" s="170"/>
-      <c r="L30" s="170"/>
-      <c r="M30" s="170"/>
-      <c r="N30" s="90"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="208" t="str">
+        <f>IF(Inputs!D30="","",Inputs!D30)</f>
+        <v/>
+      </c>
+      <c r="E30" s="208" t="str">
+        <f>IF(Inputs!E30="","",Inputs!E30)</f>
+        <v/>
+      </c>
+      <c r="F30" s="208" t="str">
+        <f>IF(Inputs!F30="","",Inputs!F30)</f>
+        <v/>
+      </c>
+      <c r="G30" s="208" t="str">
+        <f>IF(Inputs!G30="","",Inputs!G30)</f>
+        <v/>
+      </c>
+      <c r="H30" s="208" t="str">
+        <f>IF(Inputs!H30="","",Inputs!H30)</f>
+        <v/>
+      </c>
+      <c r="I30" s="208" t="str">
+        <f>IF(Inputs!I30="","",Inputs!I30)</f>
+        <v/>
+      </c>
+      <c r="J30" s="208" t="str">
+        <f>IF(Inputs!J30="","",Inputs!J30)</f>
+        <v/>
+      </c>
+      <c r="K30" s="208" t="str">
+        <f>IF(Inputs!K30="","",Inputs!K30)</f>
+        <v/>
+      </c>
+      <c r="L30" s="208" t="str">
+        <f>IF(Inputs!L30="","",Inputs!L30)</f>
+        <v/>
+      </c>
+      <c r="M30" s="208" t="str">
+        <f>IF(Inputs!M30="","",Inputs!M30)</f>
+        <v/>
+      </c>
+      <c r="N30" s="87"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="98" t="s">
+      <c r="B31" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="66">
+      <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
-        <v>3516809</v>
-      </c>
-      <c r="D31" s="170"/>
-      <c r="E31" s="170"/>
-      <c r="F31" s="170"/>
-      <c r="G31" s="170"/>
-      <c r="H31" s="170"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="170"/>
-      <c r="K31" s="170"/>
-      <c r="L31" s="170"/>
-      <c r="M31" s="170"/>
-      <c r="N31" s="90"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="208" t="str">
+        <f>IF(Inputs!D31="","",Inputs!D31)</f>
+        <v/>
+      </c>
+      <c r="E31" s="208" t="str">
+        <f>IF(Inputs!E31="","",Inputs!E31)</f>
+        <v/>
+      </c>
+      <c r="F31" s="208" t="str">
+        <f>IF(Inputs!F31="","",Inputs!F31)</f>
+        <v/>
+      </c>
+      <c r="G31" s="208" t="str">
+        <f>IF(Inputs!G31="","",Inputs!G31)</f>
+        <v/>
+      </c>
+      <c r="H31" s="208" t="str">
+        <f>IF(Inputs!H31="","",Inputs!H31)</f>
+        <v/>
+      </c>
+      <c r="I31" s="208" t="str">
+        <f>IF(Inputs!I31="","",Inputs!I31)</f>
+        <v/>
+      </c>
+      <c r="J31" s="208" t="str">
+        <f>IF(Inputs!J31="","",Inputs!J31)</f>
+        <v/>
+      </c>
+      <c r="K31" s="208" t="str">
+        <f>IF(Inputs!K31="","",Inputs!K31)</f>
+        <v/>
+      </c>
+      <c r="L31" s="208" t="str">
+        <f>IF(Inputs!L31="","",Inputs!L31)</f>
+        <v/>
+      </c>
+      <c r="M31" s="208" t="str">
+        <f>IF(Inputs!M31="","",Inputs!M31)</f>
+        <v/>
+      </c>
+      <c r="N31" s="87"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="98" t="s">
+      <c r="B32" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="66">
+      <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
-        <v>473357</v>
-      </c>
-      <c r="D32" s="170"/>
-      <c r="E32" s="170"/>
-      <c r="F32" s="170"/>
-      <c r="G32" s="170"/>
-      <c r="H32" s="170"/>
-      <c r="I32" s="170"/>
-      <c r="J32" s="170"/>
-      <c r="K32" s="170"/>
-      <c r="L32" s="170"/>
-      <c r="M32" s="170"/>
-      <c r="N32" s="90"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="208" t="str">
+        <f>IF(Inputs!D32="","",Inputs!D32)</f>
+        <v/>
+      </c>
+      <c r="E32" s="208" t="str">
+        <f>IF(Inputs!E32="","",Inputs!E32)</f>
+        <v/>
+      </c>
+      <c r="F32" s="208" t="str">
+        <f>IF(Inputs!F32="","",Inputs!F32)</f>
+        <v/>
+      </c>
+      <c r="G32" s="208" t="str">
+        <f>IF(Inputs!G32="","",Inputs!G32)</f>
+        <v/>
+      </c>
+      <c r="H32" s="208" t="str">
+        <f>IF(Inputs!H32="","",Inputs!H32)</f>
+        <v/>
+      </c>
+      <c r="I32" s="208" t="str">
+        <f>IF(Inputs!I32="","",Inputs!I32)</f>
+        <v/>
+      </c>
+      <c r="J32" s="208" t="str">
+        <f>IF(Inputs!J32="","",Inputs!J32)</f>
+        <v/>
+      </c>
+      <c r="K32" s="208" t="str">
+        <f>IF(Inputs!K32="","",Inputs!K32)</f>
+        <v/>
+      </c>
+      <c r="L32" s="208" t="str">
+        <f>IF(Inputs!L32="","",Inputs!L32)</f>
+        <v/>
+      </c>
+      <c r="M32" s="208" t="str">
+        <f>IF(Inputs!M32="","",Inputs!M32)</f>
+        <v/>
+      </c>
+      <c r="N32" s="87"/>
     </row>
     <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="98" t="s">
+      <c r="B33" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="66">
+      <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
-        <v>649697</v>
-      </c>
-      <c r="D33" s="170"/>
-      <c r="E33" s="170"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="170"/>
-      <c r="H33" s="170"/>
-      <c r="I33" s="170"/>
-      <c r="J33" s="170"/>
-      <c r="K33" s="170"/>
-      <c r="L33" s="170"/>
-      <c r="M33" s="170"/>
-      <c r="N33" s="90"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="208" t="str">
+        <f>IF(Inputs!D33="","",Inputs!D33)</f>
+        <v/>
+      </c>
+      <c r="E33" s="208" t="str">
+        <f>IF(Inputs!E33="","",Inputs!E33)</f>
+        <v/>
+      </c>
+      <c r="F33" s="208" t="str">
+        <f>IF(Inputs!F33="","",Inputs!F33)</f>
+        <v/>
+      </c>
+      <c r="G33" s="208" t="str">
+        <f>IF(Inputs!G33="","",Inputs!G33)</f>
+        <v/>
+      </c>
+      <c r="H33" s="208" t="str">
+        <f>IF(Inputs!H33="","",Inputs!H33)</f>
+        <v/>
+      </c>
+      <c r="I33" s="208" t="str">
+        <f>IF(Inputs!I33="","",Inputs!I33)</f>
+        <v/>
+      </c>
+      <c r="J33" s="208" t="str">
+        <f>IF(Inputs!J33="","",Inputs!J33)</f>
+        <v/>
+      </c>
+      <c r="K33" s="208" t="str">
+        <f>IF(Inputs!K33="","",Inputs!K33)</f>
+        <v/>
+      </c>
+      <c r="L33" s="208" t="str">
+        <f>IF(Inputs!L33="","",Inputs!L33)</f>
+        <v/>
+      </c>
+      <c r="M33" s="208" t="str">
+        <f>IF(Inputs!M33="","",Inputs!M33)</f>
+        <v/>
+      </c>
+      <c r="N33" s="87"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="66">
+      <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
-        <v>319420</v>
-      </c>
-      <c r="D34" s="170"/>
-      <c r="E34" s="170"/>
-      <c r="F34" s="170"/>
-      <c r="G34" s="170"/>
-      <c r="H34" s="170"/>
-      <c r="I34" s="170"/>
-      <c r="J34" s="170"/>
-      <c r="K34" s="170"/>
-      <c r="L34" s="170"/>
-      <c r="M34" s="170"/>
-      <c r="N34" s="90"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="208" t="str">
+        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <v/>
+      </c>
+      <c r="E34" s="208" t="str">
+        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <v/>
+      </c>
+      <c r="F34" s="208" t="str">
+        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <v/>
+      </c>
+      <c r="G34" s="208" t="str">
+        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <v/>
+      </c>
+      <c r="H34" s="208" t="str">
+        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <v/>
+      </c>
+      <c r="I34" s="208" t="str">
+        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <v/>
+      </c>
+      <c r="J34" s="208" t="str">
+        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <v/>
+      </c>
+      <c r="K34" s="208" t="str">
+        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <v/>
+      </c>
+      <c r="L34" s="208" t="str">
+        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <v/>
+      </c>
+      <c r="M34" s="208" t="str">
+        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <v/>
+      </c>
+      <c r="N34" s="87"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="98" t="s">
+      <c r="B35" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="80">
-        <f t="shared" ref="C35:M35" si="19">IF(C6="","",C33+C34)</f>
-        <v>969117</v>
-      </c>
-      <c r="D35" s="80">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="80" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="F35" s="80" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="G35" s="80" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="H35" s="80" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="I35" s="80" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="J35" s="80" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="K35" s="80" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="L35" s="80" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="M35" s="80" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="N35" s="90"/>
+      <c r="C35" s="77">
+        <f t="shared" ref="C35" si="19">IF(OR(C33="",C34=""),"",C33+C34)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="77" t="str">
+        <f t="shared" ref="D35" si="20">IF(OR(D33="",D34=""),"",D33+D34)</f>
+        <v/>
+      </c>
+      <c r="E35" s="77" t="str">
+        <f t="shared" ref="E35" si="21">IF(OR(E33="",E34=""),"",E33+E34)</f>
+        <v/>
+      </c>
+      <c r="F35" s="77" t="str">
+        <f t="shared" ref="F35" si="22">IF(OR(F33="",F34=""),"",F33+F34)</f>
+        <v/>
+      </c>
+      <c r="G35" s="77" t="str">
+        <f t="shared" ref="G35" si="23">IF(OR(G33="",G34=""),"",G33+G34)</f>
+        <v/>
+      </c>
+      <c r="H35" s="77" t="str">
+        <f t="shared" ref="H35" si="24">IF(OR(H33="",H34=""),"",H33+H34)</f>
+        <v/>
+      </c>
+      <c r="I35" s="77" t="str">
+        <f t="shared" ref="I35" si="25">IF(OR(I33="",I34=""),"",I33+I34)</f>
+        <v/>
+      </c>
+      <c r="J35" s="77" t="str">
+        <f t="shared" ref="J35" si="26">IF(OR(J33="",J34=""),"",J33+J34)</f>
+        <v/>
+      </c>
+      <c r="K35" s="77" t="str">
+        <f t="shared" ref="K35" si="27">IF(OR(K33="",K34=""),"",K33+K34)</f>
+        <v/>
+      </c>
+      <c r="L35" s="77" t="str">
+        <f t="shared" ref="L35" si="28">IF(OR(L33="",L34=""),"",L33+L34)</f>
+        <v/>
+      </c>
+      <c r="M35" s="77" t="str">
+        <f t="shared" ref="M35" si="29">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v/>
+      </c>
+      <c r="N35" s="87"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C36" s="66">
+      <c r="B36" s="94" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
-        <v>12863898</v>
-      </c>
-      <c r="D36" s="170"/>
-      <c r="E36" s="170"/>
-      <c r="F36" s="170"/>
-      <c r="G36" s="170"/>
-      <c r="H36" s="170"/>
-      <c r="I36" s="170"/>
-      <c r="J36" s="170"/>
-      <c r="K36" s="170"/>
-      <c r="L36" s="170"/>
-      <c r="M36" s="170"/>
-      <c r="N36" s="90"/>
+        <v>0</v>
+      </c>
+      <c r="D36" s="208" t="str">
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <v/>
+      </c>
+      <c r="E36" s="208" t="str">
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <v/>
+      </c>
+      <c r="F36" s="208" t="str">
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <v/>
+      </c>
+      <c r="G36" s="208" t="str">
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <v/>
+      </c>
+      <c r="H36" s="208" t="str">
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <v/>
+      </c>
+      <c r="I36" s="208" t="str">
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <v/>
+      </c>
+      <c r="J36" s="208" t="str">
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <v/>
+      </c>
+      <c r="K36" s="208" t="str">
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <v/>
+      </c>
+      <c r="L36" s="208" t="str">
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <v/>
+      </c>
+      <c r="M36" s="208" t="str">
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <v/>
+      </c>
+      <c r="N36" s="87"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="98" t="s">
-        <v>151</v>
-      </c>
-      <c r="C37" s="66">
+      <c r="B37" s="94" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
-        <v>-26962</v>
-      </c>
-      <c r="D37" s="170"/>
-      <c r="E37" s="170"/>
-      <c r="F37" s="170"/>
-      <c r="G37" s="170"/>
-      <c r="H37" s="170"/>
-      <c r="I37" s="170"/>
-      <c r="J37" s="170"/>
-      <c r="K37" s="170"/>
-      <c r="L37" s="170"/>
-      <c r="M37" s="170"/>
-      <c r="N37" s="90"/>
+        <v>0</v>
+      </c>
+      <c r="D37" s="208" t="str">
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="208" t="str">
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <v/>
+      </c>
+      <c r="F37" s="208" t="str">
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <v/>
+      </c>
+      <c r="G37" s="208" t="str">
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <v/>
+      </c>
+      <c r="H37" s="208" t="str">
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <v/>
+      </c>
+      <c r="I37" s="208" t="str">
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <v/>
+      </c>
+      <c r="J37" s="208" t="str">
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <v/>
+      </c>
+      <c r="K37" s="208" t="str">
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <v/>
+      </c>
+      <c r="L37" s="208" t="str">
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <v/>
+      </c>
+      <c r="M37" s="208" t="str">
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <v/>
+      </c>
+      <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="66">
+      <c r="B38" s="94" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
-        <v>2923945</v>
-      </c>
-      <c r="D38" s="170"/>
-      <c r="E38" s="170"/>
-      <c r="F38" s="170"/>
-      <c r="G38" s="170"/>
-      <c r="H38" s="170"/>
-      <c r="I38" s="170"/>
-      <c r="J38" s="170"/>
-      <c r="K38" s="170"/>
-      <c r="L38" s="170"/>
-      <c r="M38" s="170"/>
-      <c r="N38" s="90"/>
+        <v>0</v>
+      </c>
+      <c r="D38" s="208" t="str">
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <v/>
+      </c>
+      <c r="E38" s="208" t="str">
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <v/>
+      </c>
+      <c r="F38" s="208" t="str">
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="208" t="str">
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <v/>
+      </c>
+      <c r="H38" s="208" t="str">
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <v/>
+      </c>
+      <c r="I38" s="208" t="str">
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <v/>
+      </c>
+      <c r="J38" s="208" t="str">
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <v/>
+      </c>
+      <c r="K38" s="208" t="str">
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <v/>
+      </c>
+      <c r="L38" s="208" t="str">
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <v/>
+      </c>
+      <c r="M38" s="208" t="str">
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <v/>
+      </c>
+      <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
-      <c r="B39" s="98" t="s">
-        <v>153</v>
-      </c>
-      <c r="C39" s="66">
+      <c r="B39" s="94" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
-        <v>13930119</v>
-      </c>
-      <c r="D39" s="66">
-        <f t="shared" ref="D39:M39" si="20">IF(D6="","",D27-D38)</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="66" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="F39" s="66" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="G39" s="66" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="H39" s="66" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="I39" s="66" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="J39" s="66" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="K39" s="66" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="L39" s="66" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="M39" s="66" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="N39" s="90"/>
+        <v>0</v>
+      </c>
+      <c r="D39" s="65" t="str">
+        <f>IF(D38="","",D27-D38)</f>
+        <v/>
+      </c>
+      <c r="E39" s="65" t="str">
+        <f t="shared" ref="E39:M39" si="30">IF(E38="","",E27-E38)</f>
+        <v/>
+      </c>
+      <c r="F39" s="65" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="G39" s="65" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="H39" s="65" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="I39" s="65" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="J39" s="65" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="K39" s="65" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="L39" s="65" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="M39" s="65" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="102" t="s">
-        <v>171</v>
-      </c>
-      <c r="C40" s="177">
-        <f t="shared" ref="C40:M40" si="21">IF(C6="","",C21/C39)</f>
-        <v>1.8895196324836373E-2</v>
-      </c>
-      <c r="D40" s="177" t="e">
-        <f t="shared" si="21"/>
+      <c r="B40" s="98" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="160" t="e">
+        <f t="shared" ref="C40" si="31">IF(C6="","",C21/C39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="177" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="F40" s="177" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="G40" s="177" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="H40" s="177" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="I40" s="177" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="J40" s="177" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="K40" s="177" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="L40" s="177" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="M40" s="177" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="N40" s="90"/>
+      <c r="D40" s="160" t="str">
+        <f>IF(D39="","",D21/D39)</f>
+        <v/>
+      </c>
+      <c r="E40" s="160" t="str">
+        <f t="shared" ref="E40:M40" si="32">IF(E39="","",E21/E39)</f>
+        <v/>
+      </c>
+      <c r="F40" s="160" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G40" s="160" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H40" s="160" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I40" s="160" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J40" s="160" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K40" s="160" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L40" s="160" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M40" s="160" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
@@ -4892,369 +6626,369 @@
       <c r="K41" s="54"/>
       <c r="L41" s="54"/>
       <c r="M41" s="54"/>
-      <c r="N41" s="90"/>
+      <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="99" t="s">
+      <c r="B42" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="178">
-        <f t="shared" ref="C42:M42" si="22">IF(C6="","",C8/C6)</f>
+      <c r="C42" s="161">
+        <f t="shared" ref="C42:M42" si="33">IF(C6="","",C8/C6)</f>
         <v>0.11401933240696355</v>
       </c>
-      <c r="D42" s="178">
-        <f t="shared" si="22"/>
+      <c r="D42" s="161">
+        <f t="shared" si="33"/>
         <v>0.13247872476498818</v>
       </c>
-      <c r="E42" s="178" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="F42" s="178" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G42" s="178" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="H42" s="178" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="I42" s="178" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="J42" s="178" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="K42" s="178" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="L42" s="178" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M42" s="178" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="N42" s="90"/>
+      <c r="E42" s="161" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="F42" s="161" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="G42" s="161" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H42" s="161" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I42" s="161" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J42" s="161" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K42" s="161" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L42" s="161" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M42" s="161" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="N42" s="87"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="98" t="s">
+      <c r="B43" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="174">
-        <f t="shared" ref="C43:M43" si="23">IF(C6="","",(C10-C12)/C6)</f>
+      <c r="C43" s="157">
+        <f>IF(C6="","",(C10-MAX(C12,0))/C6)</f>
         <v>0.19137095648691452</v>
       </c>
-      <c r="D43" s="174">
-        <f t="shared" si="23"/>
+      <c r="D43" s="157">
+        <f t="shared" ref="D43:M43" si="34">IF(D6="","",(D10-MAX(D12,0))/D6)</f>
         <v>0.20230451950278328</v>
       </c>
-      <c r="E43" s="174" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="F43" s="174" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="G43" s="174" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="H43" s="174" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="I43" s="174" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="J43" s="174" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="K43" s="174" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="L43" s="174" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="M43" s="174" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="N43" s="90"/>
+      <c r="E43" s="157" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="F43" s="157" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G43" s="157" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H43" s="157" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I43" s="157" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J43" s="157" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K43" s="157" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L43" s="157" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M43" s="157" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="N43" s="87"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="98" t="s">
+      <c r="B44" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="174">
-        <f t="shared" ref="C44:M44" si="24">IF(C6="","",(C14+MAX(C15,0))/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="174">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="174" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="F44" s="174" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="G44" s="174" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="H44" s="174" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="I44" s="174" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="J44" s="174" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="K44" s="174" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="L44" s="174" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="M44" s="174" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="N44" s="90"/>
+      <c r="C44" s="157">
+        <f>IF(C6="","",(MAX(C14,0)+MAX(C15,0))/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="157">
+        <f t="shared" ref="D44:M44" si="35">IF(D6="","",(MAX(D14,0)+MAX(D15,0))/D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="157" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="F44" s="157" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G44" s="157" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H44" s="157" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I44" s="157" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J44" s="157" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K44" s="157" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L44" s="157" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M44" s="157" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="N44" s="87"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="98" t="s">
+      <c r="B45" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C45" s="174">
-        <f t="shared" ref="C45:M45" si="25">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="174">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="174" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="F45" s="174" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="G45" s="174" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="H45" s="174" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="I45" s="174" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="J45" s="174" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="K45" s="174" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="L45" s="174" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="M45" s="174" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="N45" s="90"/>
+      <c r="C45" s="157">
+        <f t="shared" ref="C45:M45" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="157">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="157" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="F45" s="157" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G45" s="157" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H45" s="157" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I45" s="157" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J45" s="157" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K45" s="157" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L45" s="157" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M45" s="157" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="N45" s="87"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="98" t="s">
+      <c r="B46" s="94" t="s">
         <v>127</v>
       </c>
-      <c r="C46" s="174">
-        <f t="shared" ref="C46:M46" si="26">IF(C6="","",C17/C6)</f>
+      <c r="C46" s="157">
+        <f>IF(C6="","",MAX(C17,0)/C6)</f>
         <v>0.49449639261897682</v>
       </c>
-      <c r="D46" s="174">
-        <f t="shared" si="26"/>
+      <c r="D46" s="157">
+        <f t="shared" ref="D46:M46" si="37">IF(D6="","",MAX(D17,0)/D6)</f>
         <v>0.43072155563787501</v>
       </c>
-      <c r="E46" s="174" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="F46" s="174" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="G46" s="174" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="H46" s="174" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="I46" s="174" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="J46" s="174" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="K46" s="174" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="L46" s="174" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="M46" s="174" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="N46" s="90"/>
+      <c r="E46" s="157" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="F46" s="157" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="G46" s="157" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="H46" s="157" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="I46" s="157" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="J46" s="157" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="K46" s="157" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="L46" s="157" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="M46" s="157" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
-      <c r="B47" s="98" t="s">
+      <c r="B47" s="94" t="s">
         <v>139</v>
       </c>
-      <c r="C47" s="174">
-        <f>IF(C6="","",MAX(C18,0)/(1-Fin_Analysis!$F$84)/C6)</f>
+      <c r="C47" s="157">
+        <f>IF(C6="","",MAX(C18,0)/(1-Fin_Analysis!$I$84)/C6)</f>
         <v>4.6925281602255647E-4</v>
       </c>
-      <c r="D47" s="174">
-        <f>IF(D6="","",MAX(D18,0)/(1-Fin_Analysis!$F$84)/D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="174" t="str">
-        <f>IF(E6="","",MAX(E18,0)/(1-Fin_Analysis!$F$84)/E6)</f>
-        <v/>
-      </c>
-      <c r="F47" s="174" t="str">
-        <f>IF(F6="","",MAX(F18,0)/(1-Fin_Analysis!$F$84)/F6)</f>
-        <v/>
-      </c>
-      <c r="G47" s="174" t="str">
-        <f>IF(G6="","",MAX(G18,0)/(1-Fin_Analysis!$F$84)/G6)</f>
-        <v/>
-      </c>
-      <c r="H47" s="174" t="str">
-        <f>IF(H6="","",MAX(H18,0)/(1-Fin_Analysis!$F$84)/H6)</f>
-        <v/>
-      </c>
-      <c r="I47" s="174" t="str">
-        <f>IF(I6="","",MAX(I18,0)/(1-Fin_Analysis!$F$84)/I6)</f>
-        <v/>
-      </c>
-      <c r="J47" s="174" t="str">
-        <f>IF(J6="","",MAX(J18,0)/(1-Fin_Analysis!$F$84)/J6)</f>
-        <v/>
-      </c>
-      <c r="K47" s="174" t="str">
-        <f>IF(K6="","",MAX(K18,0)/(1-Fin_Analysis!$F$84)/K6)</f>
-        <v/>
-      </c>
-      <c r="L47" s="174" t="str">
-        <f>IF(L6="","",MAX(L18,0)/(1-Fin_Analysis!$F$84)/L6)</f>
-        <v/>
-      </c>
-      <c r="M47" s="174" t="str">
-        <f>IF(M6="","",MAX(M18,0)/(1-Fin_Analysis!$F$84)/M6)</f>
-        <v/>
-      </c>
-      <c r="N47" s="90"/>
+      <c r="D47" s="157">
+        <f>IF(D6="","",MAX(D18,0)/(1-Fin_Analysis!$I$84)/D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="157" t="str">
+        <f>IF(E6="","",MAX(E18,0)/(1-Fin_Analysis!$I$84)/E6)</f>
+        <v/>
+      </c>
+      <c r="F47" s="157" t="str">
+        <f>IF(F6="","",MAX(F18,0)/(1-Fin_Analysis!$I$84)/F6)</f>
+        <v/>
+      </c>
+      <c r="G47" s="157" t="str">
+        <f>IF(G6="","",MAX(G18,0)/(1-Fin_Analysis!$I$84)/G6)</f>
+        <v/>
+      </c>
+      <c r="H47" s="157" t="str">
+        <f>IF(H6="","",MAX(H18,0)/(1-Fin_Analysis!$I$84)/H6)</f>
+        <v/>
+      </c>
+      <c r="I47" s="157" t="str">
+        <f>IF(I6="","",MAX(I18,0)/(1-Fin_Analysis!$I$84)/I6)</f>
+        <v/>
+      </c>
+      <c r="J47" s="157" t="str">
+        <f>IF(J6="","",MAX(J18,0)/(1-Fin_Analysis!$I$84)/J6)</f>
+        <v/>
+      </c>
+      <c r="K47" s="157" t="str">
+        <f>IF(K6="","",MAX(K18,0)/(1-Fin_Analysis!$I$84)/K6)</f>
+        <v/>
+      </c>
+      <c r="L47" s="157" t="str">
+        <f>IF(L6="","",MAX(L18,0)/(1-Fin_Analysis!$I$84)/L6)</f>
+        <v/>
+      </c>
+      <c r="M47" s="157" t="str">
+        <f>IF(M6="","",MAX(M18,0)/(1-Fin_Analysis!$I$84)/M6)</f>
+        <v/>
+      </c>
+      <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="98" t="s">
+      <c r="B48" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="174">
-        <f t="shared" ref="C48:M48" si="27">IF(C6="","",C21/C6)</f>
+      <c r="C48" s="157">
+        <f t="shared" ref="C48:M48" si="38">IF(C6="","",C21/C6)</f>
         <v>0.19964406567112253</v>
       </c>
-      <c r="D48" s="174">
-        <f t="shared" si="27"/>
+      <c r="D48" s="157">
+        <f t="shared" si="38"/>
         <v>0.23449520009435357</v>
       </c>
-      <c r="E48" s="174" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="F48" s="174" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="G48" s="174" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="H48" s="174" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="I48" s="174" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="J48" s="174" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="K48" s="174" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="L48" s="174" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="M48" s="174" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="N48" s="90"/>
+      <c r="E48" s="157" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="F48" s="157" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="G48" s="157" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="H48" s="157" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="I48" s="157" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="J48" s="157" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="K48" s="157" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="L48" s="157" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="M48" s="157" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
-      <c r="B49" s="107" t="s">
-        <v>162</v>
+      <c r="B49" s="103" t="s">
+        <v>160</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -5267,113 +7001,113 @@
       <c r="K49" s="36"/>
       <c r="L49" s="36"/>
       <c r="M49" s="36"/>
-      <c r="N49" s="90"/>
+      <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="99" t="s">
-        <v>159</v>
-      </c>
-      <c r="C50" s="178">
-        <f t="shared" ref="C50:M50" si="28">IF(C6="","",C29/C6)</f>
-        <v>0.2015863071219228</v>
-      </c>
-      <c r="D50" s="178">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="E50" s="178" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="F50" s="178" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="G50" s="178" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="H50" s="178" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="I50" s="178" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="J50" s="178" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="K50" s="178" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="L50" s="178" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="M50" s="178" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="N50" s="90"/>
+      <c r="B50" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" s="161">
+        <f>IF(C29="","",C29/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="161" t="str">
+        <f t="shared" ref="D50:M50" si="39">IF(D29="","",D29/D6)</f>
+        <v/>
+      </c>
+      <c r="E50" s="161" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="F50" s="161" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G50" s="161" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="H50" s="161" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="I50" s="161" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="J50" s="161" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="K50" s="161" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="L50" s="161" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="M50" s="161" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="N50" s="87"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="98" t="s">
-        <v>160</v>
-      </c>
-      <c r="C51" s="174">
-        <f t="shared" ref="C51:M51" si="29">IF(C6="","",C30/C6)</f>
-        <v>7.3363147068282348</v>
-      </c>
-      <c r="D51" s="174">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="E51" s="174" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="F51" s="174" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="G51" s="174" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="H51" s="174" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="I51" s="174" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="J51" s="174" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="K51" s="174" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="L51" s="174" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="M51" s="174" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="N51" s="90"/>
+      <c r="B51" s="94" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" s="157">
+        <f>IF(C30="","",C30/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="157" t="str">
+        <f t="shared" ref="D51:M51" si="40">IF(D30="","",D30/D6)</f>
+        <v/>
+      </c>
+      <c r="E51" s="157" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="F51" s="157" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="G51" s="157" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="H51" s="157" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="I51" s="157" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="J51" s="157" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="K51" s="157" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="L51" s="157" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="M51" s="157" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="107" t="s">
+      <c r="B52" s="103" t="s">
         <v>131</v>
       </c>
       <c r="C52" s="36"/>
@@ -5390,201 +7124,201 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="99" t="s">
+      <c r="B53" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="178">
+      <c r="C53" s="161" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>0.23674800333023538</v>
-      </c>
-      <c r="D53" s="178" t="str">
-        <f t="shared" ref="D53:M53" si="30">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E53" s="178" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="F53" s="178" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="G53" s="178" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="H53" s="178" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="I53" s="178" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="J53" s="178" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="K53" s="178" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="L53" s="178" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="M53" s="178" t="str">
-        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="161" t="str">
+        <f t="shared" ref="D53:M53" si="41">IF(D36="","",(D27-D36)/D27)</f>
+        <v/>
+      </c>
+      <c r="E53" s="161" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="F53" s="161" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G53" s="161" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H53" s="161" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I53" s="161" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J53" s="161" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K53" s="161" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L53" s="161" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M53" s="161" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="98" t="s">
+      <c r="B54" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C54" s="179">
-        <f t="shared" ref="C54:M54" si="31">IF(C21="","",IF(C35&lt;=0,"-",C21/C35))</f>
-        <v>0.27160016110885821</v>
-      </c>
-      <c r="D54" s="179" t="str">
-        <f t="shared" si="31"/>
+      <c r="C54" s="162" t="str">
+        <f>IF(OR(C21="",C35=""),"",IF(C35&lt;=0,"-",C21/C35))</f>
         <v>-</v>
       </c>
-      <c r="E54" s="179" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="F54" s="179" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="G54" s="179" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="H54" s="179" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="I54" s="179" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="J54" s="179" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="K54" s="179" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="L54" s="179" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="M54" s="179" t="str">
-        <f t="shared" si="31"/>
+      <c r="D54" s="162" t="str">
+        <f t="shared" ref="D54:M54" si="42">IF(OR(D21="",D35=""),"",IF(D35&lt;=0,"-",D21/D35))</f>
+        <v/>
+      </c>
+      <c r="E54" s="162" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F54" s="162" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G54" s="162" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H54" s="162" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I54" s="162" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J54" s="162" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K54" s="162" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L54" s="162" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M54" s="162" t="str">
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="98" t="s">
+      <c r="B55" s="94" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="174">
-        <f t="shared" ref="C55:M55" si="32">IF(C21="","",IF(C17&lt;=0,"-",C17/C21))</f>
+      <c r="C55" s="157">
+        <f>IF(C21="","",IF(MAX(C17,0)&lt;=0,"-",C17/C21))</f>
         <v>2.4768900140191001</v>
       </c>
-      <c r="D55" s="174">
-        <f t="shared" si="32"/>
+      <c r="D55" s="157">
+        <f t="shared" ref="D55:M55" si="43">IF(D21="","",IF(MAX(D17,0)&lt;=0,"-",D17/D21))</f>
         <v>1.8368032926241817</v>
       </c>
-      <c r="E55" s="174" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="F55" s="174" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G55" s="174" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H55" s="174" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I55" s="174" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J55" s="174" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K55" s="174" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L55" s="174" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M55" s="174" t="str">
-        <f t="shared" si="32"/>
+      <c r="E55" s="157" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F55" s="157" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G55" s="157" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H55" s="157" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I55" s="157" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J55" s="157" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K55" s="157" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L55" s="157" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M55" s="157" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="102" t="s">
+      <c r="B56" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="180">
-        <f t="shared" ref="C56:M56" si="33">IF(C28="","",C28/C31)</f>
-        <v>3.5066755118062995</v>
-      </c>
-      <c r="D56" s="180" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="E56" s="180" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="F56" s="180" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="G56" s="180" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H56" s="180" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I56" s="180" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J56" s="180" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K56" s="180" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L56" s="180" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M56" s="180" t="str">
-        <f t="shared" si="33"/>
+      <c r="C56" s="163" t="e">
+        <f t="shared" ref="C56:M56" si="44">IF(C28="","",C28/C31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D56" s="163" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="E56" s="163" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F56" s="163" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G56" s="163" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H56" s="163" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I56" s="163" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J56" s="163" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K56" s="163" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L56" s="163" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M56" s="163" t="str">
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
@@ -6845,22 +8579,22 @@
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="7" priority="4">
+    <cfRule type="containsBlanks" dxfId="9" priority="4">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="6" priority="3">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="5" priority="2">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="4" priority="1">
+    <cfRule type="containsBlanks" dxfId="6" priority="1">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6872,27 +8606,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.59999389629810485"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K106"/>
+  <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView showGridLines="0" topLeftCell="B89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="18.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
@@ -6904,12 +8637,12 @@
         <v>22</v>
       </c>
       <c r="C2" s="45"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="90"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="87"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="90"/>
+      <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
         <v>8</v>
       </c>
@@ -6918,22 +8651,23 @@
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="124">
+      <c r="C3" s="87"/>
+      <c r="D3" s="117">
         <f>C49-I49</f>
-        <v>12863898</v>
-      </c>
-      <c r="E3" s="70" t="str">
+        <v>0</v>
+      </c>
+      <c r="E3" s="67" t="str">
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="57">
-        <v>12890860</v>
+      <c r="I3" s="213">
+        <f>Inputs!C76</f>
+        <v>0</v>
       </c>
       <c r="K3" s="24"/>
     </row>
@@ -6941,30 +8675,30 @@
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="66">
+      <c r="C4" s="87"/>
+      <c r="D4" s="65">
         <f>D3-I3</f>
-        <v>-26962</v>
+        <v>0</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
         <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="64">
+      <c r="I5" s="63" t="e">
         <f>C28/I28</f>
-        <v>3.5066755118062995</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K5" s="24"/>
     </row>
@@ -6972,35 +8706,35 @@
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="90"/>
-      <c r="D6" s="72">
+      <c r="C6" s="87"/>
+      <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>4047188.9777345182</v>
-      </c>
-      <c r="E6" s="56">
+        <v>0</v>
+      </c>
+      <c r="E6" s="56" t="e">
         <f>1-D6/D3</f>
-        <v>0.68538393434598766</v>
-      </c>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="64">
+      <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
-        <v>0.74800394334750619</v>
-      </c>
-      <c r="J6" s="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J6" s="87"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="67">
+      <c r="C7" s="87"/>
+      <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>12.538379291321682</v>
+        <v>0</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -7009,17 +8743,17 @@
       <c r="H7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="64">
+      <c r="I7" s="63" t="e">
         <f>C24/I28</f>
-        <v>0.64376313868623514</v>
-      </c>
-      <c r="J7" s="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" s="87"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7027,41 +8761,42 @@
       <c r="B9" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="68">
+      <c r="C9" s="86"/>
+      <c r="D9" s="212">
+        <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="127" t="str">
+      <c r="E9" s="120" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="77" t="s">
-        <v>218</v>
-      </c>
-      <c r="E10" s="77" t="s">
+      <c r="D10" s="74" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="116" t="s">
+      <c r="F10" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="90"/>
+      <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="77" t="s">
+      <c r="I10" s="74" t="s">
         <v>34</v>
       </c>
       <c r="K10" s="24"/>
@@ -7070,208 +8805,250 @@
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="60">
-        <v>1998219</v>
-      </c>
-      <c r="D11" s="61">
-        <v>1</v>
-      </c>
-      <c r="E11" s="91">
-        <f t="shared" ref="E11:E21" si="0">C11*D11</f>
-        <v>1998219</v>
-      </c>
-      <c r="F11" s="117"/>
-      <c r="G11" s="90"/>
+      <c r="C11" s="40">
+        <f>Inputs!C40</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="207">
+        <f>Inputs!D40</f>
+        <v>0.9</v>
+      </c>
+      <c r="E11" s="88">
+        <f t="shared" ref="E11:E22" si="0">C11*D11</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="113"/>
+      <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="60">
-        <v>362000</v>
-      </c>
-      <c r="J11" s="90"/>
+      <c r="I11" s="40">
+        <f>Inputs!C66</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="87"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61">
-        <v>0.95</v>
-      </c>
-      <c r="E12" s="91">
+        <v>146</v>
+      </c>
+      <c r="C12" s="40">
+        <f>Inputs!C41</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="207">
+        <f>Inputs!D41</f>
+        <v>0.8</v>
+      </c>
+      <c r="E12" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="117"/>
-      <c r="G12" s="90"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="60">
-        <v>287697</v>
-      </c>
-      <c r="J12" s="90"/>
+      <c r="I12" s="40">
+        <f>Inputs!C67</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="87"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="60">
-        <v>265773</v>
-      </c>
-      <c r="D13" s="61">
-        <v>0.8</v>
-      </c>
-      <c r="E13" s="91">
+      <c r="C13" s="40">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="207">
+        <f>Inputs!D42</f>
+        <v>0.6</v>
+      </c>
+      <c r="E13" s="88">
         <f t="shared" si="0"/>
-        <v>212618.40000000002</v>
-      </c>
-      <c r="F13" s="117"/>
-      <c r="G13" s="90"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="113"/>
+      <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="60"/>
-      <c r="J13" s="90"/>
+      <c r="I13" s="40">
+        <f>Inputs!C68</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="87"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="61">
-        <v>0.3</v>
-      </c>
-      <c r="E14" s="91">
-        <f>C14*D14</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="117"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="89" t="s">
+      <c r="C14" s="40">
+        <f>Inputs!C43</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="207">
+        <f>Inputs!D43</f>
+        <v>0.6</v>
+      </c>
+      <c r="E14" s="88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="113"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="128"/>
-      <c r="J14" s="90"/>
+      <c r="I14" s="214">
+        <f>Inputs!C69</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="87"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61">
-        <v>0.05</v>
-      </c>
-      <c r="E15" s="91">
-        <f>C15*D15</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="117"/>
-      <c r="G15" s="90"/>
+      <c r="C15" s="40">
+        <f>Inputs!C44</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="207">
+        <f>Inputs!D44</f>
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="113"/>
+      <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="87">
+      <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
-        <v>649697</v>
-      </c>
-      <c r="J15" s="90"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="87"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="91">
+        <v>170</v>
+      </c>
+      <c r="C16" s="40">
+        <f>Inputs!C45</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="207">
+        <f>Inputs!D45</f>
+        <v>0.6</v>
+      </c>
+      <c r="E16" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="117"/>
+      <c r="F16" s="113"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="90"/>
+      <c r="J16" s="87"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="60">
-        <v>366595</v>
-      </c>
-      <c r="D17" s="61">
+      <c r="C17" s="40">
+        <f>Inputs!C46</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="207">
+        <f>Inputs!D46</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="91">
+      <c r="E17" s="88">
         <f t="shared" si="0"/>
-        <v>36659.5</v>
-      </c>
-      <c r="F17" s="117"/>
-      <c r="G17" s="90"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="113"/>
+      <c r="G17" s="87"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="90"/>
+      <c r="J17" s="87"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="60">
-        <v>9672256</v>
-      </c>
-      <c r="D18" s="61">
+      <c r="C18" s="40">
+        <f>Inputs!C47</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="207">
+        <f>Inputs!D47</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="91">
+      <c r="E18" s="88">
         <f t="shared" si="0"/>
-        <v>4836128</v>
-      </c>
-      <c r="F18" s="117"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="113"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="61">
-        <v>0.75</v>
-      </c>
-      <c r="E19" s="91">
+      <c r="C19" s="40">
+        <f>Inputs!C48</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="207">
+        <f>Inputs!D48</f>
+        <v>0.6</v>
+      </c>
+      <c r="E19" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="118" t="s">
-        <v>46</v>
+      <c r="F19" s="135" t="str">
+        <f>Inputs!E48</f>
+        <v>N</v>
       </c>
       <c r="G19" s="30">
         <f>IF(F19="Y",0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="61">
+      <c r="C20" s="40">
+        <f>Inputs!C49</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="207">
+        <f>Inputs!D49</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="91">
+      <c r="E20" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="118" t="s">
-        <v>46</v>
+      <c r="F20" s="135" t="str">
+        <f>Inputs!E49</f>
+        <v>Y</v>
       </c>
       <c r="G20" s="30">
         <f>IF(F20="Y",0,1)</f>
@@ -7284,18 +9061,20 @@
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="60">
-        <v>29465</v>
-      </c>
-      <c r="D21" s="61">
-        <v>0.95</v>
-      </c>
-      <c r="E21" s="91">
+      <c r="C21" s="40">
+        <f>Inputs!C50</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="207">
+        <f>Inputs!D50</f>
+        <v>0.9</v>
+      </c>
+      <c r="E21" s="88">
         <f t="shared" si="0"/>
-        <v>27991.75</v>
-      </c>
-      <c r="F21" s="117"/>
-      <c r="G21" s="90"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="113"/>
+      <c r="G21" s="87"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
@@ -7303,660 +9082,719 @@
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="61">
-        <v>0.2</v>
-      </c>
-      <c r="E22" s="91">
-        <f t="shared" ref="E22" si="1">C22*D22</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="117"/>
-      <c r="G22" s="90"/>
+      <c r="C22" s="40">
+        <f>Inputs!C51</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="207">
+        <f>Inputs!D51</f>
+        <v>0.05</v>
+      </c>
+      <c r="E22" s="88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="113"/>
+      <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
         <v>45</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
-        <v>2867112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="116" t="s">
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="90"/>
+      <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="62">
+      <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
-        <v>2263992</v>
-      </c>
-      <c r="D24" s="63">
+        <v>0</v>
+      </c>
+      <c r="D24" s="62">
         <f>IF(E24=0,0,E24/C24)</f>
-        <v>0.97652173682592514</v>
-      </c>
-      <c r="E24" s="91">
+        <v>0</v>
+      </c>
+      <c r="E24" s="88">
         <f>SUM(E11:E14)</f>
-        <v>2210837.4</v>
-      </c>
-      <c r="F24" s="119">
+        <v>0</v>
+      </c>
+      <c r="F24" s="114" t="e">
         <f>E24/$E$28</f>
-        <v>0.31087690869838996</v>
-      </c>
-      <c r="G24" s="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="87"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="62">
+      <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
-        <v>366595</v>
-      </c>
-      <c r="D25" s="63">
+        <v>0</v>
+      </c>
+      <c r="D25" s="62">
         <f>IF(E25=0,0,E25/C25)</f>
-        <v>0.1</v>
-      </c>
-      <c r="E25" s="91">
+        <v>0</v>
+      </c>
+      <c r="E25" s="88">
         <f>SUM(E15:E17)</f>
-        <v>36659.5</v>
-      </c>
-      <c r="F25" s="119">
-        <f t="shared" ref="F25:F27" si="2">E25/$E$28</f>
-        <v>5.1548757201360113E-3</v>
-      </c>
-      <c r="G25" s="90"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="114" t="e">
+        <f>E25/$E$28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="64">
+      <c r="I25" s="63" t="e">
         <f>E28/I28</f>
-        <v>2.0221788132366587</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="62">
+      <c r="C26" s="61">
         <f>C18+C19+C20</f>
-        <v>9672256</v>
-      </c>
-      <c r="D26" s="63">
-        <f t="shared" ref="D26:D27" si="3">IF(E26=0,0,E26/C26)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E26" s="91">
+        <v>0</v>
+      </c>
+      <c r="D26" s="62">
+        <f>IF(E26=0,0,E26/C26)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="88">
         <f>E18+E19+E20</f>
-        <v>4836128</v>
-      </c>
-      <c r="F26" s="119">
-        <f t="shared" si="2"/>
-        <v>0.68003215555776619</v>
-      </c>
-      <c r="G26" s="90"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="114" t="e">
+        <f>E26/$E$28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="64">
+      <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
-        <v>3.4028745707614472</v>
-      </c>
-      <c r="J26" s="8" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J26" s="8" t="e">
         <f>IF(I26&lt;1,"Liquidity Problem!","")</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="80">
+      <c r="C27" s="77">
         <f>C21+C22</f>
-        <v>29465</v>
-      </c>
-      <c r="D27" s="63">
-        <f t="shared" si="3"/>
-        <v>0.95</v>
-      </c>
-      <c r="E27" s="91">
+        <v>0</v>
+      </c>
+      <c r="D27" s="62">
+        <f>IF(E27=0,0,E27/C27)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="88">
         <f>E21+E22</f>
-        <v>27991.75</v>
-      </c>
-      <c r="F27" s="119">
-        <f t="shared" si="2"/>
-        <v>3.9360600237078299E-3</v>
-      </c>
-      <c r="G27" s="90"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="114" t="e">
+        <f>E27/$E$28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="64">
+      <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
-        <v>0.63907277876051838</v>
-      </c>
-      <c r="J27" s="8" t="str">
-        <f>IF(OR(I27&lt;0.75,C28&lt;I28),"Liquidity Problem!","")</f>
-        <v>Liquidity Problem!</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27" s="8" t="e">
+        <f>IF(OR(I27&lt;0.75,C28&lt;I28),"Liquidity Issue!","")</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="82">
+      <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
-        <v>12332308</v>
-      </c>
-      <c r="D28" s="58">
-        <f t="shared" ref="D28" si="4">E28/C28</f>
-        <v>0.57666550738110012</v>
-      </c>
-      <c r="E28" s="73">
+        <v>0</v>
+      </c>
+      <c r="D28" s="57" t="e">
+        <f>E28/C28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" s="70">
         <f>SUM(E24:E27)</f>
-        <v>7111616.6500000004</v>
-      </c>
-      <c r="F28" s="117"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="113"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="69">
-        <v>3516809</v>
-      </c>
-      <c r="J28" s="32">
+      <c r="I28" s="215">
+        <f>Inputs!C70</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="32" t="e">
         <f>IF(J26="",1,0)+IF(J27="",1,0)+IF(J46="",1,0)+IF(J47="",1,0)</f>
-        <v>3</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="117" t="s">
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="87"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61">
-        <v>0.95</v>
-      </c>
-      <c r="E30" s="91">
-        <v>0</v>
-      </c>
-      <c r="F30" s="117"/>
-      <c r="G30" s="90"/>
+      <c r="C30" s="40">
+        <f>Inputs!C52</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="207">
+        <f>Inputs!D52</f>
+        <v>0.8</v>
+      </c>
+      <c r="E30" s="88">
+        <v>0</v>
+      </c>
+      <c r="F30" s="113"/>
+      <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I30" s="60"/>
-      <c r="J30" s="90"/>
+      <c r="I30" s="40">
+        <f>Inputs!C71</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="87"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="61">
-        <v>0.5</v>
-      </c>
-      <c r="E31" s="91">
-        <f t="shared" ref="E31:E42" si="5">C31*D31</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="117"/>
-      <c r="G31" s="90"/>
+      <c r="C31" s="40">
+        <f>Inputs!C53</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="207">
+        <f>Inputs!D53</f>
+        <v>0.6</v>
+      </c>
+      <c r="E31" s="88">
+        <f t="shared" ref="E31:E42" si="1">C31*D31</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="113"/>
+      <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I31" s="60">
-        <v>319420</v>
-      </c>
-      <c r="J31" s="90"/>
+      <c r="I31" s="40">
+        <f>Inputs!C72</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="87"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="61">
-        <v>0.4</v>
-      </c>
-      <c r="E32" s="91">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="117"/>
-      <c r="G32" s="90"/>
+      <c r="C32" s="40">
+        <f>Inputs!C54</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="207">
+        <f>Inputs!D54</f>
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="113"/>
+      <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I32" s="60"/>
-      <c r="J32" s="90"/>
+      <c r="I32" s="40">
+        <f>Inputs!C73</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="87"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="61">
+        <v>171</v>
+      </c>
+      <c r="C33" s="40">
+        <f>Inputs!C55</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="207">
+        <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="91">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="117"/>
+      <c r="E33" s="88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="113"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="89" t="s">
+      <c r="H33" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="128"/>
-      <c r="J33" s="90"/>
+      <c r="I33" s="214">
+        <f>Inputs!C74</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="87"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="60">
-        <v>103050</v>
-      </c>
-      <c r="D34" s="61">
-        <v>0</v>
-      </c>
-      <c r="E34" s="91">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="117"/>
-      <c r="G34" s="90"/>
+      <c r="C34" s="40">
+        <f>Inputs!C56</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="207">
+        <f>Inputs!D56</f>
+        <v>0.4</v>
+      </c>
+      <c r="E34" s="88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="113"/>
+      <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I34" s="87">
+      <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
-        <v>319420</v>
-      </c>
-      <c r="J34" s="90"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="87"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="60"/>
-      <c r="D35" s="61">
+      <c r="C35" s="40">
+        <f>Inputs!C57</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="207">
+        <f>Inputs!D57</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="91">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="118" t="s">
-        <v>71</v>
+      <c r="E35" s="88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="135" t="str">
+        <f>Inputs!E57</f>
+        <v>N</v>
       </c>
       <c r="G35" s="30">
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="90"/>
+      <c r="J35" s="87"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="60">
-        <v>925726</v>
-      </c>
-      <c r="D36" s="61">
+      <c r="C36" s="40">
+        <f>Inputs!C58</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="207">
+        <f>Inputs!D58</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="91">
-        <f t="shared" si="5"/>
-        <v>185145.2</v>
-      </c>
-      <c r="F36" s="118" t="s">
-        <v>71</v>
+      <c r="E36" s="88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="135" t="str">
+        <f>Inputs!E58</f>
+        <v>N</v>
       </c>
       <c r="G36" s="30">
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="60"/>
-      <c r="D37" s="61">
-        <v>0.05</v>
-      </c>
-      <c r="E37" s="91">
-        <f>C37*D37</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="118" t="s">
-        <v>46</v>
+      <c r="C37" s="40">
+        <f>Inputs!C59</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="207">
+        <f>Inputs!D59</f>
+        <v>0.1</v>
+      </c>
+      <c r="E37" s="88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="135" t="str">
+        <f>Inputs!E59</f>
+        <v>Y</v>
       </c>
       <c r="G37" s="30">
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="90"/>
-      <c r="I37" s="90"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="87"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="60">
-        <v>2522337</v>
-      </c>
-      <c r="D38" s="61">
+      <c r="C38" s="40">
+        <f>Inputs!C60</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="207">
+        <f>Inputs!D60</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="91">
-        <f>C38*D38</f>
-        <v>252233.7</v>
-      </c>
-      <c r="F38" s="117"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
+      <c r="E38" s="88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="113"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="87"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="61">
+      <c r="C39" s="40">
+        <f>Inputs!C61</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="207">
+        <f>Inputs!D61</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="91">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="117"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="90"/>
+      <c r="E39" s="88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="113"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="87"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="60">
-        <v>538321</v>
-      </c>
-      <c r="D40" s="61">
+      <c r="C40" s="40">
+        <f>Inputs!C62</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="207">
+        <f>Inputs!D62</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="91">
-        <f t="shared" si="5"/>
-        <v>26916.050000000003</v>
-      </c>
-      <c r="F40" s="117"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
+      <c r="E40" s="88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="113"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="87"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="60">
-        <v>154648</v>
-      </c>
-      <c r="D41" s="61">
-        <v>0.95</v>
-      </c>
-      <c r="E41" s="91">
-        <f t="shared" si="5"/>
-        <v>146915.6</v>
-      </c>
-      <c r="F41" s="117"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="90"/>
+      <c r="C41" s="40">
+        <f>Inputs!C63</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="207">
+        <f>Inputs!D63</f>
+        <v>0.9</v>
+      </c>
+      <c r="E41" s="88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="113"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="60">
-        <v>277674</v>
-      </c>
-      <c r="D42" s="61">
-        <v>0</v>
-      </c>
-      <c r="E42" s="91">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="117"/>
-      <c r="G42" s="90"/>
+      <c r="C42" s="40">
+        <f>Inputs!C64</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="207">
+        <f>Inputs!D64</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="113"/>
+      <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
-        <v>153937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="90"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="90"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="87"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="62">
+      <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="63">
+      <c r="D44" s="62">
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="91">
+      <c r="E44" s="88">
         <f>SUM(E30:E31)</f>
         <v>0</v>
       </c>
-      <c r="F44" s="75"/>
-      <c r="G44" s="90"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="87"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="62">
+      <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
-        <v>103050</v>
-      </c>
-      <c r="D45" s="63">
+        <v>0</v>
+      </c>
+      <c r="D45" s="62">
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="91">
+      <c r="E45" s="88">
         <f>SUM(E32:E35)</f>
         <v>0</v>
       </c>
-      <c r="F45" s="75"/>
-      <c r="G45" s="90"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="87"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="62">
+      <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
-        <v>3448063</v>
-      </c>
-      <c r="D46" s="63">
-        <f t="shared" ref="D46:D47" si="6">IF(E46=0,0,E46/C46)</f>
-        <v>0.12684771130921912</v>
-      </c>
-      <c r="E46" s="91">
+        <v>0</v>
+      </c>
+      <c r="D46" s="62">
+        <f>IF(E46=0,0,E46/C46)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="88">
         <f>E36+E37+E38+E39</f>
-        <v>437378.9</v>
-      </c>
-      <c r="F46" s="90"/>
-      <c r="G46" s="90"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="87"/>
+      <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="I46" s="64">
+      <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
-        <v>2.2812904943365973</v>
-      </c>
-      <c r="J46" s="8" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J46" s="8" t="e">
         <f>IF(I46&lt;1,"Liquidity Problem!","")</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="62">
+      <c r="C47" s="61">
         <f>C40+C41+C42</f>
-        <v>970643</v>
-      </c>
-      <c r="D47" s="63">
-        <f t="shared" si="6"/>
-        <v>0.17908917078678774</v>
-      </c>
-      <c r="E47" s="91">
+        <v>0</v>
+      </c>
+      <c r="D47" s="62">
+        <f>IF(E47=0,0,E47/C47)</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="88">
         <f>E40+E41+E42</f>
-        <v>173831.65000000002</v>
-      </c>
-      <c r="F47" s="90"/>
-      <c r="G47" s="90"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="87"/>
+      <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="I47" s="64">
+      <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
-        <v>0.56325899724472617</v>
-      </c>
-      <c r="J47" s="8" t="str">
-        <f>IF(OR(I47&lt;0.5,C49&lt;I49),"Liquidity Problem!","")</f>
-        <v/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J47" s="8" t="e">
+        <f>IF(OR(I47&lt;0.5,C49&lt;I49),"Liquidity Issue!","")</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="83" t="s">
+      <c r="B48" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="84">
+      <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
-        <v>4521756</v>
-      </c>
-      <c r="D48" s="85">
+        <v>0</v>
+      </c>
+      <c r="D48" s="82" t="e">
         <f>E48/C48</f>
-        <v>0.13517105965027748</v>
-      </c>
-      <c r="E48" s="79">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E48" s="76">
         <f>SUM(E30:E42)</f>
-        <v>611210.55000000005</v>
-      </c>
-      <c r="F48" s="90"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="87"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="I48" s="86">
-        <v>473357</v>
+      <c r="I48" s="216">
+        <f>Inputs!C75</f>
+        <v>0</v>
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="62">
+      <c r="C49" s="61">
         <f>C28+C48</f>
-        <v>16854064</v>
-      </c>
-      <c r="D49" s="56">
+        <v>0</v>
+      </c>
+      <c r="D49" s="56" t="e">
         <f>E49/C49</f>
-        <v>0.45821750765868696</v>
-      </c>
-      <c r="E49" s="91">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E49" s="88">
         <f>E28+E48</f>
-        <v>7722827.2000000002</v>
-      </c>
-      <c r="F49" s="90"/>
-      <c r="G49" s="90"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="87"/>
+      <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
         <v>86</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
-        <v>3990166</v>
-      </c>
-      <c r="J49" s="90"/>
-    </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="90"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="90"/>
-      <c r="I50" s="90"/>
-    </row>
-    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="J49" s="87"/>
+    </row>
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C50" s="87"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="87"/>
+      <c r="I50" s="87"/>
+    </row>
+    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="90"/>
-      <c r="D52" s="77" t="str">
+      <c r="C52" s="87"/>
+      <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>P/B Approach</v>
-      </c>
-      <c r="E52" s="90"/>
-      <c r="F52" s="90"/>
-      <c r="G52" s="90"/>
-      <c r="H52" s="50" t="s">
+        <v>BV of the MI</v>
+      </c>
+      <c r="E52" s="87"/>
+      <c r="F52" s="87"/>
+      <c r="G52" s="87"/>
+      <c r="I52" s="87"/>
+      <c r="K52" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="90"/>
-    </row>
-    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="91">
+      <c r="C53" s="88">
         <f>MAX(D4,0)</f>
         <v>0</v>
       </c>
@@ -7964,870 +9802,1125 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="91">
-        <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>0</v>
-      </c>
-      <c r="F53" s="90"/>
-      <c r="G53" s="90"/>
-      <c r="H53" s="90"/>
+      <c r="E53" s="88">
+        <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
+        <v>0</v>
+      </c>
+      <c r="F53" s="87"/>
+      <c r="G53" s="87"/>
       <c r="I53" s="41"/>
-    </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="90"/>
-      <c r="D54" s="90"/>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="90"/>
-      <c r="H54" s="90"/>
-      <c r="I54" s="90"/>
-    </row>
-    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="K53" s="33"/>
+    </row>
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C54" s="87"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="87"/>
+      <c r="I54" s="87"/>
+      <c r="K54" s="33"/>
+    </row>
+    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="135"/>
+      <c r="E55" s="126"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="90"/>
-      <c r="I55" s="90"/>
-    </row>
-    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="I55" s="87"/>
+      <c r="K55" s="33"/>
+    </row>
+    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C56" s="90"/>
-      <c r="D56" s="218">
+      <c r="C56" s="87"/>
+      <c r="D56" s="252">
         <f>I15+I34</f>
-        <v>969117</v>
-      </c>
-      <c r="E56" s="219"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="250"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
-      <c r="H56" s="90"/>
       <c r="I56" s="56"/>
-    </row>
-    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="K56" s="33"/>
+    </row>
+    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="90"/>
-      <c r="D57" s="217">
-        <v>0</v>
-      </c>
-      <c r="E57" s="216"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="90" t="s">
+      <c r="C57" s="87"/>
+      <c r="D57" s="251">
+        <f>Inputs!C77</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="250"/>
+      <c r="G57" s="87"/>
+      <c r="I57" s="87"/>
+      <c r="K57" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="I57" s="90"/>
-    </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="90"/>
-      <c r="D58" s="217">
-        <v>0</v>
-      </c>
-      <c r="E58" s="216"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="251">
+        <f>Inputs!C78</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="250"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="H58" s="90"/>
-      <c r="I58" s="90"/>
-    </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="90"/>
-      <c r="D59" s="90"/>
-      <c r="E59" s="90"/>
-      <c r="F59" s="90"/>
-      <c r="G59" s="90"/>
-      <c r="H59" s="90"/>
-      <c r="I59" s="90"/>
-    </row>
-    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="I58" s="87"/>
+      <c r="K58" s="33"/>
+    </row>
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C59" s="87"/>
+      <c r="D59" s="87"/>
+      <c r="E59" s="87"/>
+      <c r="F59" s="87"/>
+      <c r="G59" s="87"/>
+      <c r="I59" s="87"/>
+      <c r="K59" s="33"/>
+    </row>
+    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="78" t="s">
+      <c r="D60" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="E60" s="90"/>
+      <c r="E60" s="87"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="H60" s="90"/>
-      <c r="I60" s="90"/>
-    </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I60" s="87"/>
+      <c r="K60" s="33"/>
+    </row>
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C61" s="71">
+      <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
-        <v>925726</v>
+        <v>0</v>
       </c>
       <c r="D61" s="56">
-        <f t="shared" ref="D61:D70" si="7">IF(E61=0,0,E61/C61)</f>
-        <v>0.2</v>
+        <f t="shared" ref="D61:D70" si="2">IF(E61=0,0,E61/C61)</f>
+        <v>0</v>
       </c>
       <c r="E61" s="52">
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
-        <v>185145.2</v>
-      </c>
-      <c r="F61" s="90"/>
-      <c r="G61" s="90"/>
-      <c r="H61" s="90"/>
-      <c r="I61" s="90"/>
-    </row>
-    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="F61" s="87"/>
+      <c r="G61" s="87"/>
+      <c r="I61" s="87"/>
+      <c r="K61" s="33"/>
+    </row>
+    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" s="118">
+        <f>C11+C30</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="108">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="119">
+        <f>E11+E30</f>
+        <v>0</v>
+      </c>
+      <c r="F62" s="87"/>
+      <c r="G62" s="87"/>
+      <c r="I62" s="87"/>
+      <c r="K62" s="33"/>
+    </row>
+    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B63" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="C62" s="125">
-        <f>C11+C30</f>
-        <v>1998219</v>
-      </c>
-      <c r="D62" s="112">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="E62" s="126">
-        <f>E11+E30</f>
-        <v>1998219</v>
-      </c>
-      <c r="F62" s="90"/>
-      <c r="G62" s="90"/>
-      <c r="H62" s="90"/>
-      <c r="I62" s="90"/>
-    </row>
-    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B63" s="19" t="s">
+      <c r="C63" s="68">
+        <f>C61+C62</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="61">
+        <f>E61+E62</f>
+        <v>0</v>
+      </c>
+      <c r="F63" s="87"/>
+      <c r="G63" s="87"/>
+      <c r="I63" s="87"/>
+      <c r="K63" s="33"/>
+    </row>
+    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="122" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" s="217"/>
+      <c r="D64" s="217"/>
+      <c r="E64" s="69">
+        <f>D56+D57+D58</f>
+        <v>0</v>
+      </c>
+      <c r="F64" s="87"/>
+      <c r="G64" s="87"/>
+      <c r="I64" s="87"/>
+      <c r="K64" s="33"/>
+    </row>
+    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="68">
+        <f>C63-E64</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E65" s="61">
+        <f>E63-E64</f>
+        <v>0</v>
+      </c>
+      <c r="F65" s="87"/>
+      <c r="G65" s="87"/>
+      <c r="I65" s="87"/>
+      <c r="K65" s="33"/>
+    </row>
+    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B66" s="3"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="87"/>
+      <c r="G66" s="87"/>
+      <c r="I66" s="87"/>
+      <c r="K66" s="33"/>
+    </row>
+    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B67" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="E67" s="61"/>
+      <c r="F67" s="87"/>
+      <c r="G67" s="87"/>
+      <c r="I67" s="87"/>
+      <c r="K67" s="33"/>
+    </row>
+    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B68" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" s="68">
+        <f>C49-C63</f>
+        <v>0</v>
+      </c>
+      <c r="D68" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E68" s="68">
+        <f>E49-E63</f>
+        <v>0</v>
+      </c>
+      <c r="F68" s="87"/>
+      <c r="G68" s="87"/>
+      <c r="I68" s="87"/>
+      <c r="K68" s="33"/>
+    </row>
+    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="122" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" s="217"/>
+      <c r="D69" s="217"/>
+      <c r="E69" s="127">
+        <f>I49-E64</f>
+        <v>0</v>
+      </c>
+      <c r="F69" s="87"/>
+      <c r="G69" s="87"/>
+      <c r="I69" s="87"/>
+      <c r="K69" s="33"/>
+    </row>
+    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B70" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="C63" s="71">
-        <f>C61+C62</f>
-        <v>2923945</v>
-      </c>
-      <c r="D63" s="29">
-        <f t="shared" si="7"/>
-        <v>0.74671862842837333</v>
-      </c>
-      <c r="E63" s="62">
-        <f>E61+E62</f>
-        <v>2183364.2000000002</v>
-      </c>
-      <c r="F63" s="90"/>
-      <c r="G63" s="90"/>
-      <c r="H63" s="90"/>
-      <c r="I63" s="90"/>
-    </row>
-    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="129" t="s">
-        <v>164</v>
-      </c>
-      <c r="C64" s="130"/>
-      <c r="D64" s="131"/>
-      <c r="E64" s="72">
-        <f>D56+D57+D58</f>
-        <v>969117</v>
-      </c>
-      <c r="F64" s="90"/>
-      <c r="G64" s="90"/>
-      <c r="H64" s="90"/>
-      <c r="I64" s="90"/>
-    </row>
-    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C65" s="71">
-        <f>C63-E64</f>
-        <v>1954828</v>
-      </c>
-      <c r="D65" s="29">
-        <f t="shared" si="7"/>
-        <v>0.62115296077199644</v>
-      </c>
-      <c r="E65" s="62">
-        <f>E63-E64</f>
-        <v>1214247.2000000002</v>
-      </c>
-      <c r="F65" s="90"/>
-      <c r="G65" s="90"/>
-      <c r="H65" s="90"/>
-      <c r="I65" s="90"/>
-    </row>
-    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B66" s="3"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="90"/>
-      <c r="G66" s="90"/>
-      <c r="H66" s="90"/>
-      <c r="I66" s="90"/>
-    </row>
-    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B67" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="E67" s="62"/>
-      <c r="F67" s="90"/>
-      <c r="G67" s="90"/>
-      <c r="H67" s="90"/>
-      <c r="I67" s="90"/>
-    </row>
-    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B68" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C68" s="71">
-        <f>C49-C63</f>
-        <v>13930119</v>
-      </c>
-      <c r="D68" s="29">
-        <f t="shared" si="7"/>
-        <v>0.3976608527177693</v>
-      </c>
-      <c r="E68" s="71">
-        <f>E49-E63</f>
-        <v>5539463</v>
-      </c>
-      <c r="F68" s="90"/>
-      <c r="G68" s="90"/>
-      <c r="H68" s="90"/>
-      <c r="I68" s="90"/>
-    </row>
-    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="129" t="s">
-        <v>165</v>
-      </c>
-      <c r="C69" s="130"/>
-      <c r="D69" s="131"/>
-      <c r="E69" s="136">
-        <f>I49-E64</f>
-        <v>3021049</v>
-      </c>
-      <c r="F69" s="90"/>
-      <c r="G69" s="90"/>
-      <c r="H69" s="90"/>
-      <c r="I69" s="90"/>
-    </row>
-    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="C70" s="71">
+      <c r="C70" s="68">
         <f>C68-E69</f>
-        <v>10909070</v>
+        <v>0</v>
       </c>
       <c r="D70" s="29">
-        <f t="shared" si="7"/>
-        <v>0.23085505913886334</v>
-      </c>
-      <c r="E70" s="71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="68">
         <f>E68-E69</f>
-        <v>2518414</v>
-      </c>
-      <c r="F70" s="90"/>
-      <c r="G70" s="90"/>
-      <c r="H70" s="90"/>
-      <c r="I70" s="90"/>
-    </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="F70" s="87"/>
+      <c r="G70" s="87"/>
+      <c r="I70" s="87"/>
+      <c r="K70" s="33"/>
+    </row>
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="111" t="s">
+      <c r="B72" s="107" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="223">
+      <c r="C72" s="255">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="223"/>
-      <c r="H72" s="50" t="s">
+      <c r="D72" s="255"/>
+      <c r="E72" s="253" t="s">
+        <v>226</v>
+      </c>
+      <c r="F72" s="253"/>
+      <c r="H72" s="253" t="s">
+        <v>225</v>
+      </c>
+      <c r="I72" s="253"/>
+      <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="222" t="s">
+      <c r="C73" s="254" t="s">
         <v>103</v>
       </c>
-      <c r="D73" s="222"/>
-      <c r="E73" s="224" t="s">
+      <c r="D73" s="254"/>
+      <c r="E73" s="256" t="s">
         <v>104</v>
       </c>
-      <c r="F73" s="222"/>
-    </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F73" s="254"/>
+      <c r="H73" s="256" t="s">
+        <v>104</v>
+      </c>
+      <c r="I73" s="254"/>
+      <c r="K73" s="24"/>
+    </row>
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C74" s="80">
+      <c r="C74" s="77">
         <f>Data!C6</f>
         <v>1318408</v>
       </c>
-      <c r="D74" s="181"/>
-      <c r="E74" s="182">
+      <c r="D74" s="218"/>
+      <c r="E74" s="205">
+        <f>H74</f>
+        <v>1318408</v>
+      </c>
+      <c r="F74" s="218"/>
+      <c r="H74" s="205">
         <f>C74</f>
         <v>1318408</v>
       </c>
-      <c r="F74" s="181"/>
-    </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="109" t="s">
+      <c r="I74" s="218"/>
+      <c r="K74" s="24"/>
+    </row>
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B75" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="C75" s="80">
+      <c r="C75" s="77">
         <f>Data!C8</f>
         <v>150324</v>
       </c>
-      <c r="D75" s="183">
+      <c r="D75" s="164">
         <f>C75/$C$74</f>
         <v>0.11401933240696355</v>
       </c>
-      <c r="E75" s="182">
-        <f>D75*E74</f>
+      <c r="E75" s="186">
+        <f>E74*F75</f>
         <v>150324</v>
       </c>
-      <c r="F75" s="184">
-        <f>E75/$E$74</f>
+      <c r="F75" s="165">
+        <f>I75</f>
         <v>0.11401933240696355</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H75" s="205">
+        <f>D75*H74</f>
+        <v>150324</v>
+      </c>
+      <c r="I75" s="165">
+        <f>H75/$H$74</f>
+        <v>0.11401933240696355</v>
+      </c>
+      <c r="K75" s="24"/>
+    </row>
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="185">
+      <c r="C76" s="166">
         <f>C74-C75</f>
         <v>1168084</v>
       </c>
-      <c r="D76" s="186"/>
-      <c r="E76" s="187">
+      <c r="D76" s="219"/>
+      <c r="E76" s="167">
         <f>E74-E75</f>
         <v>1168084</v>
       </c>
-      <c r="F76" s="186"/>
-    </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="109" t="s">
+      <c r="F76" s="219"/>
+      <c r="H76" s="167">
+        <f>H74-H75</f>
+        <v>1168084</v>
+      </c>
+      <c r="I76" s="219"/>
+      <c r="K76" s="24"/>
+    </row>
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B77" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="C77" s="80">
-        <f>Data!C10-Data!C12</f>
+      <c r="C77" s="77">
+        <f>Data!C10-MAX(Data!C12,0)</f>
         <v>252305</v>
       </c>
-      <c r="D77" s="183">
+      <c r="D77" s="164">
         <f>C77/$C$74</f>
         <v>0.19137095648691452</v>
       </c>
-      <c r="E77" s="182">
-        <f>D77*E74</f>
+      <c r="E77" s="186">
+        <f>E74*F77</f>
         <v>252305</v>
       </c>
-      <c r="F77" s="184">
-        <f>E77/$E$74</f>
+      <c r="F77" s="165">
+        <f>I77</f>
         <v>0.19137095648691452</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H77" s="205">
+        <f>D77*H74</f>
+        <v>252305</v>
+      </c>
+      <c r="I77" s="165">
+        <f>H77/$H$74</f>
+        <v>0.19137095648691452</v>
+      </c>
+      <c r="K77" s="24"/>
+    </row>
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C78" s="185">
+      <c r="C78" s="166">
         <f>C76-C77</f>
         <v>915779</v>
       </c>
-      <c r="D78" s="186"/>
-      <c r="E78" s="187">
+      <c r="D78" s="219"/>
+      <c r="E78" s="167">
         <f>E76-E77</f>
         <v>915779</v>
       </c>
-      <c r="F78" s="186"/>
-    </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="109" t="s">
+      <c r="F78" s="219"/>
+      <c r="H78" s="167">
+        <f>H76-H77</f>
+        <v>915779</v>
+      </c>
+      <c r="I78" s="219"/>
+      <c r="K78" s="24"/>
+    </row>
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B79" s="105" t="s">
         <v>129</v>
       </c>
-      <c r="C79" s="80">
-        <f>Data!C17</f>
+      <c r="C79" s="77">
+        <f>MAX(Data!C17,0)</f>
         <v>651948</v>
       </c>
-      <c r="D79" s="183">
+      <c r="D79" s="164">
         <f>C79/$C$74</f>
         <v>0.49449639261897682</v>
       </c>
-      <c r="E79" s="182">
+      <c r="E79" s="186">
+        <f>E74*F79</f>
+        <v>651948</v>
+      </c>
+      <c r="F79" s="165">
+        <f t="shared" ref="F79:F84" si="3">I79</f>
+        <v>0.49449639261897682</v>
+      </c>
+      <c r="H79" s="205">
         <f>C79</f>
         <v>651948</v>
       </c>
-      <c r="F79" s="184">
-        <f>E79/$E$74</f>
+      <c r="I79" s="165">
+        <f>H79/$H$74</f>
         <v>0.49449639261897682</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K79" s="24"/>
+    </row>
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="C80" s="80">
-        <f>Data!C14+MAX(Data!C15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D80" s="183">
+      <c r="C80" s="77">
+        <f>MAX(Data!C14,0)+MAX(Data!C15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D80" s="164">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="182">
-        <f>3%*E74</f>
-        <v>39552.239999999998</v>
-      </c>
-      <c r="F80" s="184">
-        <f t="shared" ref="F80:F83" si="8">E80/$E$74</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E80" s="186">
+        <f>E74*F80</f>
+        <v>0</v>
+      </c>
+      <c r="F80" s="165">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H80" s="205">
+        <f>H74*D80</f>
+        <v>0</v>
+      </c>
+      <c r="I80" s="165">
+        <f>H80/$H$74</f>
+        <v>0</v>
+      </c>
+      <c r="K80" s="24"/>
+    </row>
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="C81" s="80">
+      <c r="C81" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D81" s="183">
+      <c r="D81" s="164">
         <f>C81/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E81" s="182">
-        <f>C81</f>
-        <v>0</v>
-      </c>
-      <c r="F81" s="184">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H81" s="115" t="s">
+      <c r="E81" s="186">
+        <f>E74*F81</f>
+        <v>0</v>
+      </c>
+      <c r="F81" s="165">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H81" s="205">
+        <v>0</v>
+      </c>
+      <c r="I81" s="165">
+        <f>H81/$H$74</f>
+        <v>0</v>
+      </c>
+      <c r="K81" s="187" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="76" t="s">
-        <v>190</v>
-      </c>
-      <c r="C82" s="80">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B82" s="73" t="s">
+        <v>186</v>
+      </c>
+      <c r="C82" s="77">
         <f>MAX(Data!C18,0)</f>
         <v>464</v>
       </c>
-      <c r="D82" s="183">
+      <c r="D82" s="164">
         <f>C82/$C$74</f>
         <v>3.5193961201691735E-4</v>
       </c>
-      <c r="E82" s="182">
-        <v>0</v>
-      </c>
-      <c r="F82" s="184">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="110" t="s">
+      <c r="E82" s="186">
+        <f>E74*F82</f>
+        <v>463.99999999999994</v>
+      </c>
+      <c r="F82" s="165">
+        <f t="shared" si="3"/>
+        <v>3.5193961201691735E-4</v>
+      </c>
+      <c r="H82" s="205">
+        <f>H74*D82</f>
+        <v>463.99999999999994</v>
+      </c>
+      <c r="I82" s="165">
+        <f>H82/$H$74</f>
+        <v>3.5193961201691735E-4</v>
+      </c>
+      <c r="K82" s="24"/>
+    </row>
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="106" t="s">
         <v>134</v>
       </c>
-      <c r="C83" s="188">
+      <c r="C83" s="168">
         <f>C78-C79-C80-C81-C82</f>
         <v>263367</v>
       </c>
-      <c r="D83" s="189">
+      <c r="D83" s="169">
         <f>C83/$C$74</f>
         <v>0.19976137887512818</v>
       </c>
-      <c r="E83" s="190">
+      <c r="E83" s="170">
         <f>E78-E79-E80-E81-E82</f>
-        <v>224278.76</v>
-      </c>
-      <c r="F83" s="191">
-        <f t="shared" si="8"/>
-        <v>0.17011331848714512</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+        <v>263367</v>
+      </c>
+      <c r="F83" s="169">
+        <f>E83/E74</f>
+        <v>0.19976137887512818</v>
+      </c>
+      <c r="H83" s="170">
+        <f>H78-H79-H80-H81-H82</f>
+        <v>263367</v>
+      </c>
+      <c r="I83" s="169">
+        <f>H83/$H$74</f>
+        <v>0.19976137887512818</v>
+      </c>
+      <c r="K83" s="24"/>
+    </row>
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C84" s="192"/>
-      <c r="D84" s="193"/>
-      <c r="E84" s="194"/>
-      <c r="F84" s="195">
+      <c r="C84" s="220"/>
+      <c r="D84" s="164">
+        <f>I84</f>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="C85" s="185">
-        <f>C83*(1-F84)</f>
+      <c r="E84" s="221"/>
+      <c r="F84" s="185">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="H84" s="221"/>
+      <c r="I84" s="211">
+        <f>Inputs!C16</f>
+        <v>0.25</v>
+      </c>
+      <c r="K84" s="24"/>
+    </row>
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B85" s="86" t="s">
+        <v>176</v>
+      </c>
+      <c r="C85" s="166">
+        <f>C83*(1-I84)</f>
         <v>197525.25</v>
       </c>
-      <c r="D85" s="191">
+      <c r="D85" s="171">
         <f>C85/$C$74</f>
         <v>0.14982103415634615</v>
       </c>
-      <c r="E85" s="196">
+      <c r="E85" s="172">
         <f>E83*(1-F84)</f>
-        <v>168209.07</v>
-      </c>
-      <c r="F85" s="191">
-        <f>E85/$E$74</f>
-        <v>0.12758498886535882</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="90" t="s">
-        <v>174</v>
-      </c>
-      <c r="C86" s="197">
+        <v>197525.25</v>
+      </c>
+      <c r="F85" s="171">
+        <f>E85/E74</f>
+        <v>0.14982103415634615</v>
+      </c>
+      <c r="H85" s="172">
+        <f>H83*(1-I84)</f>
+        <v>197525.25</v>
+      </c>
+      <c r="I85" s="171">
+        <f>H85/$H$74</f>
+        <v>0.14982103415634615</v>
+      </c>
+      <c r="K85" s="24"/>
+    </row>
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B86" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="C86" s="173">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.56438521551783827</v>
       </c>
-      <c r="D86" s="181"/>
-      <c r="E86" s="198">
+      <c r="D86" s="218"/>
+      <c r="E86" s="174">
         <f>E85*Data!C4/Common_Shares</f>
-        <v>0.48062064077380057</v>
-      </c>
-      <c r="F86" s="181"/>
-    </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="C87" s="199">
-        <f>0.2309+0.1164</f>
+        <v>0.56438521551783827</v>
+      </c>
+      <c r="F86" s="218"/>
+      <c r="H86" s="174">
+        <f>H85*Data!C4/Common_Shares</f>
+        <v>0.56438521551783827</v>
+      </c>
+      <c r="I86" s="218"/>
+      <c r="K86" s="24"/>
+    </row>
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B87" s="87" t="s">
+        <v>228</v>
+      </c>
+      <c r="C87" s="165">
+        <f>C86*Exchange_Rate/Dashboard!G3</f>
+        <v>0.15549388288163848</v>
+      </c>
+      <c r="D87" s="218"/>
+      <c r="E87" s="239">
+        <f>E86*Exchange_Rate/Dashboard!G3</f>
+        <v>0.15549388288163848</v>
+      </c>
+      <c r="F87" s="218"/>
+      <c r="H87" s="239">
+        <f>H86*Exchange_Rate/Dashboard!G3</f>
+        <v>0.15549388288163848</v>
+      </c>
+      <c r="I87" s="218"/>
+      <c r="K87" s="24"/>
+    </row>
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B88" s="86" t="s">
+        <v>227</v>
+      </c>
+      <c r="C88" s="175">
+        <f>Inputs!F5</f>
         <v>0.3473</v>
       </c>
-      <c r="D87" s="191">
-        <f>C87/C86</f>
+      <c r="D88" s="171">
+        <f>C88/C86</f>
         <v>0.61535984723012827</v>
       </c>
-      <c r="E87" s="200">
+      <c r="E88" s="204">
+        <f>H88</f>
         <v>0.23089999999999999</v>
       </c>
-      <c r="F87" s="191">
-        <f>E87/E86</f>
-        <v>0.48042048220869238</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="28"/>
-      <c r="C88" s="91"/>
-    </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="5"/>
-      <c r="B89" s="111" t="s">
+      <c r="F88" s="171">
+        <f>E88/E86</f>
+        <v>0.40911773315703032</v>
+      </c>
+      <c r="H88" s="176">
+        <f>Inputs!F6</f>
+        <v>0.23089999999999999</v>
+      </c>
+      <c r="I88" s="171">
+        <f>H88/H86</f>
+        <v>0.40911773315703032</v>
+      </c>
+      <c r="K88" s="24"/>
+    </row>
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B89" s="87" t="s">
+        <v>246</v>
+      </c>
+      <c r="C89" s="165">
+        <f>C88*Exchange_Rate/Dashboard!G3</f>
+        <v>9.5684692015264514E-2</v>
+      </c>
+      <c r="D89" s="218"/>
+      <c r="E89" s="165">
+        <f>E88*Exchange_Rate/Dashboard!G3</f>
+        <v>6.3615304884320698E-2</v>
+      </c>
+      <c r="F89" s="218"/>
+      <c r="H89" s="165">
+        <f>H88*Exchange_Rate/Dashboard!G3</f>
+        <v>6.3615304884320698E-2</v>
+      </c>
+      <c r="I89" s="218"/>
+      <c r="K89" s="24"/>
+    </row>
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B90" s="28"/>
+      <c r="C90" s="88"/>
+    </row>
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="5"/>
+      <c r="B91" s="107" t="s">
+        <v>166</v>
+      </c>
+      <c r="C91" s="21"/>
+      <c r="K91" s="50" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B92" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C92" s="207" t="str">
+        <f>Inputs!C15</f>
+        <v>CN</v>
+      </c>
+      <c r="D92" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C89" s="21"/>
-      <c r="H89" s="50" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B90" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D90" s="220" t="s">
-        <v>170</v>
-      </c>
-      <c r="E90" s="220"/>
-      <c r="G90" s="90"/>
-      <c r="H90" s="24"/>
-    </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B91" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C91" s="61" t="s">
-        <v>239</v>
-      </c>
-      <c r="D91" s="221" t="s">
-        <v>219</v>
-      </c>
-      <c r="E91" s="221"/>
-      <c r="F91" s="29">
-        <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.13293864684791165</v>
-      </c>
-      <c r="H91" s="161"/>
-    </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B92" s="1" t="str">
-        <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
-        <v>Required Return (CN)</v>
-      </c>
-      <c r="C92" s="146">
-        <f>IF(C91="CN",Dashboard!C17,IF(C91="US",Dashboard!C12,IF(C91="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.8000000000000009E-2</v>
-      </c>
-      <c r="D92" s="160">
+      <c r="E92" s="253" t="s">
+        <v>226</v>
+      </c>
+      <c r="F92" s="253"/>
+      <c r="G92" s="87"/>
+      <c r="H92" s="253" t="s">
+        <v>225</v>
+      </c>
+      <c r="I92" s="253"/>
+      <c r="K92" s="24"/>
+    </row>
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B93" s="1" t="str">
+        <f>C92&amp;" Required Return"</f>
+        <v>CN Required Return</v>
+      </c>
+      <c r="C93" s="137">
+        <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
+        <v>0.08</v>
+      </c>
+      <c r="D93" s="206">
         <v>5</v>
       </c>
-      <c r="E92" s="90" t="s">
-        <v>220</v>
-      </c>
-      <c r="F92" s="159">
-        <f>FV(F91,D92,0,-(E86/C92))</f>
-        <v>10.194166076950697</v>
-      </c>
-      <c r="H92" s="161"/>
-    </row>
-    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H93" s="24"/>
-    </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="5"/>
-      <c r="B94" s="111" t="str">
+      <c r="E93" s="87" t="s">
+        <v>229</v>
+      </c>
+      <c r="F93" s="146">
+        <f>FV(E87,D93,0,-(E86/C93))</f>
+        <v>14.531950003875913</v>
+      </c>
+      <c r="H93" s="87" t="s">
+        <v>229</v>
+      </c>
+      <c r="I93" s="146">
+        <f>FV(H87,D93,0,-(H86/C93))</f>
+        <v>14.531950003875913</v>
+      </c>
+      <c r="K93" s="24"/>
+    </row>
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B94" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C94" s="188">
+        <f>Dashboard!G20</f>
+        <v>0.15</v>
+      </c>
+      <c r="D94" s="147"/>
+      <c r="E94" s="87" t="s">
+        <v>230</v>
+      </c>
+      <c r="F94" s="146">
+        <f>FV(E89,D93,0,-(E88/C93))</f>
+        <v>3.9287720893414848</v>
+      </c>
+      <c r="H94" s="87" t="s">
+        <v>230</v>
+      </c>
+      <c r="I94" s="146">
+        <f>FV(H89,D93,0,-(H88/C93))</f>
+        <v>3.9287720893414848</v>
+      </c>
+      <c r="K94" s="24"/>
+    </row>
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E95" s="24"/>
+      <c r="K95" s="24"/>
+    </row>
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="5"/>
+      <c r="B96" s="107" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C94" s="137" t="str">
+      <c r="C96" s="128" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D94" s="167" t="s">
-        <v>221</v>
-      </c>
-      <c r="E94" s="133" t="s">
-        <v>222</v>
-      </c>
-      <c r="H94" s="24"/>
-    </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B95" s="1" t="s">
+      <c r="E96" s="125" t="s">
+        <v>234</v>
+      </c>
+      <c r="F96" s="189" t="str">
+        <f>E72</f>
+        <v>Pessimistic Case</v>
+      </c>
+      <c r="H96" s="189" t="str">
+        <f>H72</f>
+        <v>Base Case</v>
+      </c>
+      <c r="I96" s="125" t="s">
+        <v>233</v>
+      </c>
+      <c r="K96" s="24"/>
+    </row>
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B97" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C95" s="95">
-        <f>D95*Common_Shares/Data!C4</f>
-        <v>2537401.1394421929</v>
-      </c>
-      <c r="D95" s="132">
-        <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
-        <v>7.2500689858096141</v>
-      </c>
-      <c r="E95" s="132">
-        <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
-        <v>5.4953760167171639</v>
-      </c>
-      <c r="H95" s="24"/>
-    </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B96" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="C96" s="95">
+      <c r="C97" s="91">
+        <f>H97*Common_Shares/Data!C4</f>
+        <v>3738314.752989429</v>
+      </c>
+      <c r="E97" s="124">
+        <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
+        <v>7.8029432572805986</v>
+      </c>
+      <c r="F97" s="124">
+        <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
+        <v>10.681417072194332</v>
+      </c>
+      <c r="H97" s="124">
+        <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
+        <v>10.681417072194332</v>
+      </c>
+      <c r="I97" s="224"/>
+      <c r="K97" s="24"/>
+    </row>
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B98" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D96" s="132">
-        <f>C96*Data!$C$4/Common_Shares</f>
-        <v>0</v>
-      </c>
-      <c r="E96" s="120"/>
-      <c r="F96" s="121"/>
-      <c r="H96" s="24"/>
-    </row>
-    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B97" s="110" t="s">
-        <v>158</v>
-      </c>
-      <c r="C97" s="113">
+      <c r="E98" s="222"/>
+      <c r="F98" s="222"/>
+      <c r="H98" s="124">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="224"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="106" t="s">
+        <v>156</v>
+      </c>
+      <c r="C99" s="109">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>1316564.1403738977</v>
-      </c>
-      <c r="D97" s="162">
-        <f>C97*Data!$C$4/Common_Shares</f>
-        <v>3.7617941812906439</v>
-      </c>
-      <c r="E97" s="163"/>
-      <c r="F97" s="134" t="s">
-        <v>144</v>
-      </c>
-      <c r="H97" s="24"/>
-    </row>
-    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E99" s="223"/>
+      <c r="F99" s="148">
+        <f>IF(H99&gt;0,H99*0.85,H99*1.15)</f>
+        <v>0</v>
+      </c>
+      <c r="H99" s="148">
+        <f>C99*Data!$C$4/Common_Shares</f>
+        <v>0</v>
+      </c>
+      <c r="I99" s="225"/>
+      <c r="K99" s="24"/>
+    </row>
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B100" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C98" s="95">
-        <f>C95-C96+$C$97</f>
-        <v>3853965.2798160906</v>
-      </c>
-      <c r="D98" s="114">
-        <f>MAX(C98*Data!$C$4/Common_Shares,0)</f>
-        <v>11.011863167100259</v>
-      </c>
-      <c r="E98" s="114">
-        <f>E95*Exchange_Rate-D96+D97</f>
-        <v>9.7202308171589955</v>
-      </c>
-      <c r="F98" s="114">
-        <f>D98*1.25</f>
-        <v>13.764828958875324</v>
-      </c>
-      <c r="H98" s="24"/>
-    </row>
-    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H99" s="24"/>
-    </row>
-    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B100" s="10" t="s">
+      <c r="C100" s="91">
+        <f>C97-C98+$C$99</f>
+        <v>3738314.752989429</v>
+      </c>
+      <c r="E100" s="110">
+        <f>MAX(E97-H98+F99,0)</f>
+        <v>7.8029432572805986</v>
+      </c>
+      <c r="F100" s="110">
+        <f>MAX(F97-H98+F99,0)</f>
+        <v>10.681417072194332</v>
+      </c>
+      <c r="H100" s="110">
+        <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
+        <v>10.681417072194332</v>
+      </c>
+      <c r="I100" s="110">
+        <f>H100*1.25</f>
+        <v>13.351771340242916</v>
+      </c>
+      <c r="K100" s="24"/>
+    </row>
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F101" s="24"/>
+      <c r="K101" s="24"/>
+    </row>
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B102" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C102" s="128" t="str">
+        <f>C96</f>
+        <v>HKD</v>
+      </c>
+      <c r="E102" s="125" t="s">
+        <v>234</v>
+      </c>
+      <c r="F102" s="189" t="str">
+        <f>F96</f>
+        <v>Pessimistic Case</v>
+      </c>
+      <c r="H102" s="189" t="str">
+        <f>H96</f>
+        <v>Base Case</v>
+      </c>
+      <c r="I102" s="125" t="s">
+        <v>233</v>
+      </c>
+      <c r="K102" s="24"/>
+    </row>
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B103" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C103" s="91">
+        <f>H103*Common_Shares/Data!C4</f>
+        <v>1010668.6754909776</v>
+      </c>
+      <c r="E103" s="110">
+        <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
+        <v>2.109557607598628</v>
+      </c>
+      <c r="F103" s="124">
+        <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
+        <v>2.8877647704994858</v>
+      </c>
+      <c r="H103" s="124">
+        <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
+        <v>2.8877647704994858</v>
+      </c>
+      <c r="I103" s="110">
+        <f>H103*1.25</f>
+        <v>3.6097059631243571</v>
+      </c>
+      <c r="K103" s="24"/>
+    </row>
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F104" s="24"/>
+      <c r="K104" s="24"/>
+    </row>
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B105" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C105" s="128" t="str">
+        <f>C102</f>
+        <v>HKD</v>
+      </c>
+      <c r="E105" s="125" t="s">
+        <v>234</v>
+      </c>
+      <c r="F105" s="190" t="s">
+        <v>224</v>
+      </c>
+      <c r="H105" s="190" t="s">
+        <v>224</v>
+      </c>
+      <c r="I105" s="125" t="s">
+        <v>233</v>
+      </c>
+      <c r="K105" s="24"/>
+    </row>
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B106" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C106" s="91">
+        <f>F106*Common_Shares/Data!C4</f>
+        <v>2374491.7142402036</v>
+      </c>
+      <c r="E106" s="110">
+        <f>(E100+E103)/2</f>
+        <v>4.9562504324396137</v>
+      </c>
+      <c r="F106" s="124">
+        <f>(F100+F103)/2</f>
+        <v>6.7845909213469087</v>
+      </c>
+      <c r="H106" s="124">
+        <f>(H100+H103)/2</f>
+        <v>6.7845909213469087</v>
+      </c>
+      <c r="I106" s="110">
+        <f>H106*1.25</f>
+        <v>8.4807386516836356</v>
+      </c>
+      <c r="K106" s="24"/>
+    </row>
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K107" s="24"/>
+    </row>
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B108" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C100" s="137" t="str">
-        <f>C94</f>
-        <v>HKD</v>
-      </c>
-      <c r="D100" s="168">
-        <v>0.02</v>
-      </c>
-      <c r="E100" s="133" t="s">
-        <v>143</v>
-      </c>
-      <c r="F100" s="134" t="s">
-        <v>144</v>
-      </c>
-      <c r="H100" s="24"/>
-    </row>
-    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B101" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C101" s="95">
-        <f>D101*Common_Shares/Data!C4</f>
-        <v>1288537.0869184411</v>
-      </c>
-      <c r="D101" s="132">
-        <f>E87/(C92-D100)*Exchange_Rate</f>
-        <v>3.681713003796689</v>
-      </c>
-      <c r="E101" s="114">
-        <f>D101*(1-25%)</f>
-        <v>2.7612847528475166</v>
-      </c>
-      <c r="F101" s="114">
-        <f>D101*1.25</f>
-        <v>4.6021412547458613</v>
-      </c>
-      <c r="H101" s="24"/>
-    </row>
-    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H102" s="24"/>
-    </row>
-    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B103" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C103" s="137" t="str">
-        <f>C100</f>
-        <v>HKD</v>
-      </c>
-      <c r="D103" s="137" t="s">
-        <v>233</v>
-      </c>
-      <c r="E103" s="133" t="s">
-        <v>143</v>
-      </c>
-      <c r="F103" s="134" t="s">
-        <v>144</v>
-      </c>
-      <c r="H103" s="24"/>
-    </row>
-    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B104" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C104" s="95">
-        <f>D104*Common_Shares/Data!C4</f>
-        <v>2571251.1833672663</v>
-      </c>
-      <c r="D104" s="132">
-        <f>(D98+D101)/2</f>
-        <v>7.3467880854484742</v>
-      </c>
-      <c r="E104" s="114">
-        <f>D104*(1-25%)</f>
-        <v>5.5100910640863558</v>
-      </c>
-      <c r="F104" s="114">
-        <f>D104*1.25</f>
-        <v>9.1834851068105934</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B106" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C106" s="138" t="s">
-        <v>234</v>
-      </c>
+      <c r="C108" s="191" t="s">
+        <v>245</v>
+      </c>
+      <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="E92:F92"/>
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="C72:D72"/>
+    <mergeCell ref="H73:I73"/>
     <mergeCell ref="E73:F73"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="E72:F72"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C86:C87">
-    <cfRule type="containsBlanks" dxfId="3" priority="5">
+  <conditionalFormatting sqref="C86 C88">
+    <cfRule type="containsBlanks" dxfId="5" priority="7">
       <formula>LEN(TRIM(C86))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C106">
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
-      <formula>LEN(TRIM(C106))=0</formula>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="containsBlanks" dxfId="4" priority="4">
+      <formula>LEN(TRIM(C108))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:E82 F84">
-    <cfRule type="containsBlanks" dxfId="1" priority="9">
+    <cfRule type="containsBlanks" dxfId="3" priority="2">
       <formula>LEN(TRIM(E74))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="containsBlanks" dxfId="0" priority="4">
-      <formula>LEN(TRIM(E87))=0</formula>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
+      <formula>LEN(TRIM(E88))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74:H82 I84">
+    <cfRule type="containsBlanks" dxfId="1" priority="11">
+      <formula>LEN(TRIM(H74))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H88">
+    <cfRule type="containsBlanks" dxfId="0" priority="6">
+      <formula>LEN(TRIM(H88))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
     <dataValidation allowBlank="1" sqref="D52" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F35:F37 F19:F20" xr:uid="{DBDA56F9-BDA2-428A-9035-F60711F90E5E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19:F20 F35:F37" xr:uid="{DBDA56F9-BDA2-428A-9035-F60711F90E5E}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C106" xr:uid="{E383D7BB-5EEE-044F-801D-1E55C0035917}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C108" xr:uid="{E383D7BB-5EEE-044F-801D-1E55C0035917}">
       <formula1>"Profit, Dividend, Avg"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C91" xr:uid="{CA293681-B01E-459F-8C40-5799F5EB5C26}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C92" xr:uid="{CA293681-B01E-459F-8C40-5799F5EB5C26}">
       <formula1>"US, CN, HK, Others"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H81" r:id="rId1" xr:uid="{B6C51259-995A-4E8A-8C0F-B82AE723DC52}"/>
+    <hyperlink ref="K81" r:id="rId1" xr:uid="{B6C51259-995A-4E8A-8C0F-B82AE723DC52}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="portrait" r:id="rId2"/>

--- a/financial_models/opportunities/1288.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C303E05-68B7-423C-96FA-DE3315C1BF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF44E313-03D6-4B7D-888C-6A45E25B8A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="12691" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -1947,6 +1947,9 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1988,9 +1991,6 @@
     </xf>
     <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2415,17 +2415,17 @@
       <c r="B3" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="245" t="str">
+      <c r="C3" s="246" t="str">
         <f>Inputs!C4</f>
         <v>1288.HK</v>
       </c>
-      <c r="D3" s="246"/>
+      <c r="D3" s="247"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>3.9200000762939502</v>
+        <v>3.8299999237060547</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -2435,40 +2435,40 @@
       <c r="B4" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="247" t="str">
+      <c r="C4" s="248" t="str">
         <f>Inputs!C5</f>
         <v>农业银行</v>
       </c>
-      <c r="D4" s="248"/>
+      <c r="D4" s="249"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="251">
+      <c r="G4" s="252">
         <f>Inputs!C10</f>
         <v>349983033873</v>
       </c>
-      <c r="H4" s="251"/>
+      <c r="H4" s="252"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="249">
+      <c r="C5" s="250">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="250"/>
+      <c r="D5" s="251"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="243">
+      <c r="G5" s="244">
         <f>G3*G4/1000000</f>
-        <v>1371933.5194837481</v>
-      </c>
-      <c r="H5" s="243"/>
+        <v>1340434.9930320038</v>
+      </c>
+      <c r="H5" s="244"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -2491,11 +2491,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="244" t="str">
+      <c r="G6" s="245" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="244"/>
+      <c r="H6" s="245"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2515,7 +2515,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.08</v>
+        <v>1.0790773232777913</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2564,7 +2564,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="178">
-        <v>7.0000000000000007E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="111"/>
     </row>
@@ -2610,7 +2610,7 @@
         <v>196</v>
       </c>
       <c r="C17" s="181">
-        <v>0.08</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D17" s="182"/>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>0.15549388288163848</v>
+        <v>0.15901182762145899</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3615304884320698E-2</v>
+        <v>6.505455846164776E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2749,11 +2749,11 @@
         <f>Fin_Analysis!F96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="G28" s="241" t="str">
+      <c r="G28" s="242" t="str">
         <f>Fin_Analysis!H96</f>
         <v>Base Case</v>
       </c>
-      <c r="H28" s="241"/>
+      <c r="H28" s="242"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -2761,22 +2761,22 @@
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>2.109557607598628</v>
+        <v>2.3578386270717044</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.6097059631243571</v>
+        <v>4.1873509955418182</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.8877647704994858</v>
-      </c>
-      <c r="G29" s="242">
+        <v>3.3498807964334549</v>
+      </c>
+      <c r="G29" s="243">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>2.8877647704994858</v>
-      </c>
-      <c r="H29" s="242"/>
+        <v>3.3498807964334549</v>
+      </c>
+      <c r="H29" s="243"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3769,7 +3769,7 @@
       <c r="B5" s="142" t="s">
         <v>212</v>
       </c>
-      <c r="C5" s="257" t="s">
+      <c r="C5" s="241" t="s">
         <v>248</v>
       </c>
       <c r="E5" s="231">
@@ -9836,11 +9836,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="252">
+      <c r="D56" s="253">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="250"/>
+      <c r="E56" s="251"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -9851,11 +9851,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="251">
+      <c r="D57" s="252">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
-      <c r="E57" s="250"/>
+      <c r="E57" s="251"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -9867,11 +9867,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="251">
+      <c r="D58" s="252">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="E58" s="250"/>
+      <c r="E58" s="251"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -10085,19 +10085,19 @@
       <c r="B72" s="107" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="255">
+      <c r="C72" s="256">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="255"/>
-      <c r="E72" s="253" t="s">
+      <c r="D72" s="256"/>
+      <c r="E72" s="254" t="s">
         <v>226</v>
       </c>
-      <c r="F72" s="253"/>
-      <c r="H72" s="253" t="s">
+      <c r="F72" s="254"/>
+      <c r="H72" s="254" t="s">
         <v>225</v>
       </c>
-      <c r="I72" s="253"/>
+      <c r="I72" s="254"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -10107,18 +10107,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="254" t="s">
+      <c r="C73" s="255" t="s">
         <v>103</v>
       </c>
-      <c r="D73" s="254"/>
-      <c r="E73" s="256" t="s">
+      <c r="D73" s="255"/>
+      <c r="E73" s="257" t="s">
         <v>104</v>
       </c>
-      <c r="F73" s="254"/>
-      <c r="H73" s="256" t="s">
+      <c r="F73" s="255"/>
+      <c r="H73" s="257" t="s">
         <v>104</v>
       </c>
-      <c r="I73" s="254"/>
+      <c r="I73" s="255"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10473,17 +10473,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15549388288163848</v>
+        <v>0.15901182762145899</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15549388288163848</v>
+        <v>0.15901182762145899</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15549388288163848</v>
+        <v>0.15901182762145899</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -10524,17 +10524,17 @@
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.5684692015264514E-2</v>
+        <v>9.7849493952924513E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3615304884320698E-2</v>
+        <v>6.505455846164776E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3615304884320698E-2</v>
+        <v>6.505455846164776E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
@@ -10564,15 +10564,15 @@
       <c r="D92" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="E92" s="253" t="s">
+      <c r="E92" s="254" t="s">
         <v>226</v>
       </c>
-      <c r="F92" s="253"/>
+      <c r="F92" s="254"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="253" t="s">
+      <c r="H92" s="254" t="s">
         <v>225</v>
       </c>
-      <c r="I92" s="253"/>
+      <c r="I92" s="254"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10582,7 +10582,7 @@
       </c>
       <c r="C93" s="137">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>0.08</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D93" s="206">
         <v>5</v>
@@ -10592,14 +10592,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>14.531950003875913</v>
+        <v>16.393907177233519</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>14.531950003875913</v>
+        <v>16.393907177233519</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -10617,14 +10617,14 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>3.9287720893414848</v>
+        <v>4.3949173680345552</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>230</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>3.9287720893414848</v>
+        <v>4.3949173680345552</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -10664,19 +10664,19 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3738314.752989429</v>
+        <v>4373288.2422913145</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>7.8029432572805986</v>
+        <v>8.7952023563063531</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>10.681417072194332</v>
+        <v>12.495714989082215</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>10.681417072194332</v>
+        <v>12.495714989082215</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -10724,23 +10724,23 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>3738314.752989429</v>
+        <v>4373288.2422913145</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>
-        <v>7.8029432572805986</v>
+        <v>8.7952023563063531</v>
       </c>
       <c r="F100" s="110">
         <f>MAX(F97-H98+F99,0)</f>
-        <v>10.681417072194332</v>
+        <v>12.495714989082215</v>
       </c>
       <c r="H100" s="110">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>10.681417072194332</v>
+        <v>12.495714989082215</v>
       </c>
       <c r="I100" s="110">
         <f>H100*1.25</f>
-        <v>13.351771340242916</v>
+        <v>15.619643736352769</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -10778,23 +10778,23 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1010668.6754909776</v>
+        <v>1172401.4442486821</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>2.109557607598628</v>
+        <v>2.3578386270717044</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>2.8877647704994858</v>
+        <v>3.3498807964334549</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>2.8877647704994858</v>
+        <v>3.3498807964334549</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>3.6097059631243571</v>
+        <v>4.1873509955418182</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -10830,23 +10830,23 @@
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>2374491.7142402036</v>
+        <v>2772844.8432699987</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>4.9562504324396137</v>
+        <v>5.5765204916890285</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>6.7845909213469087</v>
+        <v>7.9227978927578349</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>6.7845909213469087</v>
+        <v>7.9227978927578349</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>8.4807386516836356</v>
+        <v>9.9034973659472936</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1288.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF44E313-03D6-4B7D-888C-6A45E25B8A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD2CBE34-9945-41E4-830C-99B6F63B52FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="12691" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2425,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>3.8299999237060547</v>
+        <v>3.9500000476837158</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="G5" s="244">
         <f>G3*G4/1000000</f>
-        <v>1340434.9930320038</v>
+        <v>1382433.0004868417</v>
       </c>
       <c r="H5" s="244"/>
       <c r="I5" s="38"/>
@@ -2515,7 +2515,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.0790773232777913</v>
+        <v>1.0758796532948811</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>0.15901182762145899</v>
+        <v>0.1537241930799868</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.505455846164776E-2</v>
+        <v>6.2891293404277848E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2761,20 +2761,20 @@
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>2.3578386270717044</v>
+        <v>2.327073909196768</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.1873509955418182</v>
+        <v>4.1327150800291577</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.3498807964334549</v>
+        <v>3.3061720640233259</v>
       </c>
       <c r="G29" s="243">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>3.3498807964334549</v>
+        <v>3.3061720640233259</v>
       </c>
       <c r="H29" s="243"/>
     </row>
@@ -10473,17 +10473,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15901182762145899</v>
+        <v>0.1537241930799868</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15901182762145899</v>
+        <v>0.1537241930799868</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15901182762145899</v>
+        <v>0.1537241930799868</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -10524,17 +10524,17 @@
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.7849493952924513E-2</v>
+        <v>9.4595695969275417E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.505455846164776E-2</v>
+        <v>6.2891293404277848E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.505455846164776E-2</v>
+        <v>6.2891293404277848E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
@@ -10592,14 +10592,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>16.393907177233519</v>
+        <v>16.023343042772456</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>16.393907177233519</v>
+        <v>16.023343042772456</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -10617,14 +10617,14 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>4.3949173680345552</v>
+        <v>4.3504650531984455</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>230</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>4.3949173680345552</v>
+        <v>4.3504650531984455</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -10664,19 +10664,19 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>4373288.2422913145</v>
+        <v>4261768.8398908321</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>8.7952023563063531</v>
+        <v>8.5709235856363684</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>12.495714989082215</v>
+        <v>12.177072679006836</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>12.495714989082215</v>
+        <v>12.177072679006836</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -10724,23 +10724,23 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>4373288.2422913145</v>
+        <v>4261768.8398908321</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>
-        <v>8.7952023563063531</v>
+        <v>8.5709235856363684</v>
       </c>
       <c r="F100" s="110">
         <f>MAX(F97-H98+F99,0)</f>
-        <v>12.495714989082215</v>
+        <v>12.177072679006836</v>
       </c>
       <c r="H100" s="110">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>12.495714989082215</v>
+        <v>12.177072679006836</v>
       </c>
       <c r="I100" s="110">
         <f>H100*1.25</f>
-        <v>15.619643736352769</v>
+        <v>15.221340848758544</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -10778,23 +10778,23 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1172401.4442486821</v>
+        <v>1157104.129473042</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>2.3578386270717044</v>
+        <v>2.327073909196768</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>3.3498807964334549</v>
+        <v>3.3061720640233259</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>3.3498807964334549</v>
+        <v>3.3061720640233259</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>4.1873509955418182</v>
+        <v>4.1327150800291577</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -10830,23 +10830,23 @@
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>2772844.8432699987</v>
+        <v>2709436.4846819369</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>5.5765204916890285</v>
+        <v>5.4489987474165682</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>7.9227978927578349</v>
+        <v>7.7416223715150805</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>7.9227978927578349</v>
+        <v>7.7416223715150805</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>9.9034973659472936</v>
+        <v>9.6770279643938508</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1288.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD2CBE34-9945-41E4-830C-99B6F63B52FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBF710D4-70C4-44B1-84C9-1DE52991A737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="12689" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2515,7 +2515,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.0758796532948811</v>
+        <v>1.0742770036061604</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>0.1537241930799868</v>
+        <v>0.1534952027561769</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.2891293404277848E-2</v>
+        <v>6.2797609402085841E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2761,20 +2761,20 @@
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>2.327073909196768</v>
+        <v>2.3225836163799545</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.1327150800291577</v>
+        <v>4.124740644509747</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.3061720640233259</v>
+        <v>3.2997925156077978</v>
       </c>
       <c r="G29" s="243">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>3.3061720640233259</v>
+        <v>3.2997925156077978</v>
       </c>
       <c r="H29" s="243"/>
     </row>
@@ -10473,17 +10473,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1537241930799868</v>
+        <v>0.1534952027561769</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1537241930799868</v>
+        <v>0.1534952027561769</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1537241930799868</v>
+        <v>0.1534952027561769</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -10524,17 +10524,17 @@
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.4595695969275417E-2</v>
+        <v>9.4454784518598581E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2891293404277848E-2</v>
+        <v>6.2797609402085841E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2891293404277848E-2</v>
+        <v>6.2797609402085841E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
@@ -10592,14 +10592,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>16.023343042772456</v>
+        <v>16.007447847428075</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>16.023343042772456</v>
+        <v>16.007447847428075</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -10617,14 +10617,14 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>4.3504650531984455</v>
+        <v>4.3485481255709661</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>230</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>4.3504650531984455</v>
+        <v>4.3485481255709661</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -10664,19 +10664,19 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>4261768.8398908321</v>
+        <v>4251199.0449108304</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>8.5709235856363684</v>
+        <v>8.5496664718667326</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>12.177072679006836</v>
+        <v>12.1468718008013</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>12.177072679006836</v>
+        <v>12.1468718008013</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -10724,23 +10724,23 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>4261768.8398908321</v>
+        <v>4251199.0449108304</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>
-        <v>8.5709235856363684</v>
+        <v>8.5496664718667326</v>
       </c>
       <c r="F100" s="110">
         <f>MAX(F97-H98+F99,0)</f>
-        <v>12.177072679006836</v>
+        <v>12.1468718008013</v>
       </c>
       <c r="H100" s="110">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>12.177072679006836</v>
+        <v>12.146871800801302</v>
       </c>
       <c r="I100" s="110">
         <f>H100*1.25</f>
-        <v>15.221340848758544</v>
+        <v>15.183589751001627</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -10778,23 +10778,23 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1157104.129473042</v>
+        <v>1154871.3957638356</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>2.327073909196768</v>
+        <v>2.3225836163799545</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>3.3061720640233259</v>
+        <v>3.2997925156077978</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>3.3061720640233259</v>
+        <v>3.2997925156077978</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>4.1327150800291577</v>
+        <v>4.124740644509747</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -10830,23 +10830,23 @@
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>2709436.4846819369</v>
+        <v>2703035.2203373332</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>5.4489987474165682</v>
+        <v>5.4361250441233437</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>7.7416223715150805</v>
+        <v>7.7233321582045491</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>7.7416223715150805</v>
+        <v>7.72333215820455</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>9.6770279643938508</v>
+        <v>9.6541651977556882</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1288.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBF710D4-70C4-44B1-84C9-1DE52991A737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E051569-B8CD-D14E-A5D0-6F13D44AA565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="12689" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="12680" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -896,18 +907,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -1374,7 +1385,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="258">
@@ -1430,8 +1441,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1454,14 +1465,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1491,7 +1502,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1596,7 +1607,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1624,7 +1635,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1680,13 +1691,13 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1728,7 +1739,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1761,16 +1772,16 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1791,7 +1802,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1816,10 +1827,10 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1828,10 +1839,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1848,13 +1859,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1866,13 +1877,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1910,7 +1921,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1919,10 +1930,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1956,7 +1967,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1970,7 +1981,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1983,20 +1994,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -2375,19 +2386,19 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -2396,7 +2407,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2411,7 +2422,7 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>211</v>
       </c>
@@ -2425,13 +2436,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>3.9500000476837158</v>
+        <v>3.880000114440918</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
         <v>212</v>
       </c>
@@ -2451,7 +2462,7 @@
       <c r="H4" s="252"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>175</v>
       </c>
@@ -2466,13 +2477,13 @@
       </c>
       <c r="G5" s="244">
         <f>G3*G4/1000000</f>
-        <v>1382433.0004868417</v>
+        <v>1357934.2114796196</v>
       </c>
       <c r="H5" s="244"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
@@ -2498,7 +2509,7 @@
       <c r="H6" s="245"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="86" t="s">
         <v>209</v>
       </c>
@@ -2515,15 +2526,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.0742770036061604</v>
+        <v>1.074550986289978</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="140" t="s">
         <v>207</v>
       </c>
@@ -2531,7 +2542,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>190</v>
       </c>
@@ -2542,7 +2553,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="123" t="s">
         <v>194</v>
       </c>
@@ -2556,7 +2567,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="87" t="s">
         <v>142</v>
       </c>
@@ -2568,8 +2579,8 @@
       </c>
       <c r="F12" s="111"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>191</v>
       </c>
@@ -2580,7 +2591,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>202</v>
       </c>
@@ -2591,7 +2602,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="123" t="s">
         <v>203</v>
       </c>
@@ -2605,7 +2616,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="87" t="s">
         <v>196</v>
       </c>
@@ -2614,8 +2625,8 @@
       </c>
       <c r="D17" s="182"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="143" t="s">
         <v>199</v>
       </c>
@@ -2630,7 +2641,7 @@
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="138" t="s">
         <v>181</v>
       </c>
@@ -2642,10 +2653,10 @@
         <v>231</v>
       </c>
       <c r="G20" s="178">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="138" t="s">
         <v>182</v>
       </c>
@@ -2656,7 +2667,7 @@
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="138" t="s">
         <v>183</v>
       </c>
@@ -2668,7 +2679,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="138" t="s">
         <v>184</v>
       </c>
@@ -2684,7 +2695,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="138" t="s">
         <v>185</v>
       </c>
@@ -2697,10 +2708,10 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>0.1534952027561769</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.15630429693158962</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="138" t="s">
         <v>208</v>
       </c>
@@ -2716,7 +2727,7 @@
         <v>0.40911773315703032</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="139" t="s">
         <v>187</v>
       </c>
@@ -2729,11 +2740,11 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.2797609402085841E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>6.3946859643355308E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
         <v>7</v>
@@ -2755,923 +2766,923 @@
       </c>
       <c r="H28" s="242"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="87" t="s">
         <v>180</v>
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>2.3225836163799545</v>
+        <v>1.5394588469175361</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.124740644509747</v>
+        <v>4.14814792380262</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.2997925156077978</v>
+        <v>3.3185183390420958</v>
       </c>
       <c r="G29" s="243">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>3.2997925156077978</v>
+        <v>3.3185183390420958</v>
       </c>
       <c r="H29" s="243"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -3737,20 +3748,20 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.06640625" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B4" s="142" t="s">
         <v>211</v>
       </c>
@@ -3765,7 +3776,7 @@
         <v>CNY</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="B5" s="142" t="s">
         <v>212</v>
       </c>
@@ -3781,7 +3792,7 @@
         <v>0.3473</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B6" s="142" t="s">
         <v>175</v>
       </c>
@@ -3795,7 +3806,7 @@
         <v>0.23089999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B7" s="141" t="s">
         <v>4</v>
       </c>
@@ -3803,7 +3814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B8" s="141" t="s">
         <v>236</v>
       </c>
@@ -3811,7 +3822,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B9" s="141" t="s">
         <v>237</v>
       </c>
@@ -3819,7 +3830,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B10" s="141" t="s">
         <v>238</v>
       </c>
@@ -3827,7 +3838,7 @@
         <v>349983033873</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B11" s="141" t="s">
         <v>239</v>
       </c>
@@ -3835,7 +3846,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="227" t="s">
         <v>10</v>
       </c>
@@ -3843,7 +3854,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="227" t="s">
         <v>11</v>
       </c>
@@ -3851,7 +3862,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="227" t="s">
         <v>241</v>
       </c>
@@ -3859,7 +3870,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="227" t="s">
         <v>240</v>
       </c>
@@ -3867,7 +3878,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="234" t="s">
         <v>98</v>
       </c>
@@ -3876,7 +3887,7 @@
       </c>
       <c r="D16" s="24"/>
     </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B18" s="116" t="s">
         <v>144</v>
       </c>
@@ -3925,7 +3936,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B19" s="94" t="s">
         <v>12</v>
       </c>
@@ -3945,7 +3956,7 @@
       <c r="L19" s="152"/>
       <c r="M19" s="152"/>
     </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B20" s="97" t="s">
         <v>109</v>
       </c>
@@ -3965,7 +3976,7 @@
       <c r="L20" s="153"/>
       <c r="M20" s="153"/>
     </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
@@ -3985,7 +3996,7 @@
       <c r="L21" s="153"/>
       <c r="M21" s="153"/>
     </row>
-    <row r="22" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B22" s="97" t="s">
         <v>108</v>
       </c>
@@ -4001,7 +4012,7 @@
       <c r="L22" s="153"/>
       <c r="M22" s="153"/>
     </row>
-    <row r="23" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B23" s="97" t="s">
         <v>110</v>
       </c>
@@ -4017,7 +4028,7 @@
       <c r="L23" s="153"/>
       <c r="M23" s="153"/>
     </row>
-    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B24" s="97" t="s">
         <v>111</v>
       </c>
@@ -4033,7 +4044,7 @@
       <c r="L24" s="153"/>
       <c r="M24" s="153"/>
     </row>
-    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B25" s="97" t="s">
         <v>113</v>
       </c>
@@ -4049,7 +4060,7 @@
       <c r="L25" s="153"/>
       <c r="M25" s="153"/>
     </row>
-    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B26" s="97" t="s">
         <v>129</v>
       </c>
@@ -4069,7 +4080,7 @@
       <c r="L26" s="153"/>
       <c r="M26" s="153"/>
     </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B27" s="99" t="s">
         <v>114</v>
       </c>
@@ -4089,7 +4100,7 @@
       <c r="L27" s="153"/>
       <c r="M27" s="153"/>
     </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B28" s="94" t="s">
         <v>15</v>
       </c>
@@ -4105,7 +4116,7 @@
       <c r="L28" s="153"/>
       <c r="M28" s="153"/>
     </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B29" s="94" t="s">
         <v>121</v>
       </c>
@@ -4121,7 +4132,7 @@
       <c r="L29" s="153"/>
       <c r="M29" s="153"/>
     </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B30" s="94" t="s">
         <v>159</v>
       </c>
@@ -4137,7 +4148,7 @@
       <c r="L30" s="153"/>
       <c r="M30" s="153"/>
     </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B31" s="94" t="s">
         <v>16</v>
       </c>
@@ -4153,7 +4164,7 @@
       <c r="L31" s="153"/>
       <c r="M31" s="153"/>
     </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B32" s="94" t="s">
         <v>120</v>
       </c>
@@ -4169,7 +4180,7 @@
       <c r="L32" s="153"/>
       <c r="M32" s="153"/>
     </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B33" s="94" t="s">
         <v>17</v>
       </c>
@@ -4185,7 +4196,7 @@
       <c r="L33" s="153"/>
       <c r="M33" s="153"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B34" s="94" t="s">
         <v>18</v>
       </c>
@@ -4201,7 +4212,7 @@
       <c r="L34" s="153"/>
       <c r="M34" s="153"/>
     </row>
-    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B35" s="94" t="s">
         <v>148</v>
       </c>
@@ -4217,7 +4228,7 @@
       <c r="L35" s="153"/>
       <c r="M35" s="153"/>
     </row>
-    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B36" s="94" t="s">
         <v>149</v>
       </c>
@@ -4233,7 +4244,7 @@
       <c r="L36" s="153"/>
       <c r="M36" s="153"/>
     </row>
-    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B37" s="94" t="s">
         <v>147</v>
       </c>
@@ -4249,7 +4260,7 @@
       <c r="L37" s="153"/>
       <c r="M37" s="153"/>
     </row>
-    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="203" t="s">
         <v>33</v>
       </c>
@@ -4263,7 +4274,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>38</v>
       </c>
@@ -4273,7 +4284,7 @@
       </c>
       <c r="E40" s="113"/>
     </row>
-    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>146</v>
       </c>
@@ -4283,7 +4294,7 @@
       </c>
       <c r="E41" s="113"/>
     </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>121</v>
       </c>
@@ -4294,7 +4305,7 @@
       </c>
       <c r="E42" s="113"/>
     </row>
-    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B43" s="3" t="s">
         <v>42</v>
       </c>
@@ -4304,7 +4315,7 @@
       </c>
       <c r="E43" s="113"/>
     </row>
-    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B44" s="3" t="s">
         <v>44</v>
       </c>
@@ -4314,7 +4325,7 @@
       </c>
       <c r="E44" s="113"/>
     </row>
-    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>170</v>
       </c>
@@ -4325,7 +4336,7 @@
       </c>
       <c r="E45" s="113"/>
     </row>
-    <row r="46" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B46" s="3" t="s">
         <v>122</v>
       </c>
@@ -4335,7 +4346,7 @@
       </c>
       <c r="E46" s="113"/>
     </row>
-    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B47" s="3" t="s">
         <v>47</v>
       </c>
@@ -4346,7 +4357,7 @@
       </c>
       <c r="E47" s="113"/>
     </row>
-    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
@@ -4359,7 +4370,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>124</v>
       </c>
@@ -4371,7 +4382,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
         <v>50</v>
       </c>
@@ -4382,7 +4393,7 @@
       </c>
       <c r="E50" s="113"/>
     </row>
-    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="35" t="s">
         <v>51</v>
       </c>
@@ -4393,7 +4404,7 @@
       </c>
       <c r="E51" s="113"/>
     </row>
-    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
         <v>61</v>
       </c>
@@ -4404,7 +4415,7 @@
       </c>
       <c r="E52" s="113"/>
     </row>
-    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>63</v>
       </c>
@@ -4415,7 +4426,7 @@
       </c>
       <c r="E53" s="113"/>
     </row>
-    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>65</v>
       </c>
@@ -4426,7 +4437,7 @@
       </c>
       <c r="E54" s="113"/>
     </row>
-    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>171</v>
       </c>
@@ -4437,7 +4448,7 @@
       </c>
       <c r="E55" s="113"/>
     </row>
-    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="3" t="s">
         <v>68</v>
       </c>
@@ -4447,7 +4458,7 @@
       </c>
       <c r="E56" s="113"/>
     </row>
-    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
         <v>70</v>
       </c>
@@ -4459,7 +4470,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
         <v>72</v>
       </c>
@@ -4471,7 +4482,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>49</v>
       </c>
@@ -4484,7 +4495,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
         <v>123</v>
       </c>
@@ -4495,7 +4506,7 @@
       </c>
       <c r="E60" s="113"/>
     </row>
-    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B61" s="3" t="s">
         <v>73</v>
       </c>
@@ -4506,7 +4517,7 @@
       </c>
       <c r="E61" s="113"/>
     </row>
-    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="3" t="s">
         <v>74</v>
       </c>
@@ -4516,7 +4527,7 @@
       </c>
       <c r="E62" s="113"/>
     </row>
-    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="3" t="s">
         <v>75</v>
       </c>
@@ -4527,7 +4538,7 @@
       </c>
       <c r="E63" s="113"/>
     </row>
-    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B64" s="3" t="s">
         <v>76</v>
       </c>
@@ -4537,100 +4548,100 @@
       </c>
       <c r="E64" s="113"/>
     </row>
-    <row r="65" spans="2:3" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B65" s="203" t="s">
         <v>37</v>
       </c>
       <c r="C65" s="201"/>
     </row>
-    <row r="66" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C66" s="59"/>
     </row>
-    <row r="67" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C67" s="59"/>
     </row>
-    <row r="68" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C68" s="59"/>
     </row>
-    <row r="69" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B69" s="86" t="s">
         <v>43</v>
       </c>
       <c r="C69" s="121"/>
     </row>
-    <row r="70" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B70" s="80" t="s">
         <v>16</v>
       </c>
       <c r="C70" s="83"/>
     </row>
-    <row r="71" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B71" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C71" s="59"/>
     </row>
-    <row r="72" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B72" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C72" s="59"/>
     </row>
-    <row r="73" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B73" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C73" s="59"/>
     </row>
-    <row r="74" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B74" s="86" t="s">
         <v>67</v>
       </c>
       <c r="C74" s="121"/>
     </row>
-    <row r="75" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B75" s="80" t="s">
         <v>85</v>
       </c>
       <c r="C75" s="83"/>
     </row>
-    <row r="76" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B76" s="73" t="s">
         <v>242</v>
       </c>
       <c r="C76" s="59"/>
     </row>
-    <row r="77" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B77" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C77" s="59"/>
     </row>
-    <row r="78" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B78" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C78" s="59"/>
     </row>
-    <row r="81" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B81" s="20"/>
     </row>
-    <row r="85" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B85" s="20"/>
     </row>
-    <row r="86" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B86" s="20"/>
     </row>
-    <row r="87" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B87" s="20"/>
     </row>
   </sheetData>
@@ -4683,7 +4694,7 @@
       <selection pane="topRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -4691,7 +4702,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -4699,7 +4710,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -4724,7 +4735,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="104" t="s">
         <v>10</v>
@@ -4753,7 +4764,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="104" t="s">
         <v>11</v>
@@ -4775,7 +4786,7 @@
       </c>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="116" t="s">
         <v>144</v>
@@ -4825,7 +4836,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
         <v>12</v>
@@ -4876,7 +4887,7 @@
       </c>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
         <v>13</v>
@@ -4927,7 +4938,7 @@
       </c>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
         <v>109</v>
@@ -4978,7 +4989,7 @@
       </c>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
         <v>105</v>
@@ -5029,7 +5040,7 @@
       </c>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
         <v>107</v>
@@ -5080,7 +5091,7 @@
       </c>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="94" t="s">
         <v>100</v>
@@ -5131,7 +5142,7 @@
       </c>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="97" t="s">
         <v>108</v>
@@ -5182,7 +5193,7 @@
       </c>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="98" t="s">
         <v>106</v>
@@ -5233,7 +5244,7 @@
       </c>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="97" t="s">
         <v>110</v>
@@ -5284,7 +5295,7 @@
       </c>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="97" t="s">
         <v>111</v>
@@ -5335,7 +5346,7 @@
       </c>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
         <v>113</v>
@@ -5386,7 +5397,7 @@
       </c>
       <c r="N16" s="87"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
         <v>129</v>
@@ -5437,7 +5448,7 @@
       </c>
       <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="99" t="s">
         <v>114</v>
@@ -5488,7 +5499,7 @@
       </c>
       <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="236" t="s">
         <v>216</v>
@@ -5539,7 +5550,7 @@
       </c>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="236" t="s">
         <v>217</v>
@@ -5590,7 +5601,7 @@
       </c>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="94" t="s">
         <v>115</v>
@@ -5641,7 +5652,7 @@
       </c>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
         <v>116</v>
@@ -5692,7 +5703,7 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
         <v>117</v>
@@ -5743,7 +5754,7 @@
       </c>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="102" t="s">
         <v>118</v>
@@ -5794,7 +5805,7 @@
       </c>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="101" t="s">
         <v>138</v>
@@ -5845,7 +5856,7 @@
       </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="115" t="s">
         <v>145</v>
@@ -5896,7 +5907,7 @@
       </c>
       <c r="N26" s="87"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
         <v>14</v>
@@ -5947,7 +5958,7 @@
       </c>
       <c r="N27" s="87"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
         <v>15</v>
@@ -5998,7 +6009,7 @@
       </c>
       <c r="N28" s="87"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
         <v>121</v>
@@ -6049,7 +6060,7 @@
       </c>
       <c r="N29" s="87"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
         <v>159</v>
@@ -6100,7 +6111,7 @@
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
         <v>16</v>
@@ -6151,7 +6162,7 @@
       </c>
       <c r="N31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
         <v>120</v>
@@ -6202,7 +6213,7 @@
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
         <v>17</v>
@@ -6253,7 +6264,7 @@
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
         <v>18</v>
@@ -6304,7 +6315,7 @@
       </c>
       <c r="N34" s="87"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
         <v>19</v>
@@ -6355,7 +6366,7 @@
       </c>
       <c r="N35" s="87"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
         <v>148</v>
@@ -6406,7 +6417,7 @@
       </c>
       <c r="N36" s="87"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
         <v>149</v>
@@ -6457,7 +6468,7 @@
       </c>
       <c r="N37" s="87"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
         <v>147</v>
@@ -6508,7 +6519,7 @@
       </c>
       <c r="N38" s="87"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
         <v>151</v>
@@ -6559,7 +6570,7 @@
       </c>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
         <v>169</v>
@@ -6610,7 +6621,7 @@
       </c>
       <c r="N40" s="87"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
         <v>132</v>
@@ -6628,7 +6639,7 @@
       <c r="M41" s="54"/>
       <c r="N41" s="87"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
         <v>99</v>
@@ -6679,7 +6690,7 @@
       </c>
       <c r="N42" s="87"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
         <v>126</v>
@@ -6730,7 +6741,7 @@
       </c>
       <c r="N43" s="87"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
         <v>101</v>
@@ -6781,7 +6792,7 @@
       </c>
       <c r="N44" s="87"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
         <v>112</v>
@@ -6832,7 +6843,7 @@
       </c>
       <c r="N45" s="87"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
         <v>127</v>
@@ -6883,7 +6894,7 @@
       </c>
       <c r="N46" s="87"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
         <v>139</v>
@@ -6934,7 +6945,7 @@
       </c>
       <c r="N47" s="87"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
         <v>130</v>
@@ -6985,7 +6996,7 @@
       </c>
       <c r="N48" s="87"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="16"/>
       <c r="B49" s="103" t="s">
         <v>160</v>
@@ -7003,7 +7014,7 @@
       <c r="M49" s="36"/>
       <c r="N49" s="87"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
         <v>157</v>
@@ -7054,7 +7065,7 @@
       </c>
       <c r="N50" s="87"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
         <v>158</v>
@@ -7105,7 +7116,7 @@
       </c>
       <c r="N51" s="87"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="16"/>
       <c r="B52" s="103" t="s">
         <v>131</v>
@@ -7122,7 +7133,7 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
         <v>20</v>
@@ -7172,7 +7183,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
         <v>125</v>
@@ -7222,7 +7233,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
         <v>128</v>
@@ -7272,7 +7283,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
         <v>21</v>
@@ -7322,1260 +7333,1260 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -8619,7 +8630,7 @@
       <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -8627,11 +8638,11 @@
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -8647,7 +8658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -8671,7 +8682,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -8687,7 +8698,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
@@ -8702,7 +8713,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
@@ -8727,7 +8738,7 @@
       <c r="J6" s="87"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -8750,13 +8761,13 @@
       <c r="J7" s="87"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="87"/>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -8776,7 +8787,7 @@
       <c r="I9" s="86"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="22" t="s">
         <v>33</v>
       </c>
@@ -8801,7 +8812,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -8829,7 +8840,7 @@
       <c r="J11" s="87"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>146</v>
       </c>
@@ -8857,7 +8868,7 @@
       <c r="J12" s="87"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -8885,7 +8896,7 @@
       <c r="J13" s="87"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -8913,7 +8924,7 @@
       <c r="J14" s="87"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -8940,7 +8951,7 @@
       </c>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>170</v>
       </c>
@@ -8962,7 +8973,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="87"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -8984,7 +8995,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="87"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -9005,7 +9016,7 @@
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -9030,7 +9041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -9057,7 +9068,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -9078,7 +9089,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -9104,7 +9115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
@@ -9113,7 +9124,7 @@
       </c>
       <c r="G23" s="87"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -9135,7 +9146,7 @@
       </c>
       <c r="G24" s="87"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -9164,7 +9175,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -9197,7 +9208,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -9230,7 +9241,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="78" t="s">
         <v>15</v>
       </c>
@@ -9260,7 +9271,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
@@ -9272,7 +9283,7 @@
       <c r="I29" s="87"/>
       <c r="J29" s="87"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -9298,7 +9309,7 @@
       </c>
       <c r="J30" s="87"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -9325,7 +9336,7 @@
       </c>
       <c r="J31" s="87"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -9352,7 +9363,7 @@
       </c>
       <c r="J32" s="87"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>171</v>
       </c>
@@ -9382,7 +9393,7 @@
       </c>
       <c r="J33" s="87"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -9409,7 +9420,7 @@
       </c>
       <c r="J34" s="87"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -9435,7 +9446,7 @@
       </c>
       <c r="J35" s="87"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -9462,7 +9473,7 @@
       <c r="H36" s="87"/>
       <c r="I36" s="87"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -9489,7 +9500,7 @@
       <c r="H37" s="87"/>
       <c r="I37" s="87"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -9510,7 +9521,7 @@
       <c r="H38" s="87"/>
       <c r="I38" s="87"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -9531,7 +9542,7 @@
       <c r="H39" s="87"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -9552,7 +9563,7 @@
       <c r="H40" s="87"/>
       <c r="I40" s="87"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -9573,7 +9584,7 @@
       <c r="H41" s="87"/>
       <c r="I41" s="87"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -9599,7 +9610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="87"/>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
@@ -9608,7 +9619,7 @@
       <c r="H43" s="87"/>
       <c r="I43" s="87"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -9627,7 +9638,7 @@
       <c r="F44" s="72"/>
       <c r="G44" s="87"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -9646,7 +9657,7 @@
       <c r="F45" s="72"/>
       <c r="G45" s="87"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -9676,7 +9687,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -9706,7 +9717,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="80" t="s">
         <v>84</v>
       </c>
@@ -9733,7 +9744,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -9760,20 +9771,20 @@
       </c>
       <c r="J49" s="87"/>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="87"/>
       <c r="D50" s="87"/>
       <c r="E50" s="87"/>
       <c r="I50" s="87"/>
     </row>
-    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -9790,7 +9801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -9811,7 +9822,7 @@
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="87"/>
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
@@ -9820,7 +9831,7 @@
       <c r="I54" s="87"/>
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>161</v>
       </c>
@@ -9831,7 +9842,7 @@
       <c r="I55" s="87"/>
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -9846,7 +9857,7 @@
       <c r="I56" s="56"/>
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -9862,7 +9873,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -9877,7 +9888,7 @@
       <c r="I58" s="87"/>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="87"/>
       <c r="D59" s="87"/>
       <c r="E59" s="87"/>
@@ -9886,7 +9897,7 @@
       <c r="I59" s="87"/>
       <c r="K59" s="33"/>
     </row>
-    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>164</v>
       </c>
@@ -9900,7 +9911,7 @@
       <c r="I60" s="87"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -9921,7 +9932,7 @@
       <c r="I61" s="87"/>
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>150</v>
       </c>
@@ -9942,7 +9953,7 @@
       <c r="I62" s="87"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>152</v>
       </c>
@@ -9963,7 +9974,7 @@
       <c r="I63" s="87"/>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:11" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="122" t="s">
         <v>162</v>
       </c>
@@ -9978,7 +9989,7 @@
       <c r="I64" s="87"/>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>153</v>
       </c>
@@ -9999,7 +10010,7 @@
       <c r="I65" s="87"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
@@ -10009,7 +10020,7 @@
       <c r="I66" s="87"/>
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>165</v>
       </c>
@@ -10023,7 +10034,7 @@
       <c r="I67" s="87"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>151</v>
       </c>
@@ -10044,7 +10055,7 @@
       <c r="I68" s="87"/>
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="122" t="s">
         <v>163</v>
       </c>
@@ -10059,7 +10070,7 @@
       <c r="I69" s="87"/>
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>154</v>
       </c>
@@ -10080,7 +10091,7 @@
       <c r="I70" s="87"/>
       <c r="K70" s="33"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="107" t="s">
         <v>137</v>
@@ -10102,7 +10113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
@@ -10121,7 +10132,7 @@
       <c r="I73" s="255"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -10142,7 +10153,7 @@
       <c r="I74" s="218"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="105" t="s">
         <v>109</v>
       </c>
@@ -10172,7 +10183,7 @@
       </c>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -10193,7 +10204,7 @@
       <c r="I76" s="219"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="105" t="s">
         <v>133</v>
       </c>
@@ -10223,7 +10234,7 @@
       </c>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -10244,7 +10255,7 @@
       <c r="I78" s="219"/>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="105" t="s">
         <v>129</v>
       </c>
@@ -10274,7 +10285,7 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -10304,7 +10315,7 @@
       </c>
       <c r="K80" s="24"/>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -10335,7 +10346,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="73" t="s">
         <v>186</v>
       </c>
@@ -10365,7 +10376,7 @@
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="106" t="s">
         <v>134</v>
       </c>
@@ -10395,7 +10406,7 @@
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -10416,7 +10427,7 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="86" t="s">
         <v>176</v>
       </c>
@@ -10446,7 +10457,7 @@
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="87" t="s">
         <v>172</v>
       </c>
@@ -10467,28 +10478,28 @@
       <c r="I86" s="218"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="87" t="s">
         <v>228</v>
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1534952027561769</v>
+        <v>0.15630429693158962</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1534952027561769</v>
+        <v>0.15630429693158962</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1534952027561769</v>
+        <v>0.15630429693158962</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="86" t="s">
         <v>227</v>
       </c>
@@ -10518,32 +10529,32 @@
       </c>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="87" t="s">
         <v>246</v>
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.4454784518598581E-2</v>
+        <v>9.6183388281235599E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2797609402085841E-2</v>
+        <v>6.3946859643355308E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2797609402085841E-2</v>
+        <v>6.3946859643355308E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="28"/>
       <c r="C90" s="88"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="5"/>
       <c r="B91" s="107" t="s">
         <v>166</v>
@@ -10553,7 +10564,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="10" t="s">
         <v>167</v>
       </c>
@@ -10575,7 +10586,7 @@
       <c r="I92" s="254"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="1" t="str">
         <f>C92&amp;" Required Return"</f>
         <v>CN Required Return</v>
@@ -10592,24 +10603,24 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>16.007447847428075</v>
+        <v>16.203313313141006</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>16.007447847428075</v>
+        <v>16.203313313141006</v>
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="1" t="s">
         <v>231</v>
       </c>
       <c r="C94" s="188">
         <f>Dashboard!G20</f>
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D94" s="147"/>
       <c r="E94" s="87" t="s">
@@ -10617,22 +10628,22 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>4.3485481255709661</v>
+        <v>4.3721104191839775</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>230</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>4.3485481255709661</v>
+        <v>4.3721104191839775</v>
       </c>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="5"/>
       <c r="B96" s="107" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -10658,30 +10669,30 @@
       </c>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>4251199.0449108304</v>
+        <v>4304313.7625153828</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>8.5496664718667326</v>
+        <v>5.7053302953742175</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>12.1468718008013</v>
+        <v>12.298635493505978</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>12.1468718008013</v>
+        <v>12.298635493505978</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="28" t="s">
         <v>155</v>
       </c>
@@ -10698,7 +10709,7 @@
       <c r="I98" s="224"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B99" s="106" t="s">
         <v>156</v>
       </c>
@@ -10718,37 +10729,37 @@
       <c r="I99" s="225"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B100" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>4251199.0449108304</v>
+        <v>4304313.7625153828</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>
-        <v>8.5496664718667326</v>
+        <v>5.7053302953742175</v>
       </c>
       <c r="F100" s="110">
         <f>MAX(F97-H98+F99,0)</f>
-        <v>12.1468718008013</v>
+        <v>12.298635493505978</v>
       </c>
       <c r="H100" s="110">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>12.146871800801302</v>
+        <v>12.298635493505978</v>
       </c>
       <c r="I100" s="110">
         <f>H100*1.25</f>
-        <v>15.183589751001627</v>
+        <v>15.373294366882472</v>
       </c>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="10" t="s">
         <v>174</v>
       </c>
@@ -10772,37 +10783,37 @@
       </c>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1154871.3957638356</v>
+        <v>1161425.1162611416</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>2.3225836163799545</v>
+        <v>1.5394588469175361</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>3.2997925156077978</v>
+        <v>3.3185183390420958</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>3.2997925156077978</v>
+        <v>3.3185183390420958</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>4.124740644509747</v>
+        <v>4.14814792380262</v>
       </c>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F104" s="24"/>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="10" t="s">
         <v>214</v>
       </c>
@@ -10824,36 +10835,36 @@
       </c>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="1" t="s">
         <v>215</v>
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>2703035.2203373332</v>
+        <v>2732869.4393882621</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>5.4361250441233437</v>
+        <v>3.6223945711458767</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>7.7233321582045491</v>
+        <v>7.8085769162740366</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>7.72333215820455</v>
+        <v>7.8085769162740366</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>9.6541651977556882</v>
+        <v>9.7607211453425453</v>
       </c>
       <c r="K106" s="24"/>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="10" t="s">
         <v>177</v>
       </c>
